--- a/Översikt HÄRRYDA.xlsx
+++ b/Översikt HÄRRYDA.xlsx
@@ -575,7 +575,7 @@
         <v>45608.35664351852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45030</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45239</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,14 +930,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 46044-2025</t>
+          <t>A 26989-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45924.45489583333</v>
+        <v>45811.5165625</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.7</v>
+        <v>4.6</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -984,213 +984,213 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Kungsfågel
+Skogsduva</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 26989-2025 artfynd.xlsx", "A 26989-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 26989-2025 karta.png", "A 26989-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 26989-2025 FSC-klagomål.docx", "A 26989-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 26989-2025 FSC-klagomål mail.docx", "A 26989-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 26989-2025 tillsynsbegäran.docx", "A 26989-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 26989-2025 tillsynsbegäran mail.docx", "A 26989-2025")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 26989-2025 prioriterade fågelarter.docx", "A 26989-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 46044-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45924.45489583333</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HÄRRYDA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Fjällig taggsvamp s.str.
 Mandelriska</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 46044-2025 artfynd.xlsx", "A 46044-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 46044-2025 karta.png", "A 46044-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 46044-2025 FSC-klagomål.docx", "A 46044-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 46044-2025 FSC-klagomål mail.docx", "A 46044-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 46044-2025 tillsynsbegäran.docx", "A 46044-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 46044-2025 tillsynsbegäran mail.docx", "A 46044-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 7253-2026</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>46058.59695601852</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HÄRRYDA</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="C8" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>HÄRRYDA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G8" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Svart taggsvamp
 Blåmossa</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 7253-2026 artfynd.xlsx", "A 7253-2026")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 7253-2026 karta.png", "A 7253-2026")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 7253-2026 FSC-klagomål.docx", "A 7253-2026")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 7253-2026 FSC-klagomål mail.docx", "A 7253-2026")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 7253-2026 tillsynsbegäran.docx", "A 7253-2026")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 7253-2026 tillsynsbegäran mail.docx", "A 7253-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 26989-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45811.5165625</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>HÄRRYDA</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Kungsfågel
-Skogsduva</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 26989-2025 artfynd.xlsx", "A 26989-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 26989-2025 karta.png", "A 26989-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 26989-2025 FSC-klagomål.docx", "A 26989-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 26989-2025 FSC-klagomål mail.docx", "A 26989-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 26989-2025 tillsynsbegäran.docx", "A 26989-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 26989-2025 tillsynsbegäran mail.docx", "A 26989-2025")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 26989-2025 prioriterade fågelarter.docx", "A 26989-2025")</f>
         <v/>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
         <v>44508</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44242</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,14 +1367,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 43202-2024</t>
+          <t>A 27482-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45567.69123842593</v>
+        <v>45813.38332175926</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1387,17 +1387,17 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5.3</v>
+        <v>14.1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1421,45 +1421,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Havstulpanlav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 43202-2024 artfynd.xlsx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 27482-2025 artfynd.xlsx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 43202-2024 karta.png", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 27482-2025 karta.png", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 43202-2024 FSC-klagomål.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 27482-2025 FSC-klagomål.docx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 43202-2024 FSC-klagomål mail.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 27482-2025 FSC-klagomål mail.docx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 43202-2024 tillsynsbegäran.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 27482-2025 tillsynsbegäran.docx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 43202-2024 tillsynsbegäran mail.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 27482-2025 tillsynsbegäran mail.docx", "A 27482-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 7575-2025</t>
+          <t>A 55686-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45705</v>
+        <v>45239.34966435185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1472,13 +1472,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.9</v>
+        <v>6.6</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1506,45 +1506,49 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 7575-2025 artfynd.xlsx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 55686-2023 artfynd.xlsx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 7575-2025 karta.png", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 55686-2023 karta.png", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 7575-2025 FSC-klagomål.docx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 55686-2023 FSC-klagomål.docx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 7575-2025 FSC-klagomål mail.docx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 55686-2023 FSC-klagomål mail.docx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 7575-2025 tillsynsbegäran.docx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 55686-2023 tillsynsbegäran.docx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 7575-2025 tillsynsbegäran mail.docx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 55686-2023 tillsynsbegäran mail.docx", "A 55686-2023")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 55686-2023 prioriterade fågelarter.docx", "A 55686-2023")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 55686-2023</t>
+          <t>A 14259-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45239.34966435185</v>
+        <v>45740.62429398148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1557,23 +1561,23 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>6.6</v>
+        <v>1.9</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
@@ -1581,59 +1585,55 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 55686-2023 artfynd.xlsx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 14259-2025 artfynd.xlsx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 55686-2023 karta.png", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 14259-2025 karta.png", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 55686-2023 FSC-klagomål.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 14259-2025 FSC-klagomål.docx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 55686-2023 FSC-klagomål mail.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 14259-2025 FSC-klagomål mail.docx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 55686-2023 tillsynsbegäran.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 14259-2025 tillsynsbegäran.docx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 55686-2023 tillsynsbegäran mail.docx", "A 55686-2023")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 55686-2023 prioriterade fågelarter.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 14259-2025 tillsynsbegäran mail.docx", "A 14259-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 42915-2025</t>
+          <t>A 13586-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45908.76802083333</v>
+        <v>45736.59434027778</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>8.699999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1680,45 +1680,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Klippfrullania</t>
+          <t>Smal svampklubba</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 42915-2025 artfynd.xlsx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 13586-2025 artfynd.xlsx", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 42915-2025 karta.png", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 13586-2025 karta.png", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 42915-2025 FSC-klagomål.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 13586-2025 FSC-klagomål.docx", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 42915-2025 FSC-klagomål mail.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 13586-2025 FSC-klagomål mail.docx", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 42915-2025 tillsynsbegäran.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 13586-2025 tillsynsbegäran.docx", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 42915-2025 tillsynsbegäran mail.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 13586-2025 tillsynsbegäran mail.docx", "A 13586-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 49645-2025</t>
+          <t>A 42915-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45939.61609953704</v>
+        <v>45908.76802083333</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1731,13 +1731,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,45 +1765,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Klippfrullania</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 49645-2025 artfynd.xlsx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 42915-2025 artfynd.xlsx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 49645-2025 karta.png", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 42915-2025 karta.png", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 49645-2025 FSC-klagomål.docx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 42915-2025 FSC-klagomål.docx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 49645-2025 FSC-klagomål mail.docx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 42915-2025 FSC-klagomål mail.docx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 49645-2025 tillsynsbegäran.docx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 42915-2025 tillsynsbegäran.docx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 49645-2025 tillsynsbegäran mail.docx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 42915-2025 tillsynsbegäran mail.docx", "A 42915-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 39670-2025</t>
+          <t>A 49645-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45890.64280092593</v>
+        <v>45939.61609953704</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1840,55 +1840,55 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Flodpärlmussla</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 39670-2025 artfynd.xlsx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 49645-2025 artfynd.xlsx", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 39670-2025 karta.png", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 49645-2025 karta.png", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 39670-2025 FSC-klagomål.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 49645-2025 FSC-klagomål.docx", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 39670-2025 FSC-klagomål mail.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 49645-2025 FSC-klagomål mail.docx", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 39670-2025 tillsynsbegäran.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 49645-2025 tillsynsbegäran.docx", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 39670-2025 tillsynsbegäran mail.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 49645-2025 tillsynsbegäran mail.docx", "A 49645-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 21101-2023</t>
+          <t>A 39670-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45061</v>
+        <v>45890.64280092593</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1901,23 +1901,23 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
@@ -1925,55 +1925,55 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Åkergroda</t>
+          <t>Flodpärlmussla</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 21101-2023 artfynd.xlsx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 39670-2025 artfynd.xlsx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 21101-2023 karta.png", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 39670-2025 karta.png", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 21101-2023 FSC-klagomål.docx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 39670-2025 FSC-klagomål.docx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 21101-2023 FSC-klagomål mail.docx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 39670-2025 FSC-klagomål mail.docx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 21101-2023 tillsynsbegäran.docx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 39670-2025 tillsynsbegäran.docx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 21101-2023 tillsynsbegäran mail.docx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 39670-2025 tillsynsbegäran mail.docx", "A 39670-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 27482-2025</t>
+          <t>A 43202-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45813.38332175926</v>
+        <v>45567.69123842593</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1986,16 +1986,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>14.1</v>
+        <v>5.3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2020,45 +2020,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Havstulpanlav</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 27482-2025 artfynd.xlsx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 43202-2024 artfynd.xlsx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 27482-2025 karta.png", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 43202-2024 karta.png", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 27482-2025 FSC-klagomål.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 43202-2024 FSC-klagomål.docx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 27482-2025 FSC-klagomål mail.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 43202-2024 FSC-klagomål mail.docx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 27482-2025 tillsynsbegäran.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 43202-2024 tillsynsbegäran.docx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 27482-2025 tillsynsbegäran mail.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 43202-2024 tillsynsbegäran mail.docx", "A 43202-2024")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 14259-2025</t>
+          <t>A 21101-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45740.62429398148</v>
+        <v>45061</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2071,10 +2071,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2095,55 +2095,55 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Åkergroda</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 14259-2025 artfynd.xlsx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 21101-2023 artfynd.xlsx", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 14259-2025 karta.png", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 21101-2023 karta.png", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 14259-2025 FSC-klagomål.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 21101-2023 FSC-klagomål.docx", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 14259-2025 FSC-klagomål mail.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 21101-2023 FSC-klagomål mail.docx", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 14259-2025 tillsynsbegäran.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 21101-2023 tillsynsbegäran.docx", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 14259-2025 tillsynsbegäran mail.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 21101-2023 tillsynsbegäran mail.docx", "A 21101-2023")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 13586-2025</t>
+          <t>A 7575-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45736.59434027778</v>
+        <v>45705</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2190,31 +2190,31 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Smal svampklubba</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 13586-2025 artfynd.xlsx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 7575-2025 artfynd.xlsx", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 13586-2025 karta.png", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 7575-2025 karta.png", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 13586-2025 FSC-klagomål.docx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 7575-2025 FSC-klagomål.docx", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 13586-2025 FSC-klagomål mail.docx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 7575-2025 FSC-klagomål mail.docx", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 13586-2025 tillsynsbegäran.docx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 7575-2025 tillsynsbegäran.docx", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 13586-2025 tillsynsbegäran mail.docx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 7575-2025 tillsynsbegäran mail.docx", "A 7575-2025")</f>
         <v/>
       </c>
     </row>
@@ -2228,7 +2228,7 @@
         <v>44243</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>44301.77314814815</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>44732</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>44599</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>44623.57480324074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44257</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>44547</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>44468</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>44708</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>44321.65381944444</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>44278</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>44278</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>44489.80715277778</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>44271.47340277778</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>44468</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3076,14 +3076,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 25267-2021</t>
+          <t>A 59767-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44342.44517361111</v>
+        <v>44494</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.2</v>
+        <v>6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3133,14 +3133,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 59767-2021</t>
+          <t>A 25267-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44494</v>
+        <v>44342.44517361111</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3197,7 +3197,7 @@
         <v>44615.66289351852</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>44392</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>44784.51399305555</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>44344</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>44266</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>44543.354375</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>44694</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>44663</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3646,14 +3646,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 16509-2025</t>
+          <t>A 27546-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45751.61958333333</v>
+        <v>44351</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3703,14 +3703,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 27546-2021</t>
+          <t>A 63595-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44351</v>
+        <v>44508</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3760,14 +3760,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 63595-2021</t>
+          <t>A 52045-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44508</v>
+        <v>44873.31652777778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3817,14 +3817,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 51162-2023</t>
+          <t>A 58481-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45219</v>
+        <v>44902</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3874,14 +3874,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 64560-2023</t>
+          <t>A 63592-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45281.4116087963</v>
+        <v>44508</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>7.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3931,14 +3931,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 39676-2025</t>
+          <t>A 41725-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45890.64989583333</v>
+        <v>45560.86376157407</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3988,14 +3988,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 20727-2023</t>
+          <t>A 41457-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45058.48152777777</v>
+        <v>45175</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4045,14 +4045,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 12091-2024</t>
+          <t>A 19977-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45377.56653935185</v>
+        <v>44697</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.5</v>
+        <v>4.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4102,14 +4102,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 11939-2024</t>
+          <t>A 51162-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45376.67043981481</v>
+        <v>45219</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>7.1</v>
+        <v>0.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4159,14 +4159,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 17616-2025</t>
+          <t>A 11939-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45757.82684027778</v>
+        <v>45376.67043981481</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.2</v>
+        <v>7.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4216,14 +4216,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 14183-2024</t>
+          <t>A 61874-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45393.34479166667</v>
+        <v>45651.93527777777</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4273,14 +4273,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 40281-2025</t>
+          <t>A 37201-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45895.36684027778</v>
+        <v>45155</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4330,14 +4330,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 40273-2025</t>
+          <t>A 57269-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45895.34994212963</v>
+        <v>45629.57262731482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4349,13 +4349,8 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4392,14 +4387,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 40299-2025</t>
+          <t>A 24542-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45895.39837962963</v>
+        <v>45798.44365740741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4412,7 +4407,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4449,14 +4444,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 21800-2023</t>
+          <t>A 51154-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45067.85023148148</v>
+        <v>45219</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4469,7 +4464,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4506,14 +4501,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 40285-2025</t>
+          <t>A 51157-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45895.37532407408</v>
+        <v>45219</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4526,7 +4521,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4563,14 +4558,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 34665-2023</t>
+          <t>A 26992-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45140.81900462963</v>
+        <v>45811.52253472222</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4583,7 +4578,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4620,14 +4615,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 51127-2023</t>
+          <t>A 27513-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45219</v>
+        <v>45813.42880787037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4640,7 +4635,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4677,14 +4672,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 51130-2023</t>
+          <t>A 39676-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45219</v>
+        <v>45890.64989583333</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4697,7 +4692,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4734,14 +4729,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 40306-2025</t>
+          <t>A 40285-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45895.40923611111</v>
+        <v>45895.37532407408</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4754,7 +4749,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4791,14 +4786,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 4433-2025</t>
+          <t>A 40299-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45686.49392361111</v>
+        <v>45895.39837962963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4811,7 +4806,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4848,14 +4843,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 13454-2024</t>
+          <t>A 40281-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45387.51503472222</v>
+        <v>45895.36684027778</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4868,7 +4863,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4905,14 +4900,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 42307-2025</t>
+          <t>A 40306-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45904.65253472222</v>
+        <v>45895.40923611111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4925,7 +4920,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4962,14 +4957,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 14468-2023</t>
+          <t>A 40273-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45012.65208333333</v>
+        <v>45895.34994212963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4981,8 +4976,13 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5019,14 +5019,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 2605-2024</t>
+          <t>A 11697-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45313.7355787037</v>
+        <v>45373.60171296296</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5076,14 +5076,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 43832-2025</t>
+          <t>A 40053-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45912.63020833334</v>
+        <v>45168.72297453704</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>6.4</v>
+        <v>2.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5133,14 +5133,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 52045-2022</t>
+          <t>A 13454-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44873.31652777778</v>
+        <v>45387.51503472222</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5190,14 +5190,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 60323-2025</t>
+          <t>A 56558-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45994.72667824074</v>
+        <v>45625.57997685186</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5247,14 +5247,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 60334-2025</t>
+          <t>A 42307-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45994.76167824074</v>
+        <v>45904.65253472222</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5304,14 +5304,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 46349-2025</t>
+          <t>A 14468-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45925.48078703704</v>
+        <v>45012.65208333333</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5361,14 +5361,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 61737-2025</t>
+          <t>A 9491-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>46002.59627314815</v>
+        <v>45715.4965162037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5418,14 +5418,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 61741-2025</t>
+          <t>A 43832-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>46002.60090277778</v>
+        <v>45912.63020833334</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.6</v>
+        <v>6.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5475,14 +5475,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 48440-2025</t>
+          <t>A 29697-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45935.51550925926</v>
+        <v>45107</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.2</v>
+        <v>5.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5532,14 +5532,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 48538-2025</t>
+          <t>A 1551-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45936.41079861111</v>
+        <v>44573.61799768519</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5589,14 +5589,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 48432-2025</t>
+          <t>A 18003-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45934.89319444444</v>
+        <v>45761.41628472223</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5646,14 +5646,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 50188-2025</t>
+          <t>A 13108-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45943.63313657408</v>
+        <v>45002</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5703,14 +5703,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 39672-2025</t>
+          <t>A 69563-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45890.64541666667</v>
+        <v>44532</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5760,14 +5760,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 37201-2023</t>
+          <t>A 46349-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45155</v>
+        <v>45925.48078703704</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5817,14 +5817,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 51501-2025</t>
+          <t>A 60432-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45950.63748842593</v>
+        <v>44911</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>6.1</v>
+        <v>0.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5874,14 +5874,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 51009-2025</t>
+          <t>A 21800-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45947.37550925926</v>
+        <v>45067.85023148148</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5931,14 +5931,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 47362-2024</t>
+          <t>A 16679-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45587.4371875</v>
+        <v>45754.44922453703</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5988,14 +5988,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 41995-2025</t>
+          <t>A 25726-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45903.55027777778</v>
+        <v>44733</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6045,14 +6045,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 7356-2025</t>
+          <t>A 48538-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45704.50445601852</v>
+        <v>45936.41079861111</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6102,14 +6102,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 9492-2025</t>
+          <t>A 48440-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45715.49974537037</v>
+        <v>45935.51550925926</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6159,14 +6159,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 51157-2023</t>
+          <t>A 48432-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45219</v>
+        <v>45934.89319444444</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6216,14 +6216,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 9494-2025</t>
+          <t>A 50188-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45715.503125</v>
+        <v>45943.63313657408</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6273,14 +6273,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 40053-2023</t>
+          <t>A 39672-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45168.72297453704</v>
+        <v>45890.64541666667</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6330,14 +6330,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 69563-2021</t>
+          <t>A 51009-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44532</v>
+        <v>45947.37550925926</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6387,14 +6387,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 5630-2023</t>
+          <t>A 35404-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44960</v>
+        <v>45855.35253472222</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6444,14 +6444,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 55273-2025</t>
+          <t>A 51501-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45968.69956018519</v>
+        <v>45950.63748842593</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.8</v>
+        <v>6.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6501,14 +6501,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 55274-2025</t>
+          <t>A 16509-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45968.70364583333</v>
+        <v>45751.61958333333</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6558,14 +6558,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 25439-2022</t>
+          <t>A 41995-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44732.48712962963</v>
+        <v>45903.55027777778</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.9</v>
+        <v>6.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6615,14 +6615,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 18001-2025</t>
+          <t>A 13692-2021</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45761.41210648148</v>
+        <v>44274</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6672,14 +6672,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 41457-2023</t>
+          <t>A 16435-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45175</v>
+        <v>45751.48401620371</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6729,14 +6729,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 25726-2022</t>
+          <t>A 29696-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44733</v>
+        <v>45107</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.8</v>
+        <v>5.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6786,14 +6786,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 16679-2025</t>
+          <t>A 47350-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45754.44922453703</v>
+        <v>45587.41349537037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6843,14 +6843,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 17860-2021</t>
+          <t>A 4433-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44301.28643518518</v>
+        <v>45686.49392361111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6900,14 +6900,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 63592-2021</t>
+          <t>A 5987-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44508</v>
+        <v>45336</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>8.699999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6957,14 +6957,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 47334-2024</t>
+          <t>A 55274-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45587.39581018518</v>
+        <v>45968.70364583333</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7014,14 +7014,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 13692-2021</t>
+          <t>A 55273-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44274</v>
+        <v>45968.69956018519</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7071,14 +7071,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 2946-2024</t>
+          <t>A 41318-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45315</v>
+        <v>44826</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.6</v>
+        <v>11.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7128,14 +7128,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 15480-2025</t>
+          <t>A 34938-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45747.55828703703</v>
+        <v>44796</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>5.6</v>
+        <v>2.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7185,14 +7185,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 41318-2022</t>
+          <t>A 9693-2021</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44826</v>
+        <v>44252</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>11.5</v>
+        <v>1.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7242,14 +7242,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 12090-2024</t>
+          <t>A 39761-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45377.56537037037</v>
+        <v>45167.71447916667</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7299,14 +7299,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 52043-2024</t>
+          <t>A 39762-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45608.32934027778</v>
+        <v>45167.71539351852</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.4</v>
+        <v>0.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7356,14 +7356,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 57269-2024</t>
+          <t>A 52043-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45629.57262731482</v>
+        <v>45608.32934027778</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7413,14 +7413,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 29697-2023</t>
+          <t>A 18001-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45107</v>
+        <v>45761.41210648148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>5.8</v>
+        <v>1.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7470,14 +7470,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 23492-2022</t>
+          <t>A 47334-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44721.36030092592</v>
+        <v>45587.39581018518</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4.4</v>
+        <v>0.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7527,14 +7527,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 39761-2023</t>
+          <t>A 14183-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45167.71447916667</v>
+        <v>45393.34479166667</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7584,14 +7584,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 19977-2022</t>
+          <t>A 60323-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44697</v>
+        <v>45994.72667824074</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7641,14 +7641,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 46798-2024</t>
+          <t>A 60334-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45583</v>
+        <v>45994.76167824074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>6.3</v>
+        <v>3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7698,14 +7698,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 18003-2025</t>
+          <t>A 2946-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45761.41628472223</v>
+        <v>45315</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7755,14 +7755,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 65080-2023</t>
+          <t>A 4315-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45287</v>
+        <v>45324</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7812,14 +7812,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 3753-2024</t>
+          <t>A 5985-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45321.54748842592</v>
+        <v>45336.56657407407</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7869,14 +7869,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 1807-2024</t>
+          <t>A 15480-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45307.59741898148</v>
+        <v>45747.55828703703</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.7</v>
+        <v>5.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7926,14 +7926,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 16435-2025</t>
+          <t>A 23492-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45751.48401620371</v>
+        <v>44721.36030092592</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7983,14 +7983,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 59711-2022</t>
+          <t>A 64560-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44908.40974537037</v>
+        <v>45281.4116087963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.9</v>
+        <v>7.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8040,14 +8040,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 13582-2025</t>
+          <t>A 61737-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45736.59074074074</v>
+        <v>46002.59627314815</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8097,14 +8097,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 39762-2023</t>
+          <t>A 61741-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45167.71539351852</v>
+        <v>46002.60090277778</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8154,14 +8154,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 61874-2024</t>
+          <t>A 3753-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45651.93527777777</v>
+        <v>45321.54748842592</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8211,14 +8211,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 21398-2023</t>
+          <t>A 1807-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45063</v>
+        <v>45307.59741898148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>6.6</v>
+        <v>3.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8268,14 +8268,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 25499-2022</t>
+          <t>A 25439-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44732.57032407408</v>
+        <v>44732.48712962963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8325,14 +8325,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 9693-2021</t>
+          <t>A 5630-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44252</v>
+        <v>44960</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8382,14 +8382,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 32866-2022</t>
+          <t>A 7356-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44784.50711805555</v>
+        <v>45704.50445601852</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8439,14 +8439,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 41725-2024</t>
+          <t>A 51127-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45560.86376157407</v>
+        <v>45219</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8496,14 +8496,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 5985-2024</t>
+          <t>A 51130-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45336.56657407407</v>
+        <v>45219</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8553,14 +8553,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 64291-2023</t>
+          <t>A 9492-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45280</v>
+        <v>45715.49974537037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8610,14 +8610,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 47350-2024</t>
+          <t>A 9494-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45587.41349537037</v>
+        <v>45715.503125</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8667,14 +8667,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 4315-2024</t>
+          <t>A 2605-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45324</v>
+        <v>45313.7355787037</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8724,14 +8724,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 1551-2022</t>
+          <t>A 21398-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44573.61799768519</v>
+        <v>45063</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>4</v>
+        <v>6.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8781,14 +8781,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 51012-2023</t>
+          <t>A 34665-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45218.57846064815</v>
+        <v>45140.81900462963</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8800,13 +8800,8 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8843,14 +8838,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 56832-2023</t>
+          <t>A 32866-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45244</v>
+        <v>44784.50711805555</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8863,7 +8858,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4.9</v>
+        <v>1.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8900,14 +8895,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 60432-2022</t>
+          <t>A 65080-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44911</v>
+        <v>45287</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8920,7 +8915,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8957,14 +8952,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 13108-2023</t>
+          <t>A 59711-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45002</v>
+        <v>44908.40974537037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8977,7 +8972,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9014,14 +9009,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 29696-2023</t>
+          <t>A 12090-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45107</v>
+        <v>45377.56537037037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9034,7 +9029,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>5.3</v>
+        <v>0.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9071,14 +9066,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 58481-2022</t>
+          <t>A 47362-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44902</v>
+        <v>45587.4371875</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9091,7 +9086,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9128,14 +9123,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 34938-2022</t>
+          <t>A 17616-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44796</v>
+        <v>45757.82684027778</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9148,7 +9143,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9185,14 +9180,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 5987-2024</t>
+          <t>A 20727-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45336</v>
+        <v>45058.48152777777</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9205,7 +9200,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9249,7 +9244,7 @@
         <v>45237</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9299,14 +9294,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 51154-2023</t>
+          <t>A 52164-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9319,7 +9314,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.1</v>
+        <v>5.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9356,14 +9351,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 52164-2023</t>
+          <t>A 52166-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45224</v>
+        <v>45224.3316550926</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9376,7 +9371,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>5.4</v>
+        <v>0.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9413,14 +9408,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 52166-2023</t>
+          <t>A 56832-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45224.3316550926</v>
+        <v>45244</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9433,7 +9428,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.9</v>
+        <v>4.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9470,14 +9465,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 11249-2024</t>
+          <t>A 12091-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45371.63502314815</v>
+        <v>45377.56653935185</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9490,7 +9485,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9527,14 +9522,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 21302-2025</t>
+          <t>A 51012-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45780.88960648148</v>
+        <v>45218.57846064815</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9546,8 +9541,13 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9584,14 +9584,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 21872-2025</t>
+          <t>A 64291-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45784.38836805556</v>
+        <v>45280</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9641,14 +9641,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 22271-2025</t>
+          <t>A 13582-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45785.89675925926</v>
+        <v>45736.59074074074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9698,14 +9698,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 9512-2021</t>
+          <t>A 25499-2022</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44251</v>
+        <v>44732.57032407408</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9755,14 +9755,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 24542-2025</t>
+          <t>A 46798-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45798.44365740741</v>
+        <v>45583</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.9</v>
+        <v>6.3</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9812,14 +9812,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 26992-2025</t>
+          <t>A 17860-2021</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45811.52253472222</v>
+        <v>44301.28643518518</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9869,14 +9869,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 27513-2025</t>
+          <t>A 11249-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45813.42880787037</v>
+        <v>45371.63502314815</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.1</v>
+        <v>6.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9926,14 +9926,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 11697-2024</t>
+          <t>A 21302-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45373.60171296296</v>
+        <v>45780.88960648148</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9983,14 +9983,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 56558-2024</t>
+          <t>A 21872-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45625.57997685186</v>
+        <v>45784.38836805556</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10040,14 +10040,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 9491-2025</t>
+          <t>A 22271-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45715.4965162037</v>
+        <v>45785.89675925926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10097,14 +10097,14 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 35404-2025</t>
+          <t>A 9512-2021</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45855.35253472222</v>
+        <v>44251</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>

--- a/Översikt HÄRRYDA.xlsx
+++ b/Översikt HÄRRYDA.xlsx
@@ -575,7 +575,7 @@
         <v>45608.35664351852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45030</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45239</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>45811.5165625</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>45924.45489583333</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>46058.59695601852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44508</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44242</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>45813.38332175926</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>45239.34966435185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>45740.62429398148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45736.59434027778</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>45908.76802083333</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>45939.61609953704</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45890.64280092593</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>45567.69123842593</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45061</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>45705</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>44243</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>44301.77314814815</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>44732</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>44599</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>44623.57480324074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44257</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>44547</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>44468</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>44708</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>44321.65381944444</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>44278</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>44278</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>44489.80715277778</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>44271.47340277778</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>44468</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44494</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>44342.44517361111</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>44615.66289351852</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>44392</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>44784.51399305555</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>44344</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>44266</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>44543.354375</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>44694</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>44663</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>44351</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44508</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44873.31652777778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44902</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44508</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>45560.86376157407</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>45175</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44697</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>45219</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>45376.67043981481</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>45651.93527777777</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>45155</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>45629.57262731482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>45798.44365740741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>45219</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>45219</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>45811.52253472222</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>45813.42880787037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>45890.64989583333</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         <v>45895.37532407408</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>45895.39837962963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>45895.36684027778</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>45895.40923611111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         <v>45895.34994212963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>45373.60171296296</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>45168.72297453704</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>45387.51503472222</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>45625.57997685186</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>45904.65253472222</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>45012.65208333333</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>45715.4965162037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>45912.63020833334</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>45107</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>44573.61799768519</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>45761.41628472223</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>45002</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44532</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>45925.48078703704</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44911</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>45067.85023148148</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>45754.44922453703</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>44733</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>45936.41079861111</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>45935.51550925926</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>45934.89319444444</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>45943.63313657408</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>45890.64541666667</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>45947.37550925926</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>45855.35253472222</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>45950.63748842593</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>45751.61958333333</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>45903.55027777778</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>44274</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>45751.48401620371</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>45107</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
         <v>45587.41349537037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>45686.49392361111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
         <v>45336</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>45968.70364583333</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>45968.69956018519</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>44826</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>44796</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>44252</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>45167.71447916667</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>45167.71539351852</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         <v>45608.32934027778</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>45761.41210648148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>45587.39581018518</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>45393.34479166667</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>45994.72667824074</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>45994.76167824074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>45315</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>45324</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>45336.56657407407</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>45747.55828703703</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44721.36030092592</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>45281.4116087963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>46002.59627314815</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8104,7 +8104,7 @@
         <v>46002.60090277778</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8161,7 +8161,7 @@
         <v>45321.54748842592</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         <v>45307.59741898148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8275,7 +8275,7 @@
         <v>44732.48712962963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44960</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>45704.50445601852</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8446,7 +8446,7 @@
         <v>45219</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
         <v>45219</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>45715.49974537037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>45715.503125</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>45313.7355787037</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         <v>45063</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8788,7 +8788,7 @@
         <v>45140.81900462963</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>44784.50711805555</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>45287</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>44908.40974537037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>45377.56537037037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>45587.4371875</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>45757.82684027778</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>45058.48152777777</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>45237</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>45224</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>45224.3316550926</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>45244</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>45377.56653935185</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>45218.57846064815</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9591,7 +9591,7 @@
         <v>45280</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9648,7 +9648,7 @@
         <v>45736.59074074074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9705,7 +9705,7 @@
         <v>44732.57032407408</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9762,7 +9762,7 @@
         <v>45583</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9819,7 +9819,7 @@
         <v>44301.28643518518</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>45371.63502314815</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9933,7 +9933,7 @@
         <v>45780.88960648148</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9990,7 +9990,7 @@
         <v>45784.38836805556</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10047,7 +10047,7 @@
         <v>45785.89675925926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10104,7 +10104,7 @@
         <v>44251</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>

--- a/Översikt HÄRRYDA.xlsx
+++ b/Översikt HÄRRYDA.xlsx
@@ -575,7 +575,7 @@
         <v>45608.35664351852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45030</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45239</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>45811.5165625</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>45924.45489583333</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>46058.59695601852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44508</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44242</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>45813.38332175926</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>45239.34966435185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>45740.62429398148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45736.59434027778</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>45908.76802083333</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>45939.61609953704</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45890.64280092593</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>45567.69123842593</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45061</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>45705</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>44243</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>44301.77314814815</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>44732</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>44599</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>44623.57480324074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44257</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>44547</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>44468</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>44708</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>44321.65381944444</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>44278</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>44278</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>44489.80715277778</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>44271.47340277778</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>44468</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44494</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>44342.44517361111</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>44615.66289351852</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>44392</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>44784.51399305555</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>44344</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>44266</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>44543.354375</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>44694</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>44663</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>44351</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44508</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44873.31652777778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44902</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44508</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>45560.86376157407</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>45175</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44697</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>45219</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>45376.67043981481</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>45651.93527777777</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>45155</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>45629.57262731482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>45798.44365740741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>45219</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>45219</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>45811.52253472222</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>45813.42880787037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>45890.64989583333</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         <v>45895.37532407408</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>45895.39837962963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>45895.36684027778</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>45895.40923611111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         <v>45895.34994212963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>45373.60171296296</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>45168.72297453704</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>45387.51503472222</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>45625.57997685186</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>45904.65253472222</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>45012.65208333333</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>45715.4965162037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>45912.63020833334</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>45107</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>44573.61799768519</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>45761.41628472223</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>45002</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44532</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>45925.48078703704</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44911</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>45067.85023148148</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>45754.44922453703</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>44733</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>45936.41079861111</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>45935.51550925926</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>45934.89319444444</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>45943.63313657408</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>45890.64541666667</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>45947.37550925926</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>45855.35253472222</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>45950.63748842593</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>45751.61958333333</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>45903.55027777778</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>44274</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>45751.48401620371</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>45107</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
         <v>45587.41349537037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>45686.49392361111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
         <v>45336</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>45968.70364583333</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>45968.69956018519</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>44826</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>44796</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>44252</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>45167.71447916667</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>45167.71539351852</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         <v>45608.32934027778</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>45761.41210648148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>45587.39581018518</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>45393.34479166667</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>45994.72667824074</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>45994.76167824074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>45315</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>45324</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>45336.56657407407</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>45747.55828703703</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44721.36030092592</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>45281.4116087963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>46002.59627314815</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8104,7 +8104,7 @@
         <v>46002.60090277778</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8161,7 +8161,7 @@
         <v>45321.54748842592</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         <v>45307.59741898148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8275,7 +8275,7 @@
         <v>44732.48712962963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44960</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>45704.50445601852</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8446,7 +8446,7 @@
         <v>45219</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
         <v>45219</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>45715.49974537037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>45715.503125</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>45313.7355787037</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         <v>45063</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8788,7 +8788,7 @@
         <v>45140.81900462963</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>44784.50711805555</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>45287</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>44908.40974537037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>45377.56537037037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>45587.4371875</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>45757.82684027778</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>45058.48152777777</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>45237</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>45224</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>45224.3316550926</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>45244</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>45377.56653935185</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>45218.57846064815</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9591,7 +9591,7 @@
         <v>45280</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9648,7 +9648,7 @@
         <v>45736.59074074074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9705,7 +9705,7 @@
         <v>44732.57032407408</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9762,7 +9762,7 @@
         <v>45583</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9819,7 +9819,7 @@
         <v>44301.28643518518</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>45371.63502314815</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9933,7 +9933,7 @@
         <v>45780.88960648148</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9990,7 +9990,7 @@
         <v>45784.38836805556</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10047,7 +10047,7 @@
         <v>45785.89675925926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10104,7 +10104,7 @@
         <v>44251</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>

--- a/Översikt HÄRRYDA.xlsx
+++ b/Översikt HÄRRYDA.xlsx
@@ -575,7 +575,7 @@
         <v>45608.35664351852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45030</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45239</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,14 +930,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 26989-2025</t>
+          <t>A 46044-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45811.5165625</v>
+        <v>45924.45489583333</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -984,213 +984,213 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Fjällig taggsvamp s.str.
+Mandelriska</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 46044-2025 artfynd.xlsx", "A 46044-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 46044-2025 karta.png", "A 46044-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 46044-2025 FSC-klagomål.docx", "A 46044-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 46044-2025 FSC-klagomål mail.docx", "A 46044-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 46044-2025 tillsynsbegäran.docx", "A 46044-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 46044-2025 tillsynsbegäran mail.docx", "A 46044-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 7253-2026</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>46058.59695601852</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HÄRRYDA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Svart taggsvamp
+Blåmossa</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 7253-2026 artfynd.xlsx", "A 7253-2026")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 7253-2026 karta.png", "A 7253-2026")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 7253-2026 FSC-klagomål.docx", "A 7253-2026")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 7253-2026 FSC-klagomål mail.docx", "A 7253-2026")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 7253-2026 tillsynsbegäran.docx", "A 7253-2026")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 7253-2026 tillsynsbegäran mail.docx", "A 7253-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 26989-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45811.5165625</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>HÄRRYDA</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Kungsfågel
 Skogsduva</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 26989-2025 artfynd.xlsx", "A 26989-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 26989-2025 karta.png", "A 26989-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 26989-2025 FSC-klagomål.docx", "A 26989-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 26989-2025 FSC-klagomål mail.docx", "A 26989-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 26989-2025 tillsynsbegäran.docx", "A 26989-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 26989-2025 tillsynsbegäran mail.docx", "A 26989-2025")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 26989-2025 prioriterade fågelarter.docx", "A 26989-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 46044-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45924.45489583333</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HÄRRYDA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Fjällig taggsvamp s.str.
-Mandelriska</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 46044-2025 artfynd.xlsx", "A 46044-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 46044-2025 karta.png", "A 46044-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 46044-2025 FSC-klagomål.docx", "A 46044-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 46044-2025 FSC-klagomål mail.docx", "A 46044-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 46044-2025 tillsynsbegäran.docx", "A 46044-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 46044-2025 tillsynsbegäran mail.docx", "A 46044-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 7253-2026</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>46058.59695601852</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>HÄRRYDA</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Svart taggsvamp
-Blåmossa</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 7253-2026 artfynd.xlsx", "A 7253-2026")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 7253-2026 karta.png", "A 7253-2026")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 7253-2026 FSC-klagomål.docx", "A 7253-2026")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 7253-2026 FSC-klagomål mail.docx", "A 7253-2026")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 7253-2026 tillsynsbegäran.docx", "A 7253-2026")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 7253-2026 tillsynsbegäran mail.docx", "A 7253-2026")</f>
         <v/>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
         <v>44508</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44242</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,14 +1367,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 27482-2025</t>
+          <t>A 14259-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45813.38332175926</v>
+        <v>45740.62429398148</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>14.1</v>
+        <v>1.9</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1396,13 +1396,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1414,52 +1414,52 @@
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 27482-2025 artfynd.xlsx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 14259-2025 artfynd.xlsx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 27482-2025 karta.png", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 14259-2025 karta.png", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 27482-2025 FSC-klagomål.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 14259-2025 FSC-klagomål.docx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 27482-2025 FSC-klagomål mail.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 14259-2025 FSC-klagomål mail.docx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 27482-2025 tillsynsbegäran.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 14259-2025 tillsynsbegäran.docx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 27482-2025 tillsynsbegäran mail.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 14259-2025 tillsynsbegäran mail.docx", "A 14259-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 55686-2023</t>
+          <t>A 13586-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45239.34966435185</v>
+        <v>45736.59434027778</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1472,13 +1472,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>6.6</v>
+        <v>2.4</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1506,49 +1506,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Smal svampklubba</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 55686-2023 artfynd.xlsx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 13586-2025 artfynd.xlsx", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 55686-2023 karta.png", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 13586-2025 karta.png", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 55686-2023 FSC-klagomål.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 13586-2025 FSC-klagomål.docx", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 55686-2023 FSC-klagomål mail.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 13586-2025 FSC-klagomål mail.docx", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 55686-2023 tillsynsbegäran.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 13586-2025 tillsynsbegäran.docx", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 55686-2023 tillsynsbegäran mail.docx", "A 55686-2023")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 55686-2023 prioriterade fågelarter.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 13586-2025 tillsynsbegäran mail.docx", "A 13586-2025")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 14259-2025</t>
+          <t>A 55686-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45740.62429398148</v>
+        <v>45239.34966435185</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1561,10 +1557,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.9</v>
+        <v>6.6</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1585,55 +1581,59 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 14259-2025 artfynd.xlsx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 55686-2023 artfynd.xlsx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 14259-2025 karta.png", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 55686-2023 karta.png", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 14259-2025 FSC-klagomål.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 55686-2023 FSC-klagomål.docx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 14259-2025 FSC-klagomål mail.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 55686-2023 FSC-klagomål mail.docx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 14259-2025 tillsynsbegäran.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 55686-2023 tillsynsbegäran.docx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 14259-2025 tillsynsbegäran mail.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 55686-2023 tillsynsbegäran mail.docx", "A 55686-2023")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 55686-2023 prioriterade fågelarter.docx", "A 55686-2023")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 13586-2025</t>
+          <t>A 42915-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45736.59434027778</v>
+        <v>45908.76802083333</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1680,45 +1680,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Smal svampklubba</t>
+          <t>Klippfrullania</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 13586-2025 artfynd.xlsx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 42915-2025 artfynd.xlsx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 13586-2025 karta.png", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 42915-2025 karta.png", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 13586-2025 FSC-klagomål.docx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 42915-2025 FSC-klagomål.docx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 13586-2025 FSC-klagomål mail.docx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 42915-2025 FSC-klagomål mail.docx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 13586-2025 tillsynsbegäran.docx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 42915-2025 tillsynsbegäran.docx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 13586-2025 tillsynsbegäran mail.docx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 42915-2025 tillsynsbegäran mail.docx", "A 42915-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 42915-2025</t>
+          <t>A 43202-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45908.76802083333</v>
+        <v>45567.69123842593</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>8.699999999999999</v>
+        <v>5.3</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1765,31 +1765,31 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Klippfrullania</t>
+          <t>Havstulpanlav</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 42915-2025 artfynd.xlsx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 43202-2024 artfynd.xlsx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 42915-2025 karta.png", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 43202-2024 karta.png", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 42915-2025 FSC-klagomål.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 43202-2024 FSC-klagomål.docx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 42915-2025 FSC-klagomål mail.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 43202-2024 FSC-klagomål mail.docx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 42915-2025 tillsynsbegäran.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 43202-2024 tillsynsbegäran.docx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 42915-2025 tillsynsbegäran mail.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 43202-2024 tillsynsbegäran mail.docx", "A 43202-2024")</f>
         <v/>
       </c>
     </row>
@@ -1803,7 +1803,7 @@
         <v>45939.61609953704</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45890.64280092593</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1966,14 +1966,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 43202-2024</t>
+          <t>A 7575-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45567.69123842593</v>
+        <v>45705</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5.3</v>
+        <v>3.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2020,31 +2020,31 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Havstulpanlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 43202-2024 artfynd.xlsx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 7575-2025 artfynd.xlsx", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 43202-2024 karta.png", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 7575-2025 karta.png", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 43202-2024 FSC-klagomål.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 7575-2025 FSC-klagomål.docx", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 43202-2024 FSC-klagomål mail.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 7575-2025 FSC-klagomål mail.docx", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 43202-2024 tillsynsbegäran.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 7575-2025 tillsynsbegäran.docx", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 43202-2024 tillsynsbegäran mail.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 7575-2025 tillsynsbegäran mail.docx", "A 7575-2025")</f>
         <v/>
       </c>
     </row>
@@ -2058,7 +2058,7 @@
         <v>45061</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2136,14 +2136,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 7575-2025</t>
+          <t>A 27482-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45705</v>
+        <v>45813.38332175926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2156,17 +2156,17 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.9</v>
+        <v>14.1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>1</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2190,31 +2190,31 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 7575-2025 artfynd.xlsx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 27482-2025 artfynd.xlsx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 7575-2025 karta.png", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 27482-2025 karta.png", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 7575-2025 FSC-klagomål.docx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 27482-2025 FSC-klagomål.docx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 7575-2025 FSC-klagomål mail.docx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 27482-2025 FSC-klagomål mail.docx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 7575-2025 tillsynsbegäran.docx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 27482-2025 tillsynsbegäran.docx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 7575-2025 tillsynsbegäran mail.docx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 27482-2025 tillsynsbegäran mail.docx", "A 27482-2025")</f>
         <v/>
       </c>
     </row>
@@ -2228,7 +2228,7 @@
         <v>44243</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>44301.77314814815</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>44732</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>44599</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>44623.57480324074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44257</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>44547</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>44468</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>44708</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>44321.65381944444</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>44278</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>44278</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>44489.80715277778</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>44271.47340277778</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>44468</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3076,14 +3076,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 59767-2021</t>
+          <t>A 25267-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44494</v>
+        <v>44342.44517361111</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3133,14 +3133,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 25267-2021</t>
+          <t>A 59767-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44342.44517361111</v>
+        <v>44494</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.2</v>
+        <v>6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3197,7 +3197,7 @@
         <v>44615.66289351852</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>44392</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>44784.51399305555</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>44344</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>44266</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>44543.354375</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>44694</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>44663</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>44351</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44508</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3760,14 +3760,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 52045-2022</t>
+          <t>A 64560-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44873.31652777778</v>
+        <v>45281.4116087963</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>7.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3817,14 +3817,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 58481-2022</t>
+          <t>A 51162-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44902</v>
+        <v>45219</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3874,14 +3874,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 63592-2021</t>
+          <t>A 14183-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44508</v>
+        <v>45393.34479166667</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>8.699999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3931,14 +3931,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 41725-2024</t>
+          <t>A 51127-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45560.86376157407</v>
+        <v>45219</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3988,14 +3988,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 41457-2023</t>
+          <t>A 51130-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45175</v>
+        <v>45219</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4045,14 +4045,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 19977-2022</t>
+          <t>A 12091-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44697</v>
+        <v>45377.56653935185</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.7</v>
+        <v>1.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4102,14 +4102,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 51162-2023</t>
+          <t>A 11939-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45219</v>
+        <v>45376.67043981481</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.6</v>
+        <v>7.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4159,14 +4159,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 11939-2024</t>
+          <t>A 2605-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45376.67043981481</v>
+        <v>45313.7355787037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>7.1</v>
+        <v>1.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4216,14 +4216,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 61874-2024</t>
+          <t>A 52045-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45651.93527777777</v>
+        <v>44873.31652777778</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4280,7 +4280,7 @@
         <v>45155</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4330,14 +4330,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 57269-2024</t>
+          <t>A 9491-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45629.57262731482</v>
+        <v>45715.4965162037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4387,14 +4387,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 24542-2025</t>
+          <t>A 47362-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45798.44365740741</v>
+        <v>45587.4371875</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4444,14 +4444,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 51154-2023</t>
+          <t>A 39676-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45219</v>
+        <v>45890.64989583333</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4508,7 +4508,7 @@
         <v>45219</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4558,14 +4558,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 26992-2025</t>
+          <t>A 40053-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45811.52253472222</v>
+        <v>45168.72297453704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4615,14 +4615,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 27513-2025</t>
+          <t>A 5630-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45813.42880787037</v>
+        <v>44960</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4672,14 +4672,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 39676-2025</t>
+          <t>A 40281-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45890.64989583333</v>
+        <v>45895.36684027778</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4729,14 +4729,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 40285-2025</t>
+          <t>A 40273-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45895.37532407408</v>
+        <v>45895.34994212963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4748,8 +4748,13 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4793,7 +4798,7 @@
         <v>45895.39837962963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4843,14 +4848,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 40281-2025</t>
+          <t>A 40285-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45895.36684027778</v>
+        <v>45895.37532407408</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4863,7 +4868,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4907,7 +4912,7 @@
         <v>45895.40923611111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4957,14 +4962,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 40273-2025</t>
+          <t>A 13454-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45895.34994212963</v>
+        <v>45387.51503472222</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4976,13 +4981,8 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5019,14 +5019,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 11697-2024</t>
+          <t>A 25439-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45373.60171296296</v>
+        <v>44732.48712962963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5076,14 +5076,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 40053-2023</t>
+          <t>A 35404-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45168.72297453704</v>
+        <v>45855.35253472222</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5133,14 +5133,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 13454-2024</t>
+          <t>A 42307-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45387.51503472222</v>
+        <v>45904.65253472222</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5190,14 +5190,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 56558-2024</t>
+          <t>A 25726-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45625.57997685186</v>
+        <v>44733</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5247,14 +5247,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 42307-2025</t>
+          <t>A 14468-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45904.65253472222</v>
+        <v>45012.65208333333</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5304,14 +5304,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 14468-2023</t>
+          <t>A 16679-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45012.65208333333</v>
+        <v>45754.44922453703</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5361,14 +5361,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 9491-2025</t>
+          <t>A 16509-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45715.4965162037</v>
+        <v>45751.61958333333</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5418,14 +5418,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 43832-2025</t>
+          <t>A 17860-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45912.63020833334</v>
+        <v>44301.28643518518</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>6.4</v>
+        <v>1.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5475,14 +5475,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 29697-2023</t>
+          <t>A 43832-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45107</v>
+        <v>45912.63020833334</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5532,14 +5532,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 1551-2022</t>
+          <t>A 47334-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44573.61799768519</v>
+        <v>45587.39581018518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4</v>
+        <v>0.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5589,14 +5589,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 18003-2025</t>
+          <t>A 13692-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45761.41628472223</v>
+        <v>44274</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5646,14 +5646,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 13108-2023</t>
+          <t>A 41318-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45002</v>
+        <v>44826</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.7</v>
+        <v>11.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5703,14 +5703,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 69563-2021</t>
+          <t>A 46349-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44532</v>
+        <v>45925.48078703704</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5760,14 +5760,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 46349-2025</t>
+          <t>A 4433-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45925.48078703704</v>
+        <v>45686.49392361111</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.2</v>
+        <v>4.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5817,14 +5817,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 60432-2022</t>
+          <t>A 48440-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44911</v>
+        <v>45935.51550925926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5874,14 +5874,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 21800-2023</t>
+          <t>A 48538-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45067.85023148148</v>
+        <v>45936.41079861111</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5931,14 +5931,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 16679-2025</t>
+          <t>A 48432-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45754.44922453703</v>
+        <v>45934.89319444444</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5988,14 +5988,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 25726-2022</t>
+          <t>A 20727-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44733</v>
+        <v>45058.48152777777</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6045,14 +6045,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 48538-2025</t>
+          <t>A 50188-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45936.41079861111</v>
+        <v>45943.63313657408</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6102,14 +6102,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 48440-2025</t>
+          <t>A 39672-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45935.51550925926</v>
+        <v>45890.64541666667</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6159,14 +6159,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 48432-2025</t>
+          <t>A 17616-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45934.89319444444</v>
+        <v>45757.82684027778</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6216,14 +6216,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 50188-2025</t>
+          <t>A 51501-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45943.63313657408</v>
+        <v>45950.63748842593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3</v>
+        <v>6.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6273,14 +6273,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 39672-2025</t>
+          <t>A 51009-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45890.64541666667</v>
+        <v>45947.37550925926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6330,14 +6330,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 51009-2025</t>
+          <t>A 41995-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45947.37550925926</v>
+        <v>45903.55027777778</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6387,14 +6387,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 35404-2025</t>
+          <t>A 21800-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45855.35253472222</v>
+        <v>45067.85023148148</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6444,14 +6444,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 51501-2025</t>
+          <t>A 34665-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45950.63748842593</v>
+        <v>45140.81900462963</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>6.1</v>
+        <v>2.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6501,14 +6501,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 16509-2025</t>
+          <t>A 55273-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45751.61958333333</v>
+        <v>45968.69956018519</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6558,14 +6558,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 41995-2025</t>
+          <t>A 55274-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45903.55027777778</v>
+        <v>45968.70364583333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>6.5</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6615,14 +6615,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 13692-2021</t>
+          <t>A 69563-2021</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44274</v>
+        <v>44532</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6672,14 +6672,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 16435-2025</t>
+          <t>A 18001-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45751.48401620371</v>
+        <v>45761.41210648148</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6729,14 +6729,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 29696-2023</t>
+          <t>A 41457-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45107</v>
+        <v>45175</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>5.3</v>
+        <v>0.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6786,14 +6786,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 47350-2024</t>
+          <t>A 63592-2021</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45587.41349537037</v>
+        <v>44508</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6843,14 +6843,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 4433-2025</t>
+          <t>A 2946-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45686.49392361111</v>
+        <v>45315</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.3</v>
+        <v>1.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6900,14 +6900,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 5987-2024</t>
+          <t>A 15480-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45336</v>
+        <v>45747.55828703703</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.6</v>
+        <v>5.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6957,14 +6957,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 55274-2025</t>
+          <t>A 12090-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45968.70364583333</v>
+        <v>45377.56537037037</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7014,14 +7014,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 55273-2025</t>
+          <t>A 52043-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45968.69956018519</v>
+        <v>45608.32934027778</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.8</v>
+        <v>4.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7071,14 +7071,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 41318-2022</t>
+          <t>A 57269-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44826</v>
+        <v>45629.57262731482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>11.5</v>
+        <v>2.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7128,14 +7128,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 34938-2022</t>
+          <t>A 60323-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44796</v>
+        <v>45994.72667824074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7185,14 +7185,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 9693-2021</t>
+          <t>A 60334-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44252</v>
+        <v>45994.76167824074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7242,14 +7242,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 39761-2023</t>
+          <t>A 29697-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45167.71447916667</v>
+        <v>45107</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.4</v>
+        <v>5.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7299,14 +7299,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 39762-2023</t>
+          <t>A 23492-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45167.71539351852</v>
+        <v>44721.36030092592</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.5</v>
+        <v>4.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7356,14 +7356,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 52043-2024</t>
+          <t>A 39761-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45608.32934027778</v>
+        <v>45167.71447916667</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>4.4</v>
+        <v>1.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7413,14 +7413,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 18001-2025</t>
+          <t>A 19977-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45761.41210648148</v>
+        <v>44697</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7470,14 +7470,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 47334-2024</t>
+          <t>A 46798-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45587.39581018518</v>
+        <v>45583</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.3</v>
+        <v>6.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7527,14 +7527,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 14183-2024</t>
+          <t>A 61737-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45393.34479166667</v>
+        <v>46002.59627314815</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7584,14 +7584,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 60323-2025</t>
+          <t>A 61741-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45994.72667824074</v>
+        <v>46002.60090277778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7641,14 +7641,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 60334-2025</t>
+          <t>A 18003-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45994.76167824074</v>
+        <v>45761.41628472223</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7698,14 +7698,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 2946-2024</t>
+          <t>A 65080-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45315</v>
+        <v>45287</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7755,14 +7755,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 4315-2024</t>
+          <t>A 3753-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45324</v>
+        <v>45321.54748842592</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7812,14 +7812,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 5985-2024</t>
+          <t>A 1807-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45336.56657407407</v>
+        <v>45307.59741898148</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7869,14 +7869,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 15480-2025</t>
+          <t>A 7356-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45747.55828703703</v>
+        <v>45704.50445601852</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>5.6</v>
+        <v>0.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7926,14 +7926,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 23492-2022</t>
+          <t>A 9492-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44721.36030092592</v>
+        <v>45715.49974537037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>4.4</v>
+        <v>2.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7983,14 +7983,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 64560-2023</t>
+          <t>A 9494-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45281.4116087963</v>
+        <v>45715.503125</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>7.1</v>
+        <v>0.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8040,14 +8040,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 61737-2025</t>
+          <t>A 16435-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>46002.59627314815</v>
+        <v>45751.48401620371</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8097,14 +8097,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 61741-2025</t>
+          <t>A 59711-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>46002.60090277778</v>
+        <v>44908.40974537037</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8154,14 +8154,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 3753-2024</t>
+          <t>A 13582-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45321.54748842592</v>
+        <v>45736.59074074074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8211,14 +8211,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 1807-2024</t>
+          <t>A 39762-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45307.59741898148</v>
+        <v>45167.71539351852</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8268,14 +8268,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 25439-2022</t>
+          <t>A 61874-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44732.48712962963</v>
+        <v>45651.93527777777</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8325,14 +8325,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 5630-2023</t>
+          <t>A 21398-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44960</v>
+        <v>45063</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.8</v>
+        <v>6.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8382,14 +8382,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 7356-2025</t>
+          <t>A 25499-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45704.50445601852</v>
+        <v>44732.57032407408</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8439,14 +8439,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 51127-2023</t>
+          <t>A 9693-2021</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45219</v>
+        <v>44252</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8496,14 +8496,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 51130-2023</t>
+          <t>A 32866-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45219</v>
+        <v>44784.50711805555</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8553,14 +8553,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 9492-2025</t>
+          <t>A 41725-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45715.49974537037</v>
+        <v>45560.86376157407</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8610,14 +8610,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 9494-2025</t>
+          <t>A 5985-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45715.503125</v>
+        <v>45336.56657407407</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8667,14 +8667,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 2605-2024</t>
+          <t>A 64291-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45313.7355787037</v>
+        <v>45280</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8724,14 +8724,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 21398-2023</t>
+          <t>A 47350-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45063</v>
+        <v>45587.41349537037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>6.6</v>
+        <v>1.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8781,14 +8781,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 34665-2023</t>
+          <t>A 4315-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45140.81900462963</v>
+        <v>45324</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8838,14 +8838,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 32866-2022</t>
+          <t>A 1551-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44784.50711805555</v>
+        <v>44573.61799768519</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8895,14 +8895,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 65080-2023</t>
+          <t>A 51012-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45287</v>
+        <v>45218.57846064815</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8914,8 +8914,13 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8952,14 +8957,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 59711-2022</t>
+          <t>A 56832-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44908.40974537037</v>
+        <v>45244</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8972,7 +8977,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.9</v>
+        <v>4.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9009,14 +9014,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 12090-2024</t>
+          <t>A 60432-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45377.56537037037</v>
+        <v>44911</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9029,7 +9034,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9066,14 +9071,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 47362-2024</t>
+          <t>A 13108-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45587.4371875</v>
+        <v>45002</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9086,7 +9091,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9123,14 +9128,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 17616-2025</t>
+          <t>A 29696-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45757.82684027778</v>
+        <v>45107</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9143,7 +9148,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.2</v>
+        <v>5.3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9180,14 +9185,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 20727-2023</t>
+          <t>A 58481-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45058.48152777777</v>
+        <v>44902</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9200,7 +9205,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9237,14 +9242,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 55071-2023</t>
+          <t>A 34938-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45237</v>
+        <v>44796</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9257,7 +9262,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9294,14 +9299,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 52164-2023</t>
+          <t>A 5987-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45224</v>
+        <v>45336</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9314,7 +9319,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>5.4</v>
+        <v>0.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9351,14 +9356,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 52166-2023</t>
+          <t>A 55071-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45224.3316550926</v>
+        <v>45237</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9371,7 +9376,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9408,14 +9413,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 56832-2023</t>
+          <t>A 51154-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45244</v>
+        <v>45219</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9428,7 +9433,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>4.9</v>
+        <v>1.1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9465,14 +9470,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 12091-2024</t>
+          <t>A 52164-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45377.56653935185</v>
+        <v>45224</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9485,7 +9490,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.5</v>
+        <v>5.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9522,14 +9527,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 51012-2023</t>
+          <t>A 52166-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45218.57846064815</v>
+        <v>45224.3316550926</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9541,13 +9546,8 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9584,14 +9584,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 64291-2023</t>
+          <t>A 11249-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45280</v>
+        <v>45371.63502314815</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.4</v>
+        <v>6.5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9641,14 +9641,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 13582-2025</t>
+          <t>A 21302-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45736.59074074074</v>
+        <v>45780.88960648148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9698,14 +9698,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 25499-2022</t>
+          <t>A 21872-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44732.57032407408</v>
+        <v>45784.38836805556</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9755,14 +9755,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 46798-2024</t>
+          <t>A 22271-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45583</v>
+        <v>45785.89675925926</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>6.3</v>
+        <v>0.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9812,14 +9812,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 17860-2021</t>
+          <t>A 9512-2021</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44301.28643518518</v>
+        <v>44251</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9869,14 +9869,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 11249-2024</t>
+          <t>A 24542-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45371.63502314815</v>
+        <v>45798.44365740741</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9926,14 +9926,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 21302-2025</t>
+          <t>A 26992-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45780.88960648148</v>
+        <v>45811.52253472222</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9983,14 +9983,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 21872-2025</t>
+          <t>A 27513-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45784.38836805556</v>
+        <v>45813.42880787037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10040,14 +10040,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 22271-2025</t>
+          <t>A 11697-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45785.89675925926</v>
+        <v>45373.60171296296</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10097,14 +10097,14 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 9512-2021</t>
+          <t>A 56558-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44251</v>
+        <v>45625.57997685186</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>

--- a/Översikt HÄRRYDA.xlsx
+++ b/Översikt HÄRRYDA.xlsx
@@ -575,7 +575,7 @@
         <v>45608.35664351852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45030</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45239</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,14 +930,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 46044-2025</t>
+          <t>A 26989-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45924.45489583333</v>
+        <v>45811.5165625</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.7</v>
+        <v>4.6</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -984,213 +984,213 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Kungsfågel
+Skogsduva</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 26989-2025 artfynd.xlsx", "A 26989-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 26989-2025 karta.png", "A 26989-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 26989-2025 FSC-klagomål.docx", "A 26989-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 26989-2025 FSC-klagomål mail.docx", "A 26989-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 26989-2025 tillsynsbegäran.docx", "A 26989-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 26989-2025 tillsynsbegäran mail.docx", "A 26989-2025")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 26989-2025 prioriterade fågelarter.docx", "A 26989-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 46044-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45924.45489583333</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HÄRRYDA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Fjällig taggsvamp s.str.
 Mandelriska</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 46044-2025 artfynd.xlsx", "A 46044-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 46044-2025 karta.png", "A 46044-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 46044-2025 FSC-klagomål.docx", "A 46044-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 46044-2025 FSC-klagomål mail.docx", "A 46044-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 46044-2025 tillsynsbegäran.docx", "A 46044-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 46044-2025 tillsynsbegäran mail.docx", "A 46044-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 7253-2026</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>46058.59695601852</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HÄRRYDA</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="C8" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>HÄRRYDA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G8" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Svart taggsvamp
 Blåmossa</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 7253-2026 artfynd.xlsx", "A 7253-2026")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 7253-2026 karta.png", "A 7253-2026")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 7253-2026 FSC-klagomål.docx", "A 7253-2026")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 7253-2026 FSC-klagomål mail.docx", "A 7253-2026")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 7253-2026 tillsynsbegäran.docx", "A 7253-2026")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 7253-2026 tillsynsbegäran mail.docx", "A 7253-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 26989-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45811.5165625</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>HÄRRYDA</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Kungsfågel
-Skogsduva</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 26989-2025 artfynd.xlsx", "A 26989-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 26989-2025 karta.png", "A 26989-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 26989-2025 FSC-klagomål.docx", "A 26989-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 26989-2025 FSC-klagomål mail.docx", "A 26989-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 26989-2025 tillsynsbegäran.docx", "A 26989-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 26989-2025 tillsynsbegäran mail.docx", "A 26989-2025")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 26989-2025 prioriterade fågelarter.docx", "A 26989-2025")</f>
         <v/>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
         <v>44508</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44242</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,14 +1367,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 14259-2025</t>
+          <t>A 55686-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45740.62429398148</v>
+        <v>45239.34966435185</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.9</v>
+        <v>6.6</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1411,55 +1411,59 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 14259-2025 artfynd.xlsx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 55686-2023 artfynd.xlsx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 14259-2025 karta.png", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 55686-2023 karta.png", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 14259-2025 FSC-klagomål.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 55686-2023 FSC-klagomål.docx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 14259-2025 FSC-klagomål mail.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 55686-2023 FSC-klagomål mail.docx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 14259-2025 tillsynsbegäran.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 55686-2023 tillsynsbegäran.docx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 14259-2025 tillsynsbegäran mail.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 55686-2023 tillsynsbegäran mail.docx", "A 55686-2023")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 55686-2023 prioriterade fågelarter.docx", "A 55686-2023")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 13586-2025</t>
+          <t>A 27482-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45736.59434027778</v>
+        <v>45813.38332175926</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1472,17 +1476,17 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.4</v>
+        <v>14.1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
@@ -1496,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1506,45 +1510,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Smal svampklubba</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 13586-2025 artfynd.xlsx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 27482-2025 artfynd.xlsx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 13586-2025 karta.png", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 27482-2025 karta.png", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 13586-2025 FSC-klagomål.docx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 27482-2025 FSC-klagomål.docx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 13586-2025 FSC-klagomål mail.docx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 27482-2025 FSC-klagomål mail.docx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 13586-2025 tillsynsbegäran.docx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 27482-2025 tillsynsbegäran.docx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 13586-2025 tillsynsbegäran mail.docx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 27482-2025 tillsynsbegäran mail.docx", "A 27482-2025")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 55686-2023</t>
+          <t>A 14259-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45239.34966435185</v>
+        <v>45740.62429398148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1557,23 +1561,23 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>6.6</v>
+        <v>1.9</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
@@ -1581,59 +1585,55 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 55686-2023 artfynd.xlsx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 14259-2025 artfynd.xlsx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 55686-2023 karta.png", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 14259-2025 karta.png", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 55686-2023 FSC-klagomål.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 14259-2025 FSC-klagomål.docx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 55686-2023 FSC-klagomål mail.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 14259-2025 FSC-klagomål mail.docx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 55686-2023 tillsynsbegäran.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 14259-2025 tillsynsbegäran.docx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 55686-2023 tillsynsbegäran mail.docx", "A 55686-2023")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 55686-2023 prioriterade fågelarter.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 14259-2025 tillsynsbegäran mail.docx", "A 14259-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 42915-2025</t>
+          <t>A 13586-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45908.76802083333</v>
+        <v>45736.59434027778</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>8.699999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1680,45 +1680,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Klippfrullania</t>
+          <t>Smal svampklubba</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 42915-2025 artfynd.xlsx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 13586-2025 artfynd.xlsx", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 42915-2025 karta.png", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 13586-2025 karta.png", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 42915-2025 FSC-klagomål.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 13586-2025 FSC-klagomål.docx", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 42915-2025 FSC-klagomål mail.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 13586-2025 FSC-klagomål mail.docx", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 42915-2025 tillsynsbegäran.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 13586-2025 tillsynsbegäran.docx", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 42915-2025 tillsynsbegäran mail.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 13586-2025 tillsynsbegäran mail.docx", "A 13586-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 43202-2024</t>
+          <t>A 42915-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45567.69123842593</v>
+        <v>45908.76802083333</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1765,31 +1765,31 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Havstulpanlav</t>
+          <t>Klippfrullania</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 43202-2024 artfynd.xlsx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 42915-2025 artfynd.xlsx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 43202-2024 karta.png", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 42915-2025 karta.png", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 43202-2024 FSC-klagomål.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 42915-2025 FSC-klagomål.docx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 43202-2024 FSC-klagomål mail.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 42915-2025 FSC-klagomål mail.docx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 43202-2024 tillsynsbegäran.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 42915-2025 tillsynsbegäran.docx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 43202-2024 tillsynsbegäran mail.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 42915-2025 tillsynsbegäran mail.docx", "A 42915-2025")</f>
         <v/>
       </c>
     </row>
@@ -1803,7 +1803,7 @@
         <v>45939.61609953704</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1881,14 +1881,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 39670-2025</t>
+          <t>A 43202-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45890.64280092593</v>
+        <v>45567.69123842593</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1901,13 +1901,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>5.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1925,55 +1925,55 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Flodpärlmussla</t>
+          <t>Havstulpanlav</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 39670-2025 artfynd.xlsx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 43202-2024 artfynd.xlsx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 39670-2025 karta.png", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 43202-2024 karta.png", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 39670-2025 FSC-klagomål.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 43202-2024 FSC-klagomål.docx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 39670-2025 FSC-klagomål mail.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 43202-2024 FSC-klagomål mail.docx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 39670-2025 tillsynsbegäran.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 43202-2024 tillsynsbegäran.docx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 39670-2025 tillsynsbegäran mail.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 43202-2024 tillsynsbegäran mail.docx", "A 43202-2024")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 7575-2025</t>
+          <t>A 39670-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45705</v>
+        <v>45890.64280092593</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1986,23 +1986,23 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
@@ -2010,41 +2010,41 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Flodpärlmussla</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 7575-2025 artfynd.xlsx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 39670-2025 artfynd.xlsx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 7575-2025 karta.png", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 39670-2025 karta.png", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 7575-2025 FSC-klagomål.docx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 39670-2025 FSC-klagomål.docx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 7575-2025 FSC-klagomål mail.docx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 39670-2025 FSC-klagomål mail.docx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 7575-2025 tillsynsbegäran.docx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 39670-2025 tillsynsbegäran.docx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 7575-2025 tillsynsbegäran mail.docx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 39670-2025 tillsynsbegäran mail.docx", "A 39670-2025")</f>
         <v/>
       </c>
     </row>
@@ -2058,7 +2058,7 @@
         <v>45061</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2136,14 +2136,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 27482-2025</t>
+          <t>A 7575-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45813.38332175926</v>
+        <v>45705</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2156,16 +2156,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>14.1</v>
+        <v>3.9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2190,31 +2190,31 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 27482-2025 artfynd.xlsx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 7575-2025 artfynd.xlsx", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 27482-2025 karta.png", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 7575-2025 karta.png", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 27482-2025 FSC-klagomål.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 7575-2025 FSC-klagomål.docx", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 27482-2025 FSC-klagomål mail.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 7575-2025 FSC-klagomål mail.docx", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 27482-2025 tillsynsbegäran.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 7575-2025 tillsynsbegäran.docx", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 27482-2025 tillsynsbegäran mail.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 7575-2025 tillsynsbegäran mail.docx", "A 7575-2025")</f>
         <v/>
       </c>
     </row>
@@ -2228,7 +2228,7 @@
         <v>44243</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>44301.77314814815</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>44732</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>44599</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>44623.57480324074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44257</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>44547</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>44468</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>44708</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>44321.65381944444</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>44278</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>44278</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>44489.80715277778</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>44271.47340277778</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>44468</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3076,14 +3076,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 25267-2021</t>
+          <t>A 59767-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44342.44517361111</v>
+        <v>44494</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.2</v>
+        <v>6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3133,14 +3133,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 59767-2021</t>
+          <t>A 25267-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44494</v>
+        <v>44342.44517361111</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3197,7 +3197,7 @@
         <v>44615.66289351852</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>44392</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>44784.51399305555</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>44344</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>44266</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>44543.354375</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>44694</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>44663</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3646,14 +3646,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 27546-2021</t>
+          <t>A 63595-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44351</v>
+        <v>44508</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3703,14 +3703,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 63595-2021</t>
+          <t>A 27546-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44508</v>
+        <v>44351</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3760,14 +3760,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 64560-2023</t>
+          <t>A 40285-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45281.4116087963</v>
+        <v>45895.37532407408</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>7.1</v>
+        <v>2.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3817,14 +3817,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 51162-2023</t>
+          <t>A 52045-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45219</v>
+        <v>44873.31652777778</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3874,14 +3874,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 14183-2024</t>
+          <t>A 40299-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45393.34479166667</v>
+        <v>45895.39837962963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3931,14 +3931,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 51127-2023</t>
+          <t>A 40281-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45219</v>
+        <v>45895.36684027778</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3988,14 +3988,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 51130-2023</t>
+          <t>A 40306-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45219</v>
+        <v>45895.40923611111</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4045,14 +4045,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 12091-2024</t>
+          <t>A 40273-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45377.56653935185</v>
+        <v>45895.34994212963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4064,8 +4064,13 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4102,14 +4107,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 11939-2024</t>
+          <t>A 58481-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45376.67043981481</v>
+        <v>44902</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4122,7 +4127,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>7.1</v>
+        <v>2.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4159,14 +4164,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 2605-2024</t>
+          <t>A 63592-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45313.7355787037</v>
+        <v>44508</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4179,7 +4184,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4216,14 +4221,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 52045-2022</t>
+          <t>A 41725-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44873.31652777778</v>
+        <v>45560.86376157407</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4236,7 +4241,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4273,14 +4278,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 37201-2023</t>
+          <t>A 41457-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45155</v>
+        <v>45175</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4293,7 +4298,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4330,14 +4335,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 9491-2025</t>
+          <t>A 46798-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45715.4965162037</v>
+        <v>45583</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4350,7 +4355,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.5</v>
+        <v>6.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4387,14 +4392,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 47362-2024</t>
+          <t>A 13454-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45587.4371875</v>
+        <v>45387.51503472222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4407,7 +4412,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4444,14 +4449,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 39676-2025</t>
+          <t>A 17860-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45890.64989583333</v>
+        <v>44301.28643518518</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4464,7 +4469,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4501,14 +4506,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 51157-2023</t>
+          <t>A 51162-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
         <v>45219</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4521,7 +4526,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4558,14 +4563,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 40053-2023</t>
+          <t>A 39676-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45168.72297453704</v>
+        <v>45890.64989583333</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4578,7 +4583,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4615,14 +4620,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 5630-2023</t>
+          <t>A 19977-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44960</v>
+        <v>44697</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4635,7 +4640,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.8</v>
+        <v>4.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4672,14 +4677,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 40281-2025</t>
+          <t>A 11939-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45895.36684027778</v>
+        <v>45376.67043981481</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4692,7 +4697,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.6</v>
+        <v>7.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4729,14 +4734,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 40273-2025</t>
+          <t>A 42307-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45895.34994212963</v>
+        <v>45904.65253472222</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4748,13 +4753,8 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4791,14 +4791,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 40299-2025</t>
+          <t>A 61874-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45895.39837962963</v>
+        <v>45651.93527777777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4848,14 +4848,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 40285-2025</t>
+          <t>A 14468-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45895.37532407408</v>
+        <v>45012.65208333333</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4905,14 +4905,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 40306-2025</t>
+          <t>A 11249-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45895.40923611111</v>
+        <v>45371.63502314815</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.3</v>
+        <v>6.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4962,14 +4962,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 13454-2024</t>
+          <t>A 21302-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45387.51503472222</v>
+        <v>45780.88960648148</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5019,14 +5019,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 25439-2022</t>
+          <t>A 21872-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44732.48712962963</v>
+        <v>45784.38836805556</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5076,14 +5076,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 35404-2025</t>
+          <t>A 37201-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45855.35253472222</v>
+        <v>45155</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5133,14 +5133,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 42307-2025</t>
+          <t>A 57269-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45904.65253472222</v>
+        <v>45629.57262731482</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5190,14 +5190,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 25726-2022</t>
+          <t>A 22271-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44733</v>
+        <v>45785.89675925926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5247,14 +5247,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 14468-2023</t>
+          <t>A 43832-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45012.65208333333</v>
+        <v>45912.63020833334</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.5</v>
+        <v>6.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5304,14 +5304,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 16679-2025</t>
+          <t>A 51154-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45754.44922453703</v>
+        <v>45219</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5361,14 +5361,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 16509-2025</t>
+          <t>A 51157-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45751.61958333333</v>
+        <v>45219</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5418,14 +5418,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 17860-2021</t>
+          <t>A 9512-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44301.28643518518</v>
+        <v>44251</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5475,14 +5475,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 43832-2025</t>
+          <t>A 24542-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45912.63020833334</v>
+        <v>45798.44365740741</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>6.4</v>
+        <v>2.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5532,14 +5532,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 47334-2024</t>
+          <t>A 40053-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45587.39581018518</v>
+        <v>45168.72297453704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.3</v>
+        <v>2.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5589,14 +5589,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 13692-2021</t>
+          <t>A 26992-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44274</v>
+        <v>45811.52253472222</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5646,14 +5646,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 41318-2022</t>
+          <t>A 27513-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44826</v>
+        <v>45813.42880787037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>11.5</v>
+        <v>1.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5710,7 +5710,7 @@
         <v>45925.48078703704</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5760,14 +5760,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 4433-2025</t>
+          <t>A 11697-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45686.49392361111</v>
+        <v>45373.60171296296</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5817,14 +5817,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 48440-2025</t>
+          <t>A 56558-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45935.51550925926</v>
+        <v>45625.57997685186</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5874,14 +5874,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 48538-2025</t>
+          <t>A 9491-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45936.41079861111</v>
+        <v>45715.4965162037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5931,14 +5931,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 48432-2025</t>
+          <t>A 29697-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45934.89319444444</v>
+        <v>45107</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.1</v>
+        <v>5.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5988,14 +5988,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 20727-2023</t>
+          <t>A 1551-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45058.48152777777</v>
+        <v>44573.61799768519</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6045,14 +6045,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 50188-2025</t>
+          <t>A 18003-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45943.63313657408</v>
+        <v>45761.41628472223</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6102,14 +6102,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 39672-2025</t>
+          <t>A 13108-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45890.64541666667</v>
+        <v>45002</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6159,14 +6159,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 17616-2025</t>
+          <t>A 69563-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45757.82684027778</v>
+        <v>44532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6216,14 +6216,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 51501-2025</t>
+          <t>A 60432-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45950.63748842593</v>
+        <v>44911</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>6.1</v>
+        <v>0.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6273,14 +6273,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 51009-2025</t>
+          <t>A 48538-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45947.37550925926</v>
+        <v>45936.41079861111</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6330,14 +6330,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 41995-2025</t>
+          <t>A 21800-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45903.55027777778</v>
+        <v>45067.85023148148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6387,14 +6387,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 21800-2023</t>
+          <t>A 48440-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45067.85023148148</v>
+        <v>45935.51550925926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6444,14 +6444,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 34665-2023</t>
+          <t>A 48432-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45140.81900462963</v>
+        <v>45934.89319444444</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6501,14 +6501,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 55273-2025</t>
+          <t>A 16679-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45968.69956018519</v>
+        <v>45754.44922453703</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6558,14 +6558,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 55274-2025</t>
+          <t>A 25726-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45968.70364583333</v>
+        <v>44733</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6615,14 +6615,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 69563-2021</t>
+          <t>A 35404-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44532</v>
+        <v>45855.35253472222</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6672,14 +6672,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 18001-2025</t>
+          <t>A 50188-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45761.41210648148</v>
+        <v>45943.63313657408</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6729,14 +6729,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 41457-2023</t>
+          <t>A 16509-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45175</v>
+        <v>45751.61958333333</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6786,14 +6786,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 63592-2021</t>
+          <t>A 39672-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44508</v>
+        <v>45890.64541666667</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>8.699999999999999</v>
+        <v>3.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6843,14 +6843,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 2946-2024</t>
+          <t>A 13692-2021</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45315</v>
+        <v>44274</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6900,14 +6900,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 15480-2025</t>
+          <t>A 16435-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45747.55828703703</v>
+        <v>45751.48401620371</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>5.6</v>
+        <v>1.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6957,14 +6957,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 12090-2024</t>
+          <t>A 51009-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45377.56537037037</v>
+        <v>45947.37550925926</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7014,14 +7014,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 52043-2024</t>
+          <t>A 29696-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45608.32934027778</v>
+        <v>45107</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7071,14 +7071,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 57269-2024</t>
+          <t>A 4433-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45629.57262731482</v>
+        <v>45686.49392361111</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7128,14 +7128,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 60323-2025</t>
+          <t>A 51501-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45994.72667824074</v>
+        <v>45950.63748842593</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.9</v>
+        <v>6.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7185,14 +7185,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 60334-2025</t>
+          <t>A 47350-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45994.76167824074</v>
+        <v>45587.41349537037</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7242,14 +7242,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 29697-2023</t>
+          <t>A 41995-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45107</v>
+        <v>45903.55027777778</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7299,14 +7299,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 23492-2022</t>
+          <t>A 5987-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44721.36030092592</v>
+        <v>45336</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.4</v>
+        <v>0.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7356,14 +7356,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 39761-2023</t>
+          <t>A 41318-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45167.71447916667</v>
+        <v>44826</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.4</v>
+        <v>11.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7413,14 +7413,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 19977-2022</t>
+          <t>A 34938-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44697</v>
+        <v>44796</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.7</v>
+        <v>2.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7470,14 +7470,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 46798-2024</t>
+          <t>A 9693-2021</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45583</v>
+        <v>44252</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>6.3</v>
+        <v>1.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7527,14 +7527,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 61737-2025</t>
+          <t>A 39761-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>46002.59627314815</v>
+        <v>45167.71447916667</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7584,14 +7584,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 61741-2025</t>
+          <t>A 55274-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46002.60090277778</v>
+        <v>45968.70364583333</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7641,14 +7641,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 18003-2025</t>
+          <t>A 55273-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45761.41628472223</v>
+        <v>45968.69956018519</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7698,14 +7698,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 65080-2023</t>
+          <t>A 39762-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45287</v>
+        <v>45167.71539351852</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7755,14 +7755,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 3753-2024</t>
+          <t>A 52043-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45321.54748842592</v>
+        <v>45608.32934027778</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.5</v>
+        <v>4.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7812,14 +7812,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 1807-2024</t>
+          <t>A 18001-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45307.59741898148</v>
+        <v>45761.41210648148</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7869,14 +7869,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 7356-2025</t>
+          <t>A 47334-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45704.50445601852</v>
+        <v>45587.39581018518</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7926,14 +7926,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 9492-2025</t>
+          <t>A 14183-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45715.49974537037</v>
+        <v>45393.34479166667</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7983,14 +7983,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 9494-2025</t>
+          <t>A 60323-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45715.503125</v>
+        <v>45994.72667824074</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8040,14 +8040,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 16435-2025</t>
+          <t>A 60334-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45751.48401620371</v>
+        <v>45994.76167824074</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8097,14 +8097,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 59711-2022</t>
+          <t>A 2946-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44908.40974537037</v>
+        <v>45315</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8154,14 +8154,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 13582-2025</t>
+          <t>A 4315-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45736.59074074074</v>
+        <v>45324</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8211,14 +8211,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 39762-2023</t>
+          <t>A 5985-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45167.71539351852</v>
+        <v>45336.56657407407</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8268,14 +8268,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 61874-2024</t>
+          <t>A 15480-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45651.93527777777</v>
+        <v>45747.55828703703</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>5.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8325,14 +8325,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 21398-2023</t>
+          <t>A 23492-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45063</v>
+        <v>44721.36030092592</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>6.6</v>
+        <v>4.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8382,14 +8382,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 25499-2022</t>
+          <t>A 64560-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44732.57032407408</v>
+        <v>45281.4116087963</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.1</v>
+        <v>7.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8439,14 +8439,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 9693-2021</t>
+          <t>A 3753-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44252</v>
+        <v>45321.54748842592</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8496,14 +8496,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 32866-2022</t>
+          <t>A 61737-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44784.50711805555</v>
+        <v>46002.59627314815</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8553,14 +8553,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 41725-2024</t>
+          <t>A 61741-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45560.86376157407</v>
+        <v>46002.60090277778</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8610,14 +8610,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 5985-2024</t>
+          <t>A 1807-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45336.56657407407</v>
+        <v>45307.59741898148</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8667,14 +8667,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 64291-2023</t>
+          <t>A 25439-2022</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45280</v>
+        <v>44732.48712962963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8724,14 +8724,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 47350-2024</t>
+          <t>A 5630-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45587.41349537037</v>
+        <v>44960</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8781,14 +8781,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 4315-2024</t>
+          <t>A 51127-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45324</v>
+        <v>45219</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8838,14 +8838,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 1551-2022</t>
+          <t>A 51130-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44573.61799768519</v>
+        <v>45219</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8895,14 +8895,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 51012-2023</t>
+          <t>A 2605-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45218.57846064815</v>
+        <v>45313.7355787037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8914,13 +8914,8 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8957,14 +8952,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 56832-2023</t>
+          <t>A 21398-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45244</v>
+        <v>45063</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8977,7 +8972,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>4.9</v>
+        <v>6.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9014,14 +9009,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 60432-2022</t>
+          <t>A 7356-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44911</v>
+        <v>45704.50445601852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9071,14 +9066,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 13108-2023</t>
+          <t>A 9492-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45002</v>
+        <v>45715.49974537037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9091,7 +9086,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9128,14 +9123,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 29696-2023</t>
+          <t>A 9494-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45107</v>
+        <v>45715.503125</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9148,7 +9143,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>5.3</v>
+        <v>0.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9185,14 +9180,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 58481-2022</t>
+          <t>A 34665-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44902</v>
+        <v>45140.81900462963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9205,7 +9200,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9242,14 +9237,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 34938-2022</t>
+          <t>A 32866-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44796</v>
+        <v>44784.50711805555</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9262,7 +9257,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9299,14 +9294,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 5987-2024</t>
+          <t>A 65080-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45336</v>
+        <v>45287</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9319,7 +9314,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9356,14 +9351,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 55071-2023</t>
+          <t>A 59711-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45237</v>
+        <v>44908.40974537037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9376,7 +9371,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9413,14 +9408,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 51154-2023</t>
+          <t>A 12090-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45219</v>
+        <v>45377.56537037037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9433,7 +9428,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9470,14 +9465,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 52164-2023</t>
+          <t>A 47362-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45224</v>
+        <v>45587.4371875</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9490,7 +9485,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>5.4</v>
+        <v>3.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9527,14 +9522,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 52166-2023</t>
+          <t>A 17616-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45224.3316550926</v>
+        <v>45757.82684027778</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9547,7 +9542,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9584,14 +9579,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 11249-2024</t>
+          <t>A 20727-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45371.63502314815</v>
+        <v>45058.48152777777</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9604,7 +9599,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>6.5</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9641,14 +9636,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 21302-2025</t>
+          <t>A 55071-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45780.88960648148</v>
+        <v>45237</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9661,7 +9656,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9698,14 +9693,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 21872-2025</t>
+          <t>A 52164-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45784.38836805556</v>
+        <v>45224</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9718,7 +9713,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>5.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9755,14 +9750,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 22271-2025</t>
+          <t>A 52166-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45785.89675925926</v>
+        <v>45224.3316550926</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9775,7 +9770,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9812,14 +9807,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 9512-2021</t>
+          <t>A 56832-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44251</v>
+        <v>45244</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9832,7 +9827,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.1</v>
+        <v>4.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9869,14 +9864,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 24542-2025</t>
+          <t>A 12091-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45798.44365740741</v>
+        <v>45377.56653935185</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9889,7 +9884,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9926,14 +9921,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 26992-2025</t>
+          <t>A 51012-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45811.52253472222</v>
+        <v>45218.57846064815</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9945,8 +9940,13 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9983,14 +9983,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 27513-2025</t>
+          <t>A 64291-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45813.42880787037</v>
+        <v>45280</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10040,14 +10040,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 11697-2024</t>
+          <t>A 13582-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45373.60171296296</v>
+        <v>45736.59074074074</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10097,14 +10097,14 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 56558-2024</t>
+          <t>A 25499-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45625.57997685186</v>
+        <v>44732.57032407408</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>

--- a/Översikt HÄRRYDA.xlsx
+++ b/Översikt HÄRRYDA.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 52061-2024</t>
+          <t>A 16723-2023</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45608.35664351852</v>
+        <v>45030</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,16 +588,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>8.1</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -621,6 +621,98 @@
         <v>4</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Björksplintborre
+Blåmossa
+Kornknutmossa</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 16723-2023 artfynd.xlsx", "A 16723-2023")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 16723-2023 karta.png", "A 16723-2023")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 16723-2023 FSC-klagomål.docx", "A 16723-2023")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 16723-2023 FSC-klagomål mail.docx", "A 16723-2023")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 16723-2023 tillsynsbegäran.docx", "A 16723-2023")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 16723-2023 tillsynsbegäran mail.docx", "A 16723-2023")</f>
+        <v/>
+      </c>
+      <c r="Z2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 16723-2023 prioriterade fågelarter.docx", "A 16723-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 52061-2024</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45608.35664351852</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>HÄRRYDA</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Blåmossa
 Skuggmossa
@@ -628,120 +720,28 @@
 Vågbandad barkbock</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 52061-2024 artfynd.xlsx", "A 52061-2024")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 52061-2024 karta.png", "A 52061-2024")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 52061-2024 FSC-klagomål.docx", "A 52061-2024")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 52061-2024 FSC-klagomål mail.docx", "A 52061-2024")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 52061-2024 tillsynsbegäran.docx", "A 52061-2024")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 52061-2024 tillsynsbegäran mail.docx", "A 52061-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 16723-2023</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45030</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>HÄRRYDA</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>4</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Björksplintborre
-Blåmossa
-Kornknutmossa</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 16723-2023 artfynd.xlsx", "A 16723-2023")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 16723-2023 karta.png", "A 16723-2023")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 16723-2023 FSC-klagomål.docx", "A 16723-2023")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 16723-2023 FSC-klagomål mail.docx", "A 16723-2023")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 16723-2023 tillsynsbegäran.docx", "A 16723-2023")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 16723-2023 tillsynsbegäran mail.docx", "A 16723-2023")</f>
-        <v/>
-      </c>
-      <c r="Z3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 16723-2023 prioriterade fågelarter.docx", "A 16723-2023")</f>
         <v/>
       </c>
     </row>
@@ -755,7 +755,7 @@
         <v>44732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45239</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>45811.5165625</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>45924.45489583333</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>46058.59695601852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,14 +1197,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 63596-2021</t>
+          <t>A 7814-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44508</v>
+        <v>44242</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1251,45 +1251,45 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 63596-2021 artfynd.xlsx", "A 63596-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 7814-2021 artfynd.xlsx", "A 7814-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 63596-2021 karta.png", "A 63596-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 7814-2021 karta.png", "A 7814-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 63596-2021 FSC-klagomål.docx", "A 63596-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 7814-2021 FSC-klagomål.docx", "A 7814-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 63596-2021 FSC-klagomål mail.docx", "A 63596-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 7814-2021 FSC-klagomål mail.docx", "A 7814-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 63596-2021 tillsynsbegäran.docx", "A 63596-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 7814-2021 tillsynsbegäran.docx", "A 7814-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 63596-2021 tillsynsbegäran mail.docx", "A 63596-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 7814-2021 tillsynsbegäran mail.docx", "A 7814-2021")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 7814-2021</t>
+          <t>A 63596-2021</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44242</v>
+        <v>44508</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,45 +1336,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 7814-2021 artfynd.xlsx", "A 7814-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 63596-2021 artfynd.xlsx", "A 63596-2021")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 7814-2021 karta.png", "A 7814-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 63596-2021 karta.png", "A 63596-2021")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 7814-2021 FSC-klagomål.docx", "A 7814-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 63596-2021 FSC-klagomål.docx", "A 63596-2021")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 7814-2021 FSC-klagomål mail.docx", "A 7814-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 63596-2021 FSC-klagomål mail.docx", "A 63596-2021")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 7814-2021 tillsynsbegäran.docx", "A 7814-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 63596-2021 tillsynsbegäran.docx", "A 63596-2021")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 7814-2021 tillsynsbegäran mail.docx", "A 7814-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 63596-2021 tillsynsbegäran mail.docx", "A 63596-2021")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 55686-2023</t>
+          <t>A 27482-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45239.34966435185</v>
+        <v>45813.38332175926</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1387,17 +1387,17 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>6.6</v>
+        <v>14.1</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1421,49 +1421,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 55686-2023 artfynd.xlsx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 27482-2025 artfynd.xlsx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 55686-2023 karta.png", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 27482-2025 karta.png", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 55686-2023 FSC-klagomål.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 27482-2025 FSC-klagomål.docx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 55686-2023 FSC-klagomål mail.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 27482-2025 FSC-klagomål mail.docx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 55686-2023 tillsynsbegäran.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 27482-2025 tillsynsbegäran.docx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 55686-2023 tillsynsbegäran mail.docx", "A 55686-2023")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 55686-2023 prioriterade fågelarter.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 27482-2025 tillsynsbegäran mail.docx", "A 27482-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 27482-2025</t>
+          <t>A 14259-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45813.38332175926</v>
+        <v>45740.62429398148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1476,7 +1472,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>14.1</v>
+        <v>1.9</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1485,13 +1481,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1503,52 +1499,52 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 27482-2025 artfynd.xlsx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 14259-2025 artfynd.xlsx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 27482-2025 karta.png", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 14259-2025 karta.png", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 27482-2025 FSC-klagomål.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 14259-2025 FSC-klagomål.docx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 27482-2025 FSC-klagomål mail.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 14259-2025 FSC-klagomål mail.docx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 27482-2025 tillsynsbegäran.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 14259-2025 tillsynsbegäran.docx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 27482-2025 tillsynsbegäran mail.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 14259-2025 tillsynsbegäran mail.docx", "A 14259-2025")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 14259-2025</t>
+          <t>A 13586-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45740.62429398148</v>
+        <v>45736.59434027778</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1561,13 +1557,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1585,55 +1581,55 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Smal svampklubba</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 14259-2025 artfynd.xlsx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 13586-2025 artfynd.xlsx", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 14259-2025 karta.png", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 13586-2025 karta.png", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 14259-2025 FSC-klagomål.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 13586-2025 FSC-klagomål.docx", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 14259-2025 FSC-klagomål mail.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 13586-2025 FSC-klagomål mail.docx", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 14259-2025 tillsynsbegäran.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 13586-2025 tillsynsbegäran.docx", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 14259-2025 tillsynsbegäran mail.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 13586-2025 tillsynsbegäran mail.docx", "A 13586-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 13586-2025</t>
+          <t>A 43202-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45736.59434027778</v>
+        <v>45567.69123842593</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1646,7 +1642,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.4</v>
+        <v>5.3</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1680,45 +1676,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Smal svampklubba</t>
+          <t>Havstulpanlav</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 13586-2025 artfynd.xlsx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 43202-2024 artfynd.xlsx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 13586-2025 karta.png", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 43202-2024 karta.png", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 13586-2025 FSC-klagomål.docx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 43202-2024 FSC-klagomål.docx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 13586-2025 FSC-klagomål mail.docx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 43202-2024 FSC-klagomål mail.docx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 13586-2025 tillsynsbegäran.docx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 43202-2024 tillsynsbegäran.docx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 13586-2025 tillsynsbegäran mail.docx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 43202-2024 tillsynsbegäran mail.docx", "A 43202-2024")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 42915-2025</t>
+          <t>A 21101-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45908.76802083333</v>
+        <v>45061</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1731,13 +1727,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>8.699999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,45 +1761,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Klippfrullania</t>
+          <t>Åkergroda</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 42915-2025 artfynd.xlsx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 21101-2023 artfynd.xlsx", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 42915-2025 karta.png", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 21101-2023 karta.png", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 42915-2025 FSC-klagomål.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 21101-2023 FSC-klagomål.docx", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 42915-2025 FSC-klagomål mail.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 21101-2023 FSC-klagomål mail.docx", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 42915-2025 tillsynsbegäran.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 21101-2023 tillsynsbegäran.docx", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 42915-2025 tillsynsbegäran mail.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 21101-2023 tillsynsbegäran mail.docx", "A 21101-2023")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 49645-2025</t>
+          <t>A 55686-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45939.61609953704</v>
+        <v>45239.34966435185</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1816,7 +1812,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.3</v>
+        <v>6.6</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1850,45 +1846,49 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 49645-2025 artfynd.xlsx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 55686-2023 artfynd.xlsx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 49645-2025 karta.png", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 55686-2023 karta.png", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 49645-2025 FSC-klagomål.docx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 55686-2023 FSC-klagomål.docx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 49645-2025 FSC-klagomål mail.docx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 55686-2023 FSC-klagomål mail.docx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 49645-2025 tillsynsbegäran.docx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 55686-2023 tillsynsbegäran.docx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 49645-2025 tillsynsbegäran mail.docx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 55686-2023 tillsynsbegäran mail.docx", "A 55686-2023")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 55686-2023 prioriterade fågelarter.docx", "A 55686-2023")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 43202-2024</t>
+          <t>A 42915-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45567.69123842593</v>
+        <v>45908.76802083333</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>5.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1935,45 +1935,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Havstulpanlav</t>
+          <t>Klippfrullania</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 43202-2024 artfynd.xlsx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 42915-2025 artfynd.xlsx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 43202-2024 karta.png", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 42915-2025 karta.png", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 43202-2024 FSC-klagomål.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 42915-2025 FSC-klagomål.docx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 43202-2024 FSC-klagomål mail.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 42915-2025 FSC-klagomål mail.docx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 43202-2024 tillsynsbegäran.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 42915-2025 tillsynsbegäran.docx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 43202-2024 tillsynsbegäran mail.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 42915-2025 tillsynsbegäran mail.docx", "A 42915-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 39670-2025</t>
+          <t>A 49645-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45890.64280092593</v>
+        <v>45939.61609953704</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2010,55 +2010,55 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Flodpärlmussla</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 39670-2025 artfynd.xlsx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 49645-2025 artfynd.xlsx", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 39670-2025 karta.png", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 49645-2025 karta.png", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 39670-2025 FSC-klagomål.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 49645-2025 FSC-klagomål.docx", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 39670-2025 FSC-klagomål mail.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 49645-2025 FSC-klagomål mail.docx", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 39670-2025 tillsynsbegäran.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 49645-2025 tillsynsbegäran.docx", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 39670-2025 tillsynsbegäran mail.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 49645-2025 tillsynsbegäran mail.docx", "A 49645-2025")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 21101-2023</t>
+          <t>A 39670-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45061</v>
+        <v>45890.64280092593</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2071,23 +2071,23 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
         <v>1</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
@@ -2095,41 +2095,41 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Åkergroda</t>
+          <t>Flodpärlmussla</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 21101-2023 artfynd.xlsx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 39670-2025 artfynd.xlsx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 21101-2023 karta.png", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 39670-2025 karta.png", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 21101-2023 FSC-klagomål.docx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 39670-2025 FSC-klagomål.docx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 21101-2023 FSC-klagomål mail.docx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 39670-2025 FSC-klagomål mail.docx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 21101-2023 tillsynsbegäran.docx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 39670-2025 tillsynsbegäran.docx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 21101-2023 tillsynsbegäran mail.docx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 39670-2025 tillsynsbegäran mail.docx", "A 39670-2025")</f>
         <v/>
       </c>
     </row>
@@ -2143,7 +2143,7 @@
         <v>45705</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>44243</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>44301.77314814815</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>44732</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>44599</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>44623.57480324074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44257</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>44547</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>44468</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>44708</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>44321.65381944444</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>44278</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>44278</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>44489.80715277778</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2962,14 +2962,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 12906-2021</t>
+          <t>A 32869-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44271.47340277778</v>
+        <v>44784.51399305555</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3019,14 +3019,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 53204-2021</t>
+          <t>A 12262-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44468</v>
+        <v>44266</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3076,14 +3076,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 59767-2021</t>
+          <t>A 12906-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44494</v>
+        <v>44271.47340277778</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3133,14 +3133,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 25267-2021</t>
+          <t>A 25967-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44342.44517361111</v>
+        <v>44344</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.2</v>
+        <v>5.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3190,14 +3190,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 9165-2022</t>
+          <t>A 53204-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44615.66289351852</v>
+        <v>44468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3247,14 +3247,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 36741-2021</t>
+          <t>A 59767-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44392</v>
+        <v>44494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3304,14 +3304,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 32869-2022</t>
+          <t>A 71648-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44784.51399305555</v>
+        <v>44543.354375</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3361,14 +3361,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 25967-2021</t>
+          <t>A 25267-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44344</v>
+        <v>44342.44517361111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>5.4</v>
+        <v>1.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3418,14 +3418,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 12262-2021</t>
+          <t>A 19782-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44266</v>
+        <v>44694</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3475,14 +3475,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 71648-2021</t>
+          <t>A 15683-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44543.354375</v>
+        <v>44663</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3532,14 +3532,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 19782-2022</t>
+          <t>A 27546-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44694</v>
+        <v>44351</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3589,14 +3589,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 15683-2022</t>
+          <t>A 63595-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44663</v>
+        <v>44508</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3646,14 +3646,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 63595-2021</t>
+          <t>A 17616-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44508</v>
+        <v>45757.82684027778</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3703,14 +3703,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 27546-2021</t>
+          <t>A 52045-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44351</v>
+        <v>44873.31652777778</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3760,14 +3760,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 40285-2025</t>
+          <t>A 9165-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45895.37532407408</v>
+        <v>44615.66289351852</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3817,14 +3817,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 52045-2022</t>
+          <t>A 51162-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44873.31652777778</v>
+        <v>45219</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3874,14 +3874,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 40299-2025</t>
+          <t>A 64560-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45895.39837962963</v>
+        <v>45281.4116087963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>7.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3931,14 +3931,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 40281-2025</t>
+          <t>A 12091-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45895.36684027778</v>
+        <v>45377.56653935185</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3988,14 +3988,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 40306-2025</t>
+          <t>A 11939-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45895.40923611111</v>
+        <v>45376.67043981481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.3</v>
+        <v>7.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4045,14 +4045,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 40273-2025</t>
+          <t>A 14183-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45895.34994212963</v>
+        <v>45393.34479166667</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4064,13 +4064,8 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4107,14 +4102,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 58481-2022</t>
+          <t>A 21800-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44902</v>
+        <v>45067.85023148148</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4127,7 +4122,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4164,14 +4159,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 63592-2021</t>
+          <t>A 34665-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44508</v>
+        <v>45140.81900462963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4184,7 +4179,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>8.699999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4221,14 +4216,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 41725-2024</t>
+          <t>A 51127-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45560.86376157407</v>
+        <v>45219</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4241,7 +4236,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4278,14 +4273,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 41457-2023</t>
+          <t>A 51130-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45175</v>
+        <v>45219</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4298,7 +4293,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4335,14 +4330,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 46798-2024</t>
+          <t>A 36741-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45583</v>
+        <v>44392</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4355,7 +4350,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>6.3</v>
+        <v>1.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4392,14 +4387,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 13454-2024</t>
+          <t>A 69563-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45387.51503472222</v>
+        <v>44532</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4412,7 +4407,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4449,14 +4444,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 17860-2021</t>
+          <t>A 2605-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44301.28643518518</v>
+        <v>45313.7355787037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4469,7 +4464,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4506,14 +4501,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 51162-2023</t>
+          <t>A 18001-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45219</v>
+        <v>45761.41210648148</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4526,7 +4521,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4563,14 +4558,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 39676-2025</t>
+          <t>A 41457-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45890.64989583333</v>
+        <v>45175</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4583,7 +4578,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4620,14 +4615,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 19977-2022</t>
+          <t>A 37201-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44697</v>
+        <v>45155</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4640,7 +4635,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.7</v>
+        <v>1.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4677,14 +4672,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 11939-2024</t>
+          <t>A 26992-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45376.67043981481</v>
+        <v>45811.52253472222</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4697,7 +4692,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>7.1</v>
+        <v>3.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4734,14 +4729,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 42307-2025</t>
+          <t>A 63592-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45904.65253472222</v>
+        <v>44508</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4754,7 +4749,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4791,14 +4786,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 61874-2024</t>
+          <t>A 47362-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45651.93527777777</v>
+        <v>45587.4371875</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4811,7 +4806,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4848,14 +4843,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 14468-2023</t>
+          <t>A 27513-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45012.65208333333</v>
+        <v>45813.42880787037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4868,7 +4863,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4905,14 +4900,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 11249-2024</t>
+          <t>A 11697-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45371.63502314815</v>
+        <v>45373.60171296296</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4925,7 +4920,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4962,14 +4957,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 21302-2025</t>
+          <t>A 56558-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45780.88960648148</v>
+        <v>45625.57997685186</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4982,7 +4977,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5019,14 +5014,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 21872-2025</t>
+          <t>A 2946-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45784.38836805556</v>
+        <v>45315</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5039,7 +5034,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5076,14 +5071,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 37201-2023</t>
+          <t>A 51157-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45155</v>
+        <v>45219</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5096,7 +5091,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5133,14 +5128,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 57269-2024</t>
+          <t>A 15480-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45629.57262731482</v>
+        <v>45747.55828703703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5153,7 +5148,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.7</v>
+        <v>5.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5190,14 +5185,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 22271-2025</t>
+          <t>A 40053-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45785.89675925926</v>
+        <v>45168.72297453704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5210,7 +5205,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5247,14 +5242,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 43832-2025</t>
+          <t>A 5630-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45912.63020833334</v>
+        <v>44960</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5267,7 +5262,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>6.4</v>
+        <v>1.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5304,14 +5299,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 51154-2023</t>
+          <t>A 12090-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45219</v>
+        <v>45377.56537037037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5324,7 +5319,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5361,14 +5356,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 51157-2023</t>
+          <t>A 9491-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45219</v>
+        <v>45715.4965162037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5381,7 +5376,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5418,14 +5413,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 9512-2021</t>
+          <t>A 52043-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44251</v>
+        <v>45608.32934027778</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5438,7 +5433,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.1</v>
+        <v>4.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5475,14 +5470,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 24542-2025</t>
+          <t>A 57269-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45798.44365740741</v>
+        <v>45629.57262731482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5495,7 +5490,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5532,14 +5527,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 40053-2023</t>
+          <t>A 25439-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45168.72297453704</v>
+        <v>44732.48712962963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5552,7 +5547,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5589,14 +5584,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 26992-2025</t>
+          <t>A 25726-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45811.52253472222</v>
+        <v>44733</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5609,7 +5604,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5646,14 +5641,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 27513-2025</t>
+          <t>A 25499-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45813.42880787037</v>
+        <v>44732.57032407408</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5666,7 +5661,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5703,14 +5698,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 46349-2025</t>
+          <t>A 9693-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45925.48078703704</v>
+        <v>44252</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5723,7 +5718,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5760,14 +5755,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 11697-2024</t>
+          <t>A 16679-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45373.60171296296</v>
+        <v>45754.44922453703</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5780,7 +5775,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5817,14 +5812,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 56558-2024</t>
+          <t>A 29697-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45625.57997685186</v>
+        <v>45107</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5837,7 +5832,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>5.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5874,14 +5869,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 9491-2025</t>
+          <t>A 23492-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45715.4965162037</v>
+        <v>44721.36030092592</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5894,7 +5889,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5931,14 +5926,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 29697-2023</t>
+          <t>A 39761-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45107</v>
+        <v>45167.71447916667</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5951,7 +5946,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>5.8</v>
+        <v>1.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5988,14 +5983,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 1551-2022</t>
+          <t>A 32866-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44573.61799768519</v>
+        <v>44784.50711805555</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6008,7 +6003,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6045,14 +6040,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 18003-2025</t>
+          <t>A 41725-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45761.41628472223</v>
+        <v>45560.86376157407</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6065,7 +6060,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6102,14 +6097,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 13108-2023</t>
+          <t>A 19977-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45002</v>
+        <v>44697</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6122,7 +6117,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6159,14 +6154,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 69563-2021</t>
+          <t>A 17860-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44532</v>
+        <v>44301.28643518518</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6179,7 +6174,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6216,14 +6211,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 60432-2022</t>
+          <t>A 46798-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44911</v>
+        <v>45583</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6236,7 +6231,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.9</v>
+        <v>6.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6273,14 +6268,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 48538-2025</t>
+          <t>A 5985-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45936.41079861111</v>
+        <v>45336.56657407407</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6293,7 +6288,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6330,14 +6325,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 21800-2023</t>
+          <t>A 64291-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45067.85023148148</v>
+        <v>45280</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6350,7 +6345,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6387,14 +6382,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 48440-2025</t>
+          <t>A 47334-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45935.51550925926</v>
+        <v>45587.39581018518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6407,7 +6402,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6444,14 +6439,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 48432-2025</t>
+          <t>A 35404-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45934.89319444444</v>
+        <v>45855.35253472222</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6464,7 +6459,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6501,14 +6496,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 16679-2025</t>
+          <t>A 13692-2021</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45754.44922453703</v>
+        <v>44274</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6521,7 +6516,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6558,14 +6553,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 25726-2022</t>
+          <t>A 16509-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44733</v>
+        <v>45751.61958333333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6578,7 +6573,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6615,14 +6610,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 35404-2025</t>
+          <t>A 41318-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45855.35253472222</v>
+        <v>44826</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6635,7 +6630,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.5</v>
+        <v>11.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6672,14 +6667,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 50188-2025</t>
+          <t>A 18003-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45943.63313657408</v>
+        <v>45761.41628472223</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6692,7 +6687,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6729,14 +6724,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 16509-2025</t>
+          <t>A 65080-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45751.61958333333</v>
+        <v>45287</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6749,7 +6744,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6786,14 +6781,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 39672-2025</t>
+          <t>A 3753-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45890.64541666667</v>
+        <v>45321.54748842592</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6806,7 +6801,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6843,14 +6838,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 13692-2021</t>
+          <t>A 1807-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44274</v>
+        <v>45307.59741898148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6863,7 +6858,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6900,14 +6895,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 16435-2025</t>
+          <t>A 47350-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45751.48401620371</v>
+        <v>45587.41349537037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6957,14 +6952,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 51009-2025</t>
+          <t>A 16435-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45947.37550925926</v>
+        <v>45751.48401620371</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6977,7 +6972,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7014,14 +7009,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 29696-2023</t>
+          <t>A 59711-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45107</v>
+        <v>44908.40974537037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7034,7 +7029,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>5.3</v>
+        <v>0.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7071,14 +7066,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 4433-2025</t>
+          <t>A 13582-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45686.49392361111</v>
+        <v>45736.59074074074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7091,7 +7086,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.3</v>
+        <v>2.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7128,14 +7123,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 51501-2025</t>
+          <t>A 39762-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45950.63748842593</v>
+        <v>45167.71539351852</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7148,7 +7143,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>6.1</v>
+        <v>0.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7185,14 +7180,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 47350-2024</t>
+          <t>A 20727-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45587.41349537037</v>
+        <v>45058.48152777777</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7205,7 +7200,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7242,14 +7237,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 41995-2025</t>
+          <t>A 61874-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45903.55027777778</v>
+        <v>45651.93527777777</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7262,7 +7257,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>6.5</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7299,14 +7294,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 5987-2024</t>
+          <t>A 4433-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45336</v>
+        <v>45686.49392361111</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7319,7 +7314,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.6</v>
+        <v>4.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7356,14 +7351,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 41318-2022</t>
+          <t>A 4315-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44826</v>
+        <v>45324</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7376,7 +7371,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>11.5</v>
+        <v>0.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7413,14 +7408,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 34938-2022</t>
+          <t>A 1551-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44796</v>
+        <v>44573.61799768519</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7433,7 +7428,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7470,14 +7465,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 9693-2021</t>
+          <t>A 51012-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44252</v>
+        <v>45218.57846064815</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7489,8 +7484,13 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7527,14 +7527,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 39761-2023</t>
+          <t>A 21398-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45167.71447916667</v>
+        <v>45063</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.4</v>
+        <v>6.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7584,14 +7584,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 55274-2025</t>
+          <t>A 56832-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45968.70364583333</v>
+        <v>45244</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>4.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7641,14 +7641,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 55273-2025</t>
+          <t>A 60432-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45968.69956018519</v>
+        <v>44911</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7698,14 +7698,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 39762-2023</t>
+          <t>A 39676-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45167.71539351852</v>
+        <v>45890.64989583333</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7755,14 +7755,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 52043-2024</t>
+          <t>A 13108-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45608.32934027778</v>
+        <v>45002</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4.4</v>
+        <v>1.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7812,14 +7812,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 18001-2025</t>
+          <t>A 29696-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45761.41210648148</v>
+        <v>45107</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.7</v>
+        <v>5.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7869,14 +7869,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 47334-2024</t>
+          <t>A 58481-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45587.39581018518</v>
+        <v>44902</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.3</v>
+        <v>2.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7926,14 +7926,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 14183-2024</t>
+          <t>A 34938-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45393.34479166667</v>
+        <v>44796</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7983,14 +7983,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 60323-2025</t>
+          <t>A 5987-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45994.72667824074</v>
+        <v>45336</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8040,14 +8040,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 60334-2025</t>
+          <t>A 55071-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45994.76167824074</v>
+        <v>45237</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8097,14 +8097,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 2946-2024</t>
+          <t>A 40281-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45315</v>
+        <v>45895.36684027778</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8154,14 +8154,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 4315-2024</t>
+          <t>A 40273-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45324</v>
+        <v>45895.34994212963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8173,8 +8173,13 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8211,14 +8216,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 5985-2024</t>
+          <t>A 40299-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45336.56657407407</v>
+        <v>45895.39837962963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8231,7 +8236,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8268,14 +8273,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 15480-2025</t>
+          <t>A 40285-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45747.55828703703</v>
+        <v>45895.37532407408</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8288,7 +8293,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>5.6</v>
+        <v>2.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8325,14 +8330,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 23492-2022</t>
+          <t>A 40306-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44721.36030092592</v>
+        <v>45895.40923611111</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8345,7 +8350,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>4.4</v>
+        <v>1.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8382,14 +8387,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 64560-2023</t>
+          <t>A 13454-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45281.4116087963</v>
+        <v>45387.51503472222</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8402,7 +8407,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>7.1</v>
+        <v>2.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8439,14 +8444,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 3753-2024</t>
+          <t>A 42307-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45321.54748842592</v>
+        <v>45904.65253472222</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8459,7 +8464,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8496,14 +8501,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 61737-2025</t>
+          <t>A 14468-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>46002.59627314815</v>
+        <v>45012.65208333333</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8516,7 +8521,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8553,14 +8558,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 61741-2025</t>
+          <t>A 51154-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46002.60090277778</v>
+        <v>45219</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8573,7 +8578,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8610,14 +8615,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 1807-2024</t>
+          <t>A 43832-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45307.59741898148</v>
+        <v>45912.63020833334</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8630,7 +8635,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.7</v>
+        <v>6.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8667,14 +8672,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 25439-2022</t>
+          <t>A 52164-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44732.48712962963</v>
+        <v>45224</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8687,7 +8692,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.9</v>
+        <v>5.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8724,14 +8729,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 5630-2023</t>
+          <t>A 52166-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44960</v>
+        <v>45224.3316550926</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8744,7 +8749,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8781,14 +8786,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 51127-2023</t>
+          <t>A 46349-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45219</v>
+        <v>45925.48078703704</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8801,7 +8806,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8838,14 +8843,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 51130-2023</t>
+          <t>A 11249-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45219</v>
+        <v>45371.63502314815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8858,7 +8863,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8895,14 +8900,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 2605-2024</t>
+          <t>A 21302-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45313.7355787037</v>
+        <v>45780.88960648148</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8915,7 +8920,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8952,14 +8957,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 21398-2023</t>
+          <t>A 21872-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45063</v>
+        <v>45784.38836805556</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8972,7 +8977,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>6.6</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9009,14 +9014,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 7356-2025</t>
+          <t>A 48440-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45704.50445601852</v>
+        <v>45935.51550925926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9029,7 +9034,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9066,14 +9071,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 9492-2025</t>
+          <t>A 48538-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45715.49974537037</v>
+        <v>45936.41079861111</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9086,7 +9091,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9123,14 +9128,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 9494-2025</t>
+          <t>A 48432-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45715.503125</v>
+        <v>45934.89319444444</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9143,7 +9148,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9180,14 +9185,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 34665-2023</t>
+          <t>A 22271-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45140.81900462963</v>
+        <v>45785.89675925926</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9200,7 +9205,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9237,14 +9242,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 32866-2022</t>
+          <t>A 50188-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44784.50711805555</v>
+        <v>45943.63313657408</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9257,7 +9262,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9294,14 +9299,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 65080-2023</t>
+          <t>A 39672-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45287</v>
+        <v>45890.64541666667</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9314,7 +9319,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9351,14 +9356,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 59711-2022</t>
+          <t>A 51501-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44908.40974537037</v>
+        <v>45950.63748842593</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9371,7 +9376,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.9</v>
+        <v>6.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9408,14 +9413,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 12090-2024</t>
+          <t>A 51009-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45377.56537037037</v>
+        <v>45947.37550925926</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9428,7 +9433,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9465,14 +9470,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 47362-2024</t>
+          <t>A 9512-2021</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45587.4371875</v>
+        <v>44251</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9485,7 +9490,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9522,14 +9527,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 17616-2025</t>
+          <t>A 41995-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45757.82684027778</v>
+        <v>45903.55027777778</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9542,7 +9547,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.2</v>
+        <v>6.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9579,14 +9584,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 20727-2023</t>
+          <t>A 24542-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45058.48152777777</v>
+        <v>45798.44365740741</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9599,7 +9604,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9636,14 +9641,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 55071-2023</t>
+          <t>A 55273-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45237</v>
+        <v>45968.69956018519</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9656,7 +9661,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9693,14 +9698,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 52164-2023</t>
+          <t>A 55274-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45224</v>
+        <v>45968.70364583333</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9713,7 +9718,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>5.4</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9750,14 +9755,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 52166-2023</t>
+          <t>A 60323-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45224.3316550926</v>
+        <v>45994.72667824074</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9770,7 +9775,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9807,14 +9812,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 56832-2023</t>
+          <t>A 60334-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45244</v>
+        <v>45994.76167824074</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9827,7 +9832,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9864,14 +9869,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 12091-2024</t>
+          <t>A 61737-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45377.56653935185</v>
+        <v>46002.59627314815</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9884,7 +9889,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9921,14 +9926,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 51012-2023</t>
+          <t>A 61741-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45218.57846064815</v>
+        <v>46002.60090277778</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9940,13 +9945,8 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9983,14 +9983,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 64291-2023</t>
+          <t>A 7356-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45280</v>
+        <v>45704.50445601852</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10040,14 +10040,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 13582-2025</t>
+          <t>A 9492-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45736.59074074074</v>
+        <v>45715.49974537037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10097,14 +10097,14 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 25499-2022</t>
+          <t>A 9494-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44732.57032407408</v>
+        <v>45715.503125</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>

--- a/Översikt HÄRRYDA.xlsx
+++ b/Översikt HÄRRYDA.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 16723-2023</t>
+          <t>A 52061-2024</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45030</v>
+        <v>45608.35664351852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,16 +588,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>8.1</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -621,6 +621,94 @@
         <v>4</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Blåmossa
+Skuggmossa
+Stor revmossa
+Vågbandad barkbock</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 52061-2024 artfynd.xlsx", "A 52061-2024")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 52061-2024 karta.png", "A 52061-2024")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 52061-2024 FSC-klagomål.docx", "A 52061-2024")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 52061-2024 FSC-klagomål mail.docx", "A 52061-2024")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 52061-2024 tillsynsbegäran.docx", "A 52061-2024")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 52061-2024 tillsynsbegäran mail.docx", "A 52061-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 16723-2023</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45030</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>HÄRRYDA</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Björksplintborre
@@ -628,120 +716,32 @@
 Kornknutmossa</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 16723-2023 artfynd.xlsx", "A 16723-2023")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 16723-2023 karta.png", "A 16723-2023")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 16723-2023 FSC-klagomål.docx", "A 16723-2023")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 16723-2023 FSC-klagomål mail.docx", "A 16723-2023")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 16723-2023 tillsynsbegäran.docx", "A 16723-2023")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 16723-2023 tillsynsbegäran mail.docx", "A 16723-2023")</f>
         <v/>
       </c>
-      <c r="Z2">
+      <c r="Z3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 16723-2023 prioriterade fågelarter.docx", "A 16723-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 52061-2024</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45608.35664351852</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>HÄRRYDA</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>4</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Blåmossa
-Skuggmossa
-Stor revmossa
-Vågbandad barkbock</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 52061-2024 artfynd.xlsx", "A 52061-2024")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 52061-2024 karta.png", "A 52061-2024")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 52061-2024 FSC-klagomål.docx", "A 52061-2024")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 52061-2024 FSC-klagomål mail.docx", "A 52061-2024")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 52061-2024 tillsynsbegäran.docx", "A 52061-2024")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 52061-2024 tillsynsbegäran mail.docx", "A 52061-2024")</f>
         <v/>
       </c>
     </row>
@@ -755,7 +755,7 @@
         <v>44732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45239</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,14 +930,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 26989-2025</t>
+          <t>A 7253-2026</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45811.5165625</v>
+        <v>46058.59695601852</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -949,17 +949,22 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G6" t="n">
-        <v>4.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -974,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -984,227 +989,222 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Svart taggsvamp
+Blåmossa</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 7253-2026 artfynd.xlsx", "A 7253-2026")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 7253-2026 karta.png", "A 7253-2026")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 7253-2026 FSC-klagomål.docx", "A 7253-2026")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 7253-2026 FSC-klagomål mail.docx", "A 7253-2026")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 7253-2026 tillsynsbegäran.docx", "A 7253-2026")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 7253-2026 tillsynsbegäran mail.docx", "A 7253-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 26989-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45811.5165625</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HÄRRYDA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Kungsfågel
 Skogsduva</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 26989-2025 artfynd.xlsx", "A 26989-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 26989-2025 karta.png", "A 26989-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 26989-2025 FSC-klagomål.docx", "A 26989-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 26989-2025 FSC-klagomål mail.docx", "A 26989-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 26989-2025 tillsynsbegäran.docx", "A 26989-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 26989-2025 tillsynsbegäran mail.docx", "A 26989-2025")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 26989-2025 prioriterade fågelarter.docx", "A 26989-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 46044-2025</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>45924.45489583333</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HÄRRYDA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+      <c r="C8" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>HÄRRYDA</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>2.7</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>2</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Fjällig taggsvamp s.str.
 Mandelriska</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 46044-2025 artfynd.xlsx", "A 46044-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 46044-2025 karta.png", "A 46044-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 46044-2025 FSC-klagomål.docx", "A 46044-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 46044-2025 FSC-klagomål mail.docx", "A 46044-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 46044-2025 tillsynsbegäran.docx", "A 46044-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 46044-2025 tillsynsbegäran mail.docx", "A 46044-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 7253-2026</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>46058.59695601852</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>HÄRRYDA</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Svart taggsvamp
-Blåmossa</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 7253-2026 artfynd.xlsx", "A 7253-2026")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 7253-2026 karta.png", "A 7253-2026")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 7253-2026 FSC-klagomål.docx", "A 7253-2026")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 7253-2026 FSC-klagomål mail.docx", "A 7253-2026")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 7253-2026 tillsynsbegäran.docx", "A 7253-2026")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 7253-2026 tillsynsbegäran mail.docx", "A 7253-2026")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 7814-2021</t>
+          <t>A 63596-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44242</v>
+        <v>44508</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1251,45 +1251,45 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 7814-2021 artfynd.xlsx", "A 7814-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 63596-2021 artfynd.xlsx", "A 63596-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 7814-2021 karta.png", "A 7814-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 63596-2021 karta.png", "A 63596-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 7814-2021 FSC-klagomål.docx", "A 7814-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 63596-2021 FSC-klagomål.docx", "A 63596-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 7814-2021 FSC-klagomål mail.docx", "A 7814-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 63596-2021 FSC-klagomål mail.docx", "A 63596-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 7814-2021 tillsynsbegäran.docx", "A 7814-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 63596-2021 tillsynsbegäran.docx", "A 63596-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 7814-2021 tillsynsbegäran mail.docx", "A 7814-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 63596-2021 tillsynsbegäran mail.docx", "A 63596-2021")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 63596-2021</t>
+          <t>A 7814-2021</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44508</v>
+        <v>44242</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,31 +1336,31 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 63596-2021 artfynd.xlsx", "A 63596-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 7814-2021 artfynd.xlsx", "A 7814-2021")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 63596-2021 karta.png", "A 63596-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 7814-2021 karta.png", "A 7814-2021")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 63596-2021 FSC-klagomål.docx", "A 63596-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 7814-2021 FSC-klagomål.docx", "A 7814-2021")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 63596-2021 FSC-klagomål mail.docx", "A 63596-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 7814-2021 FSC-klagomål mail.docx", "A 7814-2021")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 63596-2021 tillsynsbegäran.docx", "A 63596-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 7814-2021 tillsynsbegäran.docx", "A 7814-2021")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 63596-2021 tillsynsbegäran mail.docx", "A 63596-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 7814-2021 tillsynsbegäran mail.docx", "A 7814-2021")</f>
         <v/>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
         <v>45813.38332175926</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>45740.62429398148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45736.59434027778</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1622,14 +1622,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 43202-2024</t>
+          <t>A 55686-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45567.69123842593</v>
+        <v>45239.34966435185</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1642,13 +1642,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5.3</v>
+        <v>6.6</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1676,45 +1676,49 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Havstulpanlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 43202-2024 artfynd.xlsx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 55686-2023 artfynd.xlsx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 43202-2024 karta.png", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 55686-2023 karta.png", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 43202-2024 FSC-klagomål.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 55686-2023 FSC-klagomål.docx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 43202-2024 FSC-klagomål mail.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 55686-2023 FSC-klagomål mail.docx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 43202-2024 tillsynsbegäran.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 55686-2023 tillsynsbegäran.docx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 43202-2024 tillsynsbegäran mail.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 55686-2023 tillsynsbegäran mail.docx", "A 55686-2023")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 55686-2023 prioriterade fågelarter.docx", "A 55686-2023")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 21101-2023</t>
+          <t>A 43202-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45061</v>
+        <v>45567.69123842593</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1727,13 +1731,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.5</v>
+        <v>5.3</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1761,45 +1765,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Åkergroda</t>
+          <t>Havstulpanlav</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 21101-2023 artfynd.xlsx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 43202-2024 artfynd.xlsx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 21101-2023 karta.png", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 43202-2024 karta.png", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 21101-2023 FSC-klagomål.docx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 43202-2024 FSC-klagomål.docx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 21101-2023 FSC-klagomål mail.docx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 43202-2024 FSC-klagomål mail.docx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 21101-2023 tillsynsbegäran.docx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 43202-2024 tillsynsbegäran.docx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 21101-2023 tillsynsbegäran mail.docx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 43202-2024 tillsynsbegäran mail.docx", "A 43202-2024")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 55686-2023</t>
+          <t>A 21101-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45239.34966435185</v>
+        <v>45061</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1812,7 +1816,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>6.6</v>
+        <v>0.5</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1846,35 +1850,31 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Åkergroda</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 55686-2023 artfynd.xlsx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 21101-2023 artfynd.xlsx", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 55686-2023 karta.png", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 21101-2023 karta.png", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 55686-2023 FSC-klagomål.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 21101-2023 FSC-klagomål.docx", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 55686-2023 FSC-klagomål mail.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 21101-2023 FSC-klagomål mail.docx", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 55686-2023 tillsynsbegäran.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 21101-2023 tillsynsbegäran.docx", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 55686-2023 tillsynsbegäran mail.docx", "A 55686-2023")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 55686-2023 prioriterade fågelarter.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 21101-2023 tillsynsbegäran mail.docx", "A 21101-2023")</f>
         <v/>
       </c>
     </row>
@@ -1888,7 +1888,7 @@
         <v>45908.76802083333</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>45939.61609953704</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45890.64280092593</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>45705</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>44243</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>44301.77314814815</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>44732</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>44599</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>44623.57480324074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2506,14 +2506,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 10351-2021</t>
+          <t>A 72891-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44257</v>
+        <v>44547</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2563,14 +2563,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 72891-2021</t>
+          <t>A 10351-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44547</v>
+        <v>44257</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2627,7 +2627,7 @@
         <v>44468</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>44708</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>44321.65381944444</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>44278</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>44278</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>44489.80715277778</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2962,14 +2962,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 32869-2022</t>
+          <t>A 12906-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44784.51399305555</v>
+        <v>44271.47340277778</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3019,14 +3019,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 12262-2021</t>
+          <t>A 53204-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44266</v>
+        <v>44468</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3076,14 +3076,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 12906-2021</t>
+          <t>A 59767-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44271.47340277778</v>
+        <v>44494</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3133,14 +3133,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 25967-2021</t>
+          <t>A 25267-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44344</v>
+        <v>44342.44517361111</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>5.4</v>
+        <v>1.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3190,14 +3190,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 53204-2021</t>
+          <t>A 9165-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44468</v>
+        <v>44615.66289351852</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3247,14 +3247,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 59767-2021</t>
+          <t>A 36741-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44494</v>
+        <v>44392</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3304,14 +3304,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 71648-2021</t>
+          <t>A 32869-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44543.354375</v>
+        <v>44784.51399305555</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3361,14 +3361,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 25267-2021</t>
+          <t>A 25967-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44342.44517361111</v>
+        <v>44344</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.2</v>
+        <v>5.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3418,14 +3418,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 19782-2022</t>
+          <t>A 12262-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44694</v>
+        <v>44266</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3475,14 +3475,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 15683-2022</t>
+          <t>A 71648-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44663</v>
+        <v>44543.354375</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3532,14 +3532,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 27546-2021</t>
+          <t>A 19782-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44351</v>
+        <v>44694</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3589,14 +3589,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 63595-2021</t>
+          <t>A 15683-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44508</v>
+        <v>44663</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3646,14 +3646,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 17616-2025</t>
+          <t>A 27546-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45757.82684027778</v>
+        <v>44351</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3703,14 +3703,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 52045-2022</t>
+          <t>A 63595-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44873.31652777778</v>
+        <v>44508</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3760,14 +3760,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 9165-2022</t>
+          <t>A 52045-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44615.66289351852</v>
+        <v>44873.31652777778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3817,14 +3817,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 51162-2023</t>
+          <t>A 58481-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45219</v>
+        <v>44902</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3874,14 +3874,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 64560-2023</t>
+          <t>A 63592-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45281.4116087963</v>
+        <v>44508</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>7.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3931,14 +3931,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 12091-2024</t>
+          <t>A 41725-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45377.56653935185</v>
+        <v>45560.86376157407</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3988,14 +3988,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 11939-2024</t>
+          <t>A 41457-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45376.67043981481</v>
+        <v>45175</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>7.1</v>
+        <v>0.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4045,14 +4045,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 14183-2024</t>
+          <t>A 51162-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45393.34479166667</v>
+        <v>45219</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4102,14 +4102,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 21800-2023</t>
+          <t>A 19977-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45067.85023148148</v>
+        <v>44697</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4159,14 +4159,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 34665-2023</t>
+          <t>A 11939-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45140.81900462963</v>
+        <v>45376.67043981481</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.3</v>
+        <v>7.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4216,14 +4216,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 51127-2023</t>
+          <t>A 61874-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45219</v>
+        <v>45651.93527777777</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4273,14 +4273,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 51130-2023</t>
+          <t>A 37201-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45219</v>
+        <v>45155</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4330,14 +4330,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 36741-2021</t>
+          <t>A 9512-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44392</v>
+        <v>44251</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4387,14 +4387,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 69563-2021</t>
+          <t>A 9492-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44532</v>
+        <v>45715.49974537037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4444,14 +4444,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 2605-2024</t>
+          <t>A 9494-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45313.7355787037</v>
+        <v>45715.503125</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4501,14 +4501,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 18001-2025</t>
+          <t>A 57269-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45761.41210648148</v>
+        <v>45629.57262731482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4558,14 +4558,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 41457-2023</t>
+          <t>A 24542-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45175</v>
+        <v>45798.44365740741</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4615,14 +4615,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 37201-2023</t>
+          <t>A 51154-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45155</v>
+        <v>45219</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4672,14 +4672,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 26992-2025</t>
+          <t>A 51157-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45811.52253472222</v>
+        <v>45219</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.9</v>
+        <v>2.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4729,14 +4729,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 63592-2021</t>
+          <t>A 26992-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44508</v>
+        <v>45811.52253472222</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>8.699999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4786,14 +4786,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 47362-2024</t>
+          <t>A 27513-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45587.4371875</v>
+        <v>45813.42880787037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4843,14 +4843,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 27513-2025</t>
+          <t>A 11697-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45813.42880787037</v>
+        <v>45373.60171296296</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4900,14 +4900,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 11697-2024</t>
+          <t>A 56558-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45373.60171296296</v>
+        <v>45625.57997685186</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4957,14 +4957,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 56558-2024</t>
+          <t>A 39676-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45625.57997685186</v>
+        <v>45890.64989583333</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5014,14 +5014,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 2946-2024</t>
+          <t>A 40053-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45315</v>
+        <v>45168.72297453704</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5071,14 +5071,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 51157-2023</t>
+          <t>A 9491-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45219</v>
+        <v>45715.4965162037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5128,14 +5128,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 15480-2025</t>
+          <t>A 40285-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45747.55828703703</v>
+        <v>45895.37532407408</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>5.6</v>
+        <v>2.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5185,14 +5185,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 40053-2023</t>
+          <t>A 40299-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45168.72297453704</v>
+        <v>45895.39837962963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5242,14 +5242,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 5630-2023</t>
+          <t>A 40281-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44960</v>
+        <v>45895.36684027778</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5299,14 +5299,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 12090-2024</t>
+          <t>A 40306-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45377.56537037037</v>
+        <v>45895.40923611111</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5356,14 +5356,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 9491-2025</t>
+          <t>A 40273-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45715.4965162037</v>
+        <v>45895.34994212963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5375,8 +5375,13 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5413,14 +5418,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 52043-2024</t>
+          <t>A 13454-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45608.32934027778</v>
+        <v>45387.51503472222</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5433,7 +5438,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4.4</v>
+        <v>2.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5470,14 +5475,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 57269-2024</t>
+          <t>A 29697-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45629.57262731482</v>
+        <v>45107</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5490,7 +5495,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.7</v>
+        <v>5.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5527,14 +5532,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 25439-2022</t>
+          <t>A 1551-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44732.48712962963</v>
+        <v>44573.61799768519</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5547,7 +5552,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5584,14 +5589,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 25726-2022</t>
+          <t>A 18003-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44733</v>
+        <v>45761.41628472223</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5604,7 +5609,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5641,14 +5646,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 25499-2022</t>
+          <t>A 13108-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44732.57032407408</v>
+        <v>45002</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5661,7 +5666,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5698,14 +5703,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 9693-2021</t>
+          <t>A 69563-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44252</v>
+        <v>44532</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5718,7 +5723,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5755,14 +5760,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 16679-2025</t>
+          <t>A 35404-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45754.44922453703</v>
+        <v>45855.35253472222</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5775,7 +5780,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5812,14 +5817,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 29697-2023</t>
+          <t>A 60432-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45107</v>
+        <v>44911</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5832,7 +5837,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>5.8</v>
+        <v>0.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5869,14 +5874,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 23492-2022</t>
+          <t>A 42307-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44721.36030092592</v>
+        <v>45904.65253472222</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5889,7 +5894,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.4</v>
+        <v>2.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5926,14 +5931,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 39761-2023</t>
+          <t>A 21800-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45167.71447916667</v>
+        <v>45067.85023148148</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5946,7 +5951,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5983,14 +5988,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 32866-2022</t>
+          <t>A 16509-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44784.50711805555</v>
+        <v>45751.61958333333</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6003,7 +6008,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6040,14 +6045,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 41725-2024</t>
+          <t>A 14468-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45560.86376157407</v>
+        <v>45012.65208333333</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6060,7 +6065,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6097,14 +6102,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 19977-2022</t>
+          <t>A 16679-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44697</v>
+        <v>45754.44922453703</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6117,7 +6122,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.7</v>
+        <v>0.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6154,14 +6159,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 17860-2021</t>
+          <t>A 25726-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44301.28643518518</v>
+        <v>44733</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6174,7 +6179,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6211,14 +6216,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 46798-2024</t>
+          <t>A 4433-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45583</v>
+        <v>45686.49392361111</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6231,7 +6236,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>6.3</v>
+        <v>4.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6268,14 +6273,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 5985-2024</t>
+          <t>A 43832-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45336.56657407407</v>
+        <v>45912.63020833334</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6288,7 +6293,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.8</v>
+        <v>6.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6325,14 +6330,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 64291-2023</t>
+          <t>A 13692-2021</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45280</v>
+        <v>44274</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6345,7 +6350,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6382,14 +6387,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 47334-2024</t>
+          <t>A 16435-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45587.39581018518</v>
+        <v>45751.48401620371</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6402,7 +6407,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6439,14 +6444,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 35404-2025</t>
+          <t>A 29696-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45855.35253472222</v>
+        <v>45107</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6459,7 +6464,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.5</v>
+        <v>5.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6496,14 +6501,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 13692-2021</t>
+          <t>A 46349-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44274</v>
+        <v>45925.48078703704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6516,7 +6521,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6553,14 +6558,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 16509-2025</t>
+          <t>A 47350-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45751.61958333333</v>
+        <v>45587.41349537037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6573,7 +6578,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6610,14 +6615,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 41318-2022</t>
+          <t>A 48538-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44826</v>
+        <v>45936.41079861111</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6630,7 +6635,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>11.5</v>
+        <v>0.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6667,14 +6672,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 18003-2025</t>
+          <t>A 48440-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45761.41628472223</v>
+        <v>45935.51550925926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6687,7 +6692,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6724,14 +6729,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 65080-2023</t>
+          <t>A 48432-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45287</v>
+        <v>45934.89319444444</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6744,7 +6749,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6781,14 +6786,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 3753-2024</t>
+          <t>A 5987-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45321.54748842592</v>
+        <v>45336</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6801,7 +6806,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6838,14 +6843,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 1807-2024</t>
+          <t>A 41318-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45307.59741898148</v>
+        <v>44826</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6858,7 +6863,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.7</v>
+        <v>11.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6895,14 +6900,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 47350-2024</t>
+          <t>A 50188-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45587.41349537037</v>
+        <v>45943.63313657408</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6915,7 +6920,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6952,14 +6957,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 16435-2025</t>
+          <t>A 34938-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45751.48401620371</v>
+        <v>44796</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6972,7 +6977,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7009,14 +7014,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 59711-2022</t>
+          <t>A 9693-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44908.40974537037</v>
+        <v>44252</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7029,7 +7034,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7066,14 +7071,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 13582-2025</t>
+          <t>A 39672-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45736.59074074074</v>
+        <v>45890.64541666667</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7086,7 +7091,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7123,14 +7128,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 39762-2023</t>
+          <t>A 39761-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45167.71539351852</v>
+        <v>45167.71447916667</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7143,7 +7148,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7180,14 +7185,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 20727-2023</t>
+          <t>A 51009-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45058.48152777777</v>
+        <v>45947.37550925926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7200,7 +7205,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7237,14 +7242,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 61874-2024</t>
+          <t>A 51501-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45651.93527777777</v>
+        <v>45950.63748842593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7257,7 +7262,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>6.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7294,14 +7299,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 4433-2025</t>
+          <t>A 41995-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45686.49392361111</v>
+        <v>45903.55027777778</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7314,7 +7319,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.3</v>
+        <v>6.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7351,14 +7356,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 4315-2024</t>
+          <t>A 39762-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45324</v>
+        <v>45167.71539351852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7371,7 +7376,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7408,14 +7413,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 1551-2022</t>
+          <t>A 52043-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44573.61799768519</v>
+        <v>45608.32934027778</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7428,7 +7433,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7465,14 +7470,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 51012-2023</t>
+          <t>A 18001-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45218.57846064815</v>
+        <v>45761.41210648148</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7484,13 +7489,8 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7527,14 +7527,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 21398-2023</t>
+          <t>A 47334-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45063</v>
+        <v>45587.39581018518</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>6.6</v>
+        <v>0.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7584,14 +7584,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 56832-2023</t>
+          <t>A 14183-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45244</v>
+        <v>45393.34479166667</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4.9</v>
+        <v>1.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7641,14 +7641,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 60432-2022</t>
+          <t>A 55274-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44911</v>
+        <v>45968.70364583333</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7698,14 +7698,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 39676-2025</t>
+          <t>A 55273-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45890.64989583333</v>
+        <v>45968.69956018519</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7755,14 +7755,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 13108-2023</t>
+          <t>A 2946-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45002</v>
+        <v>45315</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7812,14 +7812,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 29696-2023</t>
+          <t>A 4315-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45107</v>
+        <v>45324</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>5.3</v>
+        <v>0.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7869,14 +7869,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 58481-2022</t>
+          <t>A 5985-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44902</v>
+        <v>45336.56657407407</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7926,14 +7926,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 34938-2022</t>
+          <t>A 15480-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44796</v>
+        <v>45747.55828703703</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.3</v>
+        <v>5.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7983,14 +7983,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 5987-2024</t>
+          <t>A 23492-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45336</v>
+        <v>44721.36030092592</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.6</v>
+        <v>4.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8040,14 +8040,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 55071-2023</t>
+          <t>A 64560-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45237</v>
+        <v>45281.4116087963</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.5</v>
+        <v>7.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8097,14 +8097,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 40281-2025</t>
+          <t>A 3753-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45895.36684027778</v>
+        <v>45321.54748842592</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8154,14 +8154,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 40273-2025</t>
+          <t>A 1807-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45895.34994212963</v>
+        <v>45307.59741898148</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8173,13 +8173,8 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8216,14 +8211,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 40299-2025</t>
+          <t>A 25439-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45895.39837962963</v>
+        <v>44732.48712962963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8236,7 +8231,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8273,14 +8268,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 40285-2025</t>
+          <t>A 5630-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45895.37532407408</v>
+        <v>44960</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8293,7 +8288,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8330,14 +8325,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 40306-2025</t>
+          <t>A 51127-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45895.40923611111</v>
+        <v>45219</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8350,7 +8345,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8387,14 +8382,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 13454-2024</t>
+          <t>A 51130-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45387.51503472222</v>
+        <v>45219</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8407,7 +8402,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8444,14 +8439,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 42307-2025</t>
+          <t>A 60323-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45904.65253472222</v>
+        <v>45994.72667824074</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8464,7 +8459,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8501,14 +8496,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 14468-2023</t>
+          <t>A 2605-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45012.65208333333</v>
+        <v>45313.7355787037</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8558,14 +8553,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 51154-2023</t>
+          <t>A 21398-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45219</v>
+        <v>45063</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8578,7 +8573,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.1</v>
+        <v>6.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8615,14 +8610,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 43832-2025</t>
+          <t>A 60334-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45912.63020833334</v>
+        <v>45994.76167824074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8635,7 +8630,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>6.4</v>
+        <v>3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8672,14 +8667,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 52164-2023</t>
+          <t>A 34665-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45224</v>
+        <v>45140.81900462963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8692,7 +8687,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>5.4</v>
+        <v>2.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8729,14 +8724,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 52166-2023</t>
+          <t>A 32866-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45224.3316550926</v>
+        <v>44784.50711805555</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8749,7 +8744,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8786,14 +8781,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 46349-2025</t>
+          <t>A 65080-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45925.48078703704</v>
+        <v>45287</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8806,7 +8801,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8843,14 +8838,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 11249-2024</t>
+          <t>A 61737-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45371.63502314815</v>
+        <v>46002.59627314815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8863,7 +8858,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>6.5</v>
+        <v>0.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8900,14 +8895,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 21302-2025</t>
+          <t>A 61741-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45780.88960648148</v>
+        <v>46002.60090277778</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8920,7 +8915,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8957,14 +8952,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 21872-2025</t>
+          <t>A 59711-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45784.38836805556</v>
+        <v>44908.40974537037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8977,7 +8972,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9014,14 +9009,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 48440-2025</t>
+          <t>A 12090-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45935.51550925926</v>
+        <v>45377.56537037037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9034,7 +9029,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9071,14 +9066,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 48538-2025</t>
+          <t>A 47362-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45936.41079861111</v>
+        <v>45587.4371875</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9091,7 +9086,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9128,14 +9123,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 48432-2025</t>
+          <t>A 7356-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45934.89319444444</v>
+        <v>45704.50445601852</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9148,7 +9143,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9185,14 +9180,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 22271-2025</t>
+          <t>A 17616-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45785.89675925926</v>
+        <v>45757.82684027778</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9205,7 +9200,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9242,14 +9237,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 50188-2025</t>
+          <t>A 20727-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45943.63313657408</v>
+        <v>45058.48152777777</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9262,7 +9257,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9299,14 +9294,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 39672-2025</t>
+          <t>A 55071-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45890.64541666667</v>
+        <v>45237</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9319,7 +9314,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9356,14 +9351,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 51501-2025</t>
+          <t>A 52164-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45950.63748842593</v>
+        <v>45224</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9376,7 +9371,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>6.1</v>
+        <v>5.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9413,14 +9408,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 51009-2025</t>
+          <t>A 52166-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45947.37550925926</v>
+        <v>45224.3316550926</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9433,7 +9428,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9470,14 +9465,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 9512-2021</t>
+          <t>A 56832-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44251</v>
+        <v>45244</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9490,7 +9485,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.1</v>
+        <v>4.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9527,14 +9522,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 41995-2025</t>
+          <t>A 12091-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45903.55027777778</v>
+        <v>45377.56653935185</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9547,7 +9542,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9584,14 +9579,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 24542-2025</t>
+          <t>A 51012-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45798.44365740741</v>
+        <v>45218.57846064815</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9603,8 +9598,13 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9641,14 +9641,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 55273-2025</t>
+          <t>A 64291-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45968.69956018519</v>
+        <v>45280</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9698,14 +9698,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 55274-2025</t>
+          <t>A 13582-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45968.70364583333</v>
+        <v>45736.59074074074</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9755,14 +9755,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 60323-2025</t>
+          <t>A 25499-2022</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45994.72667824074</v>
+        <v>44732.57032407408</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3.9</v>
+        <v>2.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9812,14 +9812,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 60334-2025</t>
+          <t>A 46798-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45994.76167824074</v>
+        <v>45583</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3</v>
+        <v>6.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9869,14 +9869,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 61737-2025</t>
+          <t>A 17860-2021</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>46002.59627314815</v>
+        <v>44301.28643518518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9926,14 +9926,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 61741-2025</t>
+          <t>A 11249-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>46002.60090277778</v>
+        <v>45371.63502314815</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.6</v>
+        <v>6.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9983,14 +9983,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 7356-2025</t>
+          <t>A 21302-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45704.50445601852</v>
+        <v>45780.88960648148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10040,14 +10040,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 9492-2025</t>
+          <t>A 21872-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45715.49974537037</v>
+        <v>45784.38836805556</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10097,14 +10097,14 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 9494-2025</t>
+          <t>A 22271-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45715.503125</v>
+        <v>45785.89675925926</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>

--- a/Översikt HÄRRYDA.xlsx
+++ b/Översikt HÄRRYDA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z159"/>
+  <dimension ref="A1:Z157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45608.35664351852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45030</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45239</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,14 +930,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 7253-2026</t>
+          <t>A 26989-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>46058.59695601852</v>
+        <v>45811.5165625</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -949,22 +949,17 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G6" t="n">
-        <v>9.800000000000001</v>
+        <v>4.6</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -979,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -989,208 +984,213 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Kungsfågel
+Skogsduva</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 26989-2025 artfynd.xlsx", "A 26989-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 26989-2025 karta.png", "A 26989-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 26989-2025 FSC-klagomål.docx", "A 26989-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 26989-2025 FSC-klagomål mail.docx", "A 26989-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 26989-2025 tillsynsbegäran.docx", "A 26989-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 26989-2025 tillsynsbegäran mail.docx", "A 26989-2025")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 26989-2025 prioriterade fågelarter.docx", "A 26989-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 46044-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45924.45489583333</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HÄRRYDA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Fjällig taggsvamp s.str.
+Mandelriska</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 46044-2025 artfynd.xlsx", "A 46044-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 46044-2025 karta.png", "A 46044-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 46044-2025 FSC-klagomål.docx", "A 46044-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 46044-2025 FSC-klagomål mail.docx", "A 46044-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 46044-2025 tillsynsbegäran.docx", "A 46044-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 46044-2025 tillsynsbegäran mail.docx", "A 46044-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 7253-2026</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>46058.59695601852</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>HÄRRYDA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Svart taggsvamp
 Blåmossa</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 7253-2026 artfynd.xlsx", "A 7253-2026")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 7253-2026 karta.png", "A 7253-2026")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 7253-2026 FSC-klagomål.docx", "A 7253-2026")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 7253-2026 FSC-klagomål mail.docx", "A 7253-2026")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 7253-2026 tillsynsbegäran.docx", "A 7253-2026")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 7253-2026 tillsynsbegäran mail.docx", "A 7253-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 26989-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45811.5165625</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HÄRRYDA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Kungsfågel
-Skogsduva</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 26989-2025 artfynd.xlsx", "A 26989-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 26989-2025 karta.png", "A 26989-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 26989-2025 FSC-klagomål.docx", "A 26989-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 26989-2025 FSC-klagomål mail.docx", "A 26989-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 26989-2025 tillsynsbegäran.docx", "A 26989-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 26989-2025 tillsynsbegäran mail.docx", "A 26989-2025")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 26989-2025 prioriterade fågelarter.docx", "A 26989-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 46044-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45924.45489583333</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>HÄRRYDA</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Fjällig taggsvamp s.str.
-Mandelriska</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 46044-2025 artfynd.xlsx", "A 46044-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 46044-2025 karta.png", "A 46044-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 46044-2025 FSC-klagomål.docx", "A 46044-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 46044-2025 FSC-klagomål mail.docx", "A 46044-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 46044-2025 tillsynsbegäran.docx", "A 46044-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 46044-2025 tillsynsbegäran mail.docx", "A 46044-2025")</f>
         <v/>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
         <v>44508</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,14 +1282,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 7814-2021</t>
+          <t>A 27482-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44242</v>
+        <v>45813.38332175926</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1302,17 +1302,17 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.1</v>
+        <v>14.1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1336,45 +1336,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 7814-2021 artfynd.xlsx", "A 7814-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 27482-2025 artfynd.xlsx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 7814-2021 karta.png", "A 7814-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 27482-2025 karta.png", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 7814-2021 FSC-klagomål.docx", "A 7814-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 27482-2025 FSC-klagomål.docx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 7814-2021 FSC-klagomål mail.docx", "A 7814-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 27482-2025 FSC-klagomål mail.docx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 7814-2021 tillsynsbegäran.docx", "A 7814-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 27482-2025 tillsynsbegäran.docx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 7814-2021 tillsynsbegäran mail.docx", "A 7814-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 27482-2025 tillsynsbegäran mail.docx", "A 27482-2025")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 27482-2025</t>
+          <t>A 55686-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45813.38332175926</v>
+        <v>45239.34966435185</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1387,16 +1387,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>14.1</v>
+        <v>6.6</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1421,31 +1421,35 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 27482-2025 artfynd.xlsx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 55686-2023 artfynd.xlsx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 27482-2025 karta.png", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 55686-2023 karta.png", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 27482-2025 FSC-klagomål.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 55686-2023 FSC-klagomål.docx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 27482-2025 FSC-klagomål mail.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 55686-2023 FSC-klagomål mail.docx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 27482-2025 tillsynsbegäran.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 55686-2023 tillsynsbegäran.docx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 27482-2025 tillsynsbegäran mail.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 55686-2023 tillsynsbegäran mail.docx", "A 55686-2023")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 55686-2023 prioriterade fågelarter.docx", "A 55686-2023")</f>
         <v/>
       </c>
     </row>
@@ -1459,7 +1463,7 @@
         <v>45740.62429398148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1544,7 +1548,7 @@
         <v>45736.59434027778</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1622,14 +1626,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 55686-2023</t>
+          <t>A 42915-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45239.34966435185</v>
+        <v>45908.76802083333</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1642,13 +1646,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>6.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1676,49 +1680,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Klippfrullania</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 55686-2023 artfynd.xlsx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 42915-2025 artfynd.xlsx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 55686-2023 karta.png", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 42915-2025 karta.png", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 55686-2023 FSC-klagomål.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 42915-2025 FSC-klagomål.docx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 55686-2023 FSC-klagomål mail.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 42915-2025 FSC-klagomål mail.docx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 55686-2023 tillsynsbegäran.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 42915-2025 tillsynsbegäran.docx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 55686-2023 tillsynsbegäran mail.docx", "A 55686-2023")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 55686-2023 prioriterade fågelarter.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 42915-2025 tillsynsbegäran mail.docx", "A 42915-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 43202-2024</t>
+          <t>A 49645-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45567.69123842593</v>
+        <v>45939.61609953704</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1731,13 +1731,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5.3</v>
+        <v>2.3</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,45 +1765,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Havstulpanlav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 43202-2024 artfynd.xlsx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 49645-2025 artfynd.xlsx", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 43202-2024 karta.png", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 49645-2025 karta.png", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 43202-2024 FSC-klagomål.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 49645-2025 FSC-klagomål.docx", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 43202-2024 FSC-klagomål mail.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 49645-2025 FSC-klagomål mail.docx", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 43202-2024 tillsynsbegäran.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 49645-2025 tillsynsbegäran.docx", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 43202-2024 tillsynsbegäran mail.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 49645-2025 tillsynsbegäran mail.docx", "A 49645-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 21101-2023</t>
+          <t>A 39670-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45061</v>
+        <v>45890.64280092593</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1816,23 +1816,23 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
@@ -1840,55 +1840,55 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Åkergroda</t>
+          <t>Flodpärlmussla</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 21101-2023 artfynd.xlsx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 39670-2025 artfynd.xlsx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 21101-2023 karta.png", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 39670-2025 karta.png", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 21101-2023 FSC-klagomål.docx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 39670-2025 FSC-klagomål.docx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 21101-2023 FSC-klagomål mail.docx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 39670-2025 FSC-klagomål mail.docx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 21101-2023 tillsynsbegäran.docx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 39670-2025 tillsynsbegäran.docx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 21101-2023 tillsynsbegäran mail.docx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 39670-2025 tillsynsbegäran mail.docx", "A 39670-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 42915-2025</t>
+          <t>A 43202-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45908.76802083333</v>
+        <v>45567.69123842593</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>8.699999999999999</v>
+        <v>5.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1935,45 +1935,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Klippfrullania</t>
+          <t>Havstulpanlav</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 42915-2025 artfynd.xlsx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 43202-2024 artfynd.xlsx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 42915-2025 karta.png", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 43202-2024 karta.png", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 42915-2025 FSC-klagomål.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 43202-2024 FSC-klagomål.docx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 42915-2025 FSC-klagomål mail.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 43202-2024 FSC-klagomål mail.docx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 42915-2025 tillsynsbegäran.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 43202-2024 tillsynsbegäran.docx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 42915-2025 tillsynsbegäran mail.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 43202-2024 tillsynsbegäran mail.docx", "A 43202-2024")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 49645-2025</t>
+          <t>A 7575-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45939.61609953704</v>
+        <v>45705</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1986,13 +1986,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2020,45 +2020,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 49645-2025 artfynd.xlsx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 7575-2025 artfynd.xlsx", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 49645-2025 karta.png", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 7575-2025 karta.png", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 49645-2025 FSC-klagomål.docx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 7575-2025 FSC-klagomål.docx", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 49645-2025 FSC-klagomål mail.docx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 7575-2025 FSC-klagomål mail.docx", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 49645-2025 tillsynsbegäran.docx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 7575-2025 tillsynsbegäran.docx", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 49645-2025 tillsynsbegäran mail.docx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 7575-2025 tillsynsbegäran mail.docx", "A 7575-2025")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 39670-2025</t>
+          <t>A 21101-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45890.64280092593</v>
+        <v>45061</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2071,10 +2071,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2095,55 +2095,55 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Flodpärlmussla</t>
+          <t>Åkergroda</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 39670-2025 artfynd.xlsx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 21101-2023 artfynd.xlsx", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 39670-2025 karta.png", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 21101-2023 karta.png", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 39670-2025 FSC-klagomål.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 21101-2023 FSC-klagomål.docx", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 39670-2025 FSC-klagomål mail.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 21101-2023 FSC-klagomål mail.docx", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 39670-2025 tillsynsbegäran.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 21101-2023 tillsynsbegäran.docx", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 39670-2025 tillsynsbegäran mail.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 21101-2023 tillsynsbegäran mail.docx", "A 21101-2023")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 7575-2025</t>
+          <t>A 17992-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45705</v>
+        <v>44301.77314814815</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2156,13 +2156,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2186,49 +2186,21 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Mindre märgborre</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 7575-2025 artfynd.xlsx", "A 7575-2025")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 7575-2025 karta.png", "A 7575-2025")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 7575-2025 FSC-klagomål.docx", "A 7575-2025")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 7575-2025 FSC-klagomål mail.docx", "A 7575-2025")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 7575-2025 tillsynsbegäran.docx", "A 7575-2025")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 7575-2025 tillsynsbegäran mail.docx", "A 7575-2025")</f>
-        <v/>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr"/>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 8001-2021</t>
+          <t>A 25504-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44243</v>
+        <v>44732</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2241,7 +2213,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2278,14 +2250,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 17992-2021</t>
+          <t>A 6111-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44301.77314814815</v>
+        <v>44599</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2298,7 +2270,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.6</v>
+        <v>5.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2335,14 +2307,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 25504-2022</t>
+          <t>A 10460-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44732</v>
+        <v>44623.57480324074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2355,7 +2327,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2392,14 +2364,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 6111-2022</t>
+          <t>A 10351-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44599</v>
+        <v>44257</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2412,7 +2384,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5.9</v>
+        <v>0.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2449,14 +2421,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 10460-2022</t>
+          <t>A 72891-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44623.57480324074</v>
+        <v>44547</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2469,7 +2441,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2506,14 +2478,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 72891-2021</t>
+          <t>A 53200-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44547</v>
+        <v>44468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2526,7 +2498,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>5.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2563,14 +2535,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 10351-2021</t>
+          <t>A 21780-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44257</v>
+        <v>44708</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2583,7 +2555,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2620,14 +2592,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 53200-2021</t>
+          <t>A 21578-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44468</v>
+        <v>44321.65381944444</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2640,7 +2612,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5.3</v>
+        <v>3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2677,14 +2649,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 21780-2022</t>
+          <t>A 14349-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44708</v>
+        <v>44278</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2697,7 +2669,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2734,14 +2706,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 21578-2021</t>
+          <t>A 14349-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44321.65381944444</v>
+        <v>44278</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2754,7 +2726,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2791,14 +2763,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 14349-2021</t>
+          <t>A 58926-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44278</v>
+        <v>44489.80715277778</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2811,7 +2783,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2848,14 +2820,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 14349-2021</t>
+          <t>A 12906-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44278</v>
+        <v>44271.47340277778</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2868,7 +2840,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2905,14 +2877,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 58926-2021</t>
+          <t>A 53204-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44489.80715277778</v>
+        <v>44468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2925,7 +2897,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2962,14 +2934,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 12906-2021</t>
+          <t>A 59767-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44271.47340277778</v>
+        <v>44494</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2982,7 +2954,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3019,14 +2991,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 53204-2021</t>
+          <t>A 25267-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44468</v>
+        <v>44342.44517361111</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3039,7 +3011,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3076,14 +3048,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 59767-2021</t>
+          <t>A 9165-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44494</v>
+        <v>44615.66289351852</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3096,7 +3068,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3133,14 +3105,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 25267-2021</t>
+          <t>A 36741-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44342.44517361111</v>
+        <v>44392</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3153,7 +3125,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3190,14 +3162,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 9165-2022</t>
+          <t>A 32869-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44615.66289351852</v>
+        <v>44784.51399305555</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3210,7 +3182,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3247,14 +3219,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 36741-2021</t>
+          <t>A 25967-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44392</v>
+        <v>44344</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3267,7 +3239,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.7</v>
+        <v>5.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3304,14 +3276,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 32869-2022</t>
+          <t>A 12262-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44784.51399305555</v>
+        <v>44266</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3324,7 +3296,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3361,14 +3333,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 25967-2021</t>
+          <t>A 71648-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44344</v>
+        <v>44543.354375</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3381,7 +3353,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>5.4</v>
+        <v>0.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3418,14 +3390,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 12262-2021</t>
+          <t>A 19782-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44266</v>
+        <v>44694</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3438,7 +3410,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3475,14 +3447,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 71648-2021</t>
+          <t>A 15683-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44543.354375</v>
+        <v>44663</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3495,7 +3467,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3532,14 +3504,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 19782-2022</t>
+          <t>A 27546-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44694</v>
+        <v>44351</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3552,7 +3524,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3589,14 +3561,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 15683-2022</t>
+          <t>A 52045-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44663</v>
+        <v>44873.31652777778</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3609,7 +3581,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3646,14 +3618,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 27546-2021</t>
+          <t>A 63595-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44351</v>
+        <v>44508</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3666,7 +3638,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3703,14 +3675,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 63595-2021</t>
+          <t>A 58481-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44508</v>
+        <v>44902</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3723,7 +3695,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3760,14 +3732,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 52045-2022</t>
+          <t>A 63592-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44873.31652777778</v>
+        <v>44508</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3780,7 +3752,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3817,14 +3789,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 58481-2022</t>
+          <t>A 41725-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44902</v>
+        <v>45560.86376157407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3837,7 +3809,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3874,14 +3846,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 63592-2021</t>
+          <t>A 41457-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44508</v>
+        <v>45175</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3894,7 +3866,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>8.699999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3931,14 +3903,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 41725-2024</t>
+          <t>A 51162-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45560.86376157407</v>
+        <v>45219</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3951,7 +3923,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3988,14 +3960,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 41457-2023</t>
+          <t>A 19977-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45175</v>
+        <v>44697</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4008,7 +3980,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.7</v>
+        <v>4.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4045,14 +4017,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 51162-2023</t>
+          <t>A 11939-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45219</v>
+        <v>45376.67043981481</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4065,7 +4037,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.6</v>
+        <v>7.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4102,14 +4074,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 19977-2022</t>
+          <t>A 61874-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44697</v>
+        <v>45651.93527777777</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4122,7 +4094,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4159,14 +4131,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 11939-2024</t>
+          <t>A 9512-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45376.67043981481</v>
+        <v>44251</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4179,7 +4151,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>7.1</v>
+        <v>2.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4216,14 +4188,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 61874-2024</t>
+          <t>A 37201-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45651.93527777777</v>
+        <v>45155</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4236,7 +4208,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4273,14 +4245,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 37201-2023</t>
+          <t>A 24542-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45155</v>
+        <v>45798.44365740741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4293,7 +4265,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4330,14 +4302,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 9512-2021</t>
+          <t>A 61737-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44251</v>
+        <v>46002.59627314815</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4350,7 +4322,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4387,14 +4359,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 9492-2025</t>
+          <t>A 61741-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45715.49974537037</v>
+        <v>46002.60090277778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4407,7 +4379,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4444,14 +4416,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 9494-2025</t>
+          <t>A 57269-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45715.503125</v>
+        <v>45629.57262731482</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4464,7 +4436,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4501,14 +4473,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 57269-2024</t>
+          <t>A 39676-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45629.57262731482</v>
+        <v>45890.64989583333</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4521,7 +4493,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4558,14 +4530,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 24542-2025</t>
+          <t>A 40285-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45798.44365740741</v>
+        <v>45895.37532407408</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4578,7 +4550,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4615,14 +4587,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 51154-2023</t>
+          <t>A 40299-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45219</v>
+        <v>45895.39837962963</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4635,7 +4607,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4672,14 +4644,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 51157-2023</t>
+          <t>A 40281-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45219</v>
+        <v>45895.36684027778</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4692,7 +4664,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4729,14 +4701,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 26992-2025</t>
+          <t>A 40306-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45811.52253472222</v>
+        <v>45895.40923611111</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4749,7 +4721,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4786,14 +4758,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 27513-2025</t>
+          <t>A 40273-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45813.42880787037</v>
+        <v>45895.34994212963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4805,8 +4777,13 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4843,14 +4820,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 11697-2024</t>
+          <t>A 51154-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45373.60171296296</v>
+        <v>45219</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4863,7 +4840,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4900,14 +4877,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 56558-2024</t>
+          <t>A 51157-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45625.57997685186</v>
+        <v>45219</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4920,7 +4897,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4957,14 +4934,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 39676-2025</t>
+          <t>A 26992-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45890.64989583333</v>
+        <v>45811.52253472222</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4977,7 +4954,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5014,14 +4991,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 40053-2023</t>
+          <t>A 13454-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45168.72297453704</v>
+        <v>45387.51503472222</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5034,7 +5011,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5071,14 +5048,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 9491-2025</t>
+          <t>A 27513-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45715.4965162037</v>
+        <v>45813.42880787037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5091,7 +5068,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5128,14 +5105,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 40285-2025</t>
+          <t>A 11697-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45895.37532407408</v>
+        <v>45373.60171296296</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5148,7 +5125,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5185,14 +5162,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 40299-2025</t>
+          <t>A 42307-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45895.39837962963</v>
+        <v>45904.65253472222</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5205,7 +5182,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5242,14 +5219,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 40281-2025</t>
+          <t>A 56558-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45895.36684027778</v>
+        <v>45625.57997685186</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5262,7 +5239,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5299,14 +5276,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 40306-2025</t>
+          <t>A 14468-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45895.40923611111</v>
+        <v>45012.65208333333</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5319,7 +5296,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5356,14 +5333,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 40273-2025</t>
+          <t>A 9491-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45895.34994212963</v>
+        <v>45715.4965162037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5375,13 +5352,8 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5418,14 +5390,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 13454-2024</t>
+          <t>A 43832-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45387.51503472222</v>
+        <v>45912.63020833334</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5438,7 +5410,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.4</v>
+        <v>6.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5475,14 +5447,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 29697-2023</t>
+          <t>A 40053-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45107</v>
+        <v>45168.72297453704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5495,7 +5467,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>5.8</v>
+        <v>2.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5532,14 +5504,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 1551-2022</t>
+          <t>A 46349-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44573.61799768519</v>
+        <v>45925.48078703704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5552,7 +5524,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5589,14 +5561,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 18003-2025</t>
+          <t>A 48538-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45761.41628472223</v>
+        <v>45936.41079861111</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5609,7 +5581,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5646,14 +5618,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 13108-2023</t>
+          <t>A 35404-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45002</v>
+        <v>45855.35253472222</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5666,7 +5638,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5703,14 +5675,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 69563-2021</t>
+          <t>A 29697-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44532</v>
+        <v>45107</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5723,7 +5695,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.9</v>
+        <v>5.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5760,14 +5732,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 35404-2025</t>
+          <t>A 1551-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45855.35253472222</v>
+        <v>44573.61799768519</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5780,7 +5752,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5817,14 +5789,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 60432-2022</t>
+          <t>A 48440-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44911</v>
+        <v>45935.51550925926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5837,7 +5809,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5874,14 +5846,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 42307-2025</t>
+          <t>A 48432-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45904.65253472222</v>
+        <v>45934.89319444444</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5894,7 +5866,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5931,14 +5903,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 21800-2023</t>
+          <t>A 18003-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45067.85023148148</v>
+        <v>45761.41628472223</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5951,7 +5923,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5988,14 +5960,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 16509-2025</t>
+          <t>A 13108-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45751.61958333333</v>
+        <v>45002</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6008,7 +5980,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6045,14 +6017,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 14468-2023</t>
+          <t>A 69563-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45012.65208333333</v>
+        <v>44532</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6065,7 +6037,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6102,14 +6074,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 16679-2025</t>
+          <t>A 16509-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45754.44922453703</v>
+        <v>45751.61958333333</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6122,7 +6094,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6159,14 +6131,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 25726-2022</t>
+          <t>A 60432-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44733</v>
+        <v>44911</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6179,7 +6151,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6216,14 +6188,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 4433-2025</t>
+          <t>A 50188-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45686.49392361111</v>
+        <v>45943.63313657408</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6236,7 +6208,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6273,14 +6245,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 43832-2025</t>
+          <t>A 39672-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45912.63020833334</v>
+        <v>45890.64541666667</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6293,7 +6265,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>6.4</v>
+        <v>3.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6330,14 +6302,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 13692-2021</t>
+          <t>A 21800-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44274</v>
+        <v>45067.85023148148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6350,7 +6322,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6387,14 +6359,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 16435-2025</t>
+          <t>A 51009-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45751.48401620371</v>
+        <v>45947.37550925926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6407,7 +6379,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6444,14 +6416,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 29696-2023</t>
+          <t>A 7356-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45107</v>
+        <v>45704.50445601852</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6464,7 +6436,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>5.3</v>
+        <v>0.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6501,14 +6473,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 46349-2025</t>
+          <t>A 51501-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45925.48078703704</v>
+        <v>45950.63748842593</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6521,7 +6493,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.2</v>
+        <v>6.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6558,14 +6530,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 47350-2024</t>
+          <t>A 16679-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45587.41349537037</v>
+        <v>45754.44922453703</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6578,7 +6550,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6615,14 +6587,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 48538-2025</t>
+          <t>A 4433-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45936.41079861111</v>
+        <v>45686.49392361111</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6635,7 +6607,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.6</v>
+        <v>4.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6672,14 +6644,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 48440-2025</t>
+          <t>A 25726-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45935.51550925926</v>
+        <v>44733</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6692,7 +6664,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6729,14 +6701,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 48432-2025</t>
+          <t>A 41995-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45934.89319444444</v>
+        <v>45903.55027777778</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6749,7 +6721,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.1</v>
+        <v>6.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6786,14 +6758,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 5987-2024</t>
+          <t>A 9492-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45336</v>
+        <v>45715.49974537037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6806,7 +6778,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6843,14 +6815,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 41318-2022</t>
+          <t>A 9494-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44826</v>
+        <v>45715.503125</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6863,7 +6835,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>11.5</v>
+        <v>0.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6900,14 +6872,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 50188-2025</t>
+          <t>A 55274-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45943.63313657408</v>
+        <v>45968.70364583333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6920,7 +6892,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6957,14 +6929,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 34938-2022</t>
+          <t>A 55273-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44796</v>
+        <v>45968.69956018519</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6977,7 +6949,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7014,14 +6986,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 9693-2021</t>
+          <t>A 13692-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44252</v>
+        <v>44274</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7034,7 +7006,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7071,14 +7043,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 39672-2025</t>
+          <t>A 16435-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45890.64541666667</v>
+        <v>45751.48401620371</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7091,7 +7063,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7128,14 +7100,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 39761-2023</t>
+          <t>A 29696-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45167.71447916667</v>
+        <v>45107</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7148,7 +7120,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.4</v>
+        <v>5.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7185,14 +7157,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 51009-2025</t>
+          <t>A 47350-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45947.37550925926</v>
+        <v>45587.41349537037</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7205,7 +7177,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7242,14 +7214,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 51501-2025</t>
+          <t>A 5987-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45950.63748842593</v>
+        <v>45336</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7262,7 +7234,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>6.1</v>
+        <v>0.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7299,14 +7271,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 41995-2025</t>
+          <t>A 41318-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45903.55027777778</v>
+        <v>44826</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7319,7 +7291,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>6.5</v>
+        <v>11.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7356,14 +7328,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 39762-2023</t>
+          <t>A 60323-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45167.71539351852</v>
+        <v>45994.72667824074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7376,7 +7348,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.5</v>
+        <v>3.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7413,14 +7385,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 52043-2024</t>
+          <t>A 34938-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45608.32934027778</v>
+        <v>44796</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7433,7 +7405,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.4</v>
+        <v>2.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7470,14 +7442,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 18001-2025</t>
+          <t>A 9693-2021</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45761.41210648148</v>
+        <v>44252</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7490,7 +7462,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7527,14 +7499,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 47334-2024</t>
+          <t>A 60334-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45587.39581018518</v>
+        <v>45994.76167824074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7547,7 +7519,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7584,14 +7556,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 14183-2024</t>
+          <t>A 39761-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45393.34479166667</v>
+        <v>45167.71447916667</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7604,7 +7576,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7641,14 +7613,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 55274-2025</t>
+          <t>A 39762-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45968.70364583333</v>
+        <v>45167.71539351852</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7661,7 +7633,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7698,14 +7670,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 55273-2025</t>
+          <t>A 52043-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45968.69956018519</v>
+        <v>45608.32934027778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7718,7 +7690,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.8</v>
+        <v>4.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7755,14 +7727,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 2946-2024</t>
+          <t>A 18001-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45315</v>
+        <v>45761.41210648148</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7775,7 +7747,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7812,14 +7784,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 4315-2024</t>
+          <t>A 47334-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45324</v>
+        <v>45587.39581018518</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7832,7 +7804,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7869,14 +7841,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 5985-2024</t>
+          <t>A 14183-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45336.56657407407</v>
+        <v>45393.34479166667</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7889,7 +7861,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7926,14 +7898,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 15480-2025</t>
+          <t>A 2946-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45747.55828703703</v>
+        <v>45315</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7946,7 +7918,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>5.6</v>
+        <v>1.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7983,14 +7955,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 23492-2022</t>
+          <t>A 4315-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44721.36030092592</v>
+        <v>45324</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8003,7 +7975,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>4.4</v>
+        <v>0.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8040,14 +8012,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 64560-2023</t>
+          <t>A 5985-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45281.4116087963</v>
+        <v>45336.56657407407</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8060,7 +8032,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>7.1</v>
+        <v>0.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8097,14 +8069,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 3753-2024</t>
+          <t>A 15480-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45321.54748842592</v>
+        <v>45747.55828703703</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8117,7 +8089,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.5</v>
+        <v>5.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8154,14 +8126,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 1807-2024</t>
+          <t>A 23492-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45307.59741898148</v>
+        <v>44721.36030092592</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8174,7 +8146,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8211,14 +8183,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 25439-2022</t>
+          <t>A 64560-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44732.48712962963</v>
+        <v>45281.4116087963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8231,7 +8203,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.9</v>
+        <v>7.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8268,14 +8240,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 5630-2023</t>
+          <t>A 3753-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44960</v>
+        <v>45321.54748842592</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8288,7 +8260,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8325,14 +8297,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 51127-2023</t>
+          <t>A 1807-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45219</v>
+        <v>45307.59741898148</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8345,7 +8317,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8382,14 +8354,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 51130-2023</t>
+          <t>A 25439-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45219</v>
+        <v>44732.48712962963</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8402,7 +8374,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8439,14 +8411,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 60323-2025</t>
+          <t>A 5630-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45994.72667824074</v>
+        <v>44960</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8459,7 +8431,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8496,14 +8468,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 2605-2024</t>
+          <t>A 51127-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45313.7355787037</v>
+        <v>45219</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8516,7 +8488,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8553,14 +8525,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 21398-2023</t>
+          <t>A 51130-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45063</v>
+        <v>45219</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8573,7 +8545,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>6.6</v>
+        <v>2.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8610,14 +8582,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 60334-2025</t>
+          <t>A 2605-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45994.76167824074</v>
+        <v>45313.7355787037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8630,7 +8602,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8667,14 +8639,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 34665-2023</t>
+          <t>A 21398-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45140.81900462963</v>
+        <v>45063</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8687,7 +8659,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.3</v>
+        <v>6.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8724,14 +8696,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 32866-2022</t>
+          <t>A 34665-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44784.50711805555</v>
+        <v>45140.81900462963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8744,7 +8716,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8781,14 +8753,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 65080-2023</t>
+          <t>A 32866-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45287</v>
+        <v>44784.50711805555</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8801,7 +8773,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8838,14 +8810,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 61737-2025</t>
+          <t>A 65080-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>46002.59627314815</v>
+        <v>45287</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8858,7 +8830,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8895,14 +8867,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 61741-2025</t>
+          <t>A 59711-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>46002.60090277778</v>
+        <v>44908.40974537037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8915,7 +8887,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8952,14 +8924,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 59711-2022</t>
+          <t>A 12090-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44908.40974537037</v>
+        <v>45377.56537037037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8972,7 +8944,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9009,14 +8981,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 12090-2024</t>
+          <t>A 47362-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45377.56537037037</v>
+        <v>45587.4371875</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9029,7 +9001,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9066,14 +9038,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 47362-2024</t>
+          <t>A 17616-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45587.4371875</v>
+        <v>45757.82684027778</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9086,7 +9058,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9123,14 +9095,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 7356-2025</t>
+          <t>A 20727-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45704.50445601852</v>
+        <v>45058.48152777777</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9143,7 +9115,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9180,14 +9152,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 17616-2025</t>
+          <t>A 55071-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45757.82684027778</v>
+        <v>45237</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9200,7 +9172,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9237,14 +9209,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 20727-2023</t>
+          <t>A 52164-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45058.48152777777</v>
+        <v>45224</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9257,7 +9229,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>5.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9294,14 +9266,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 55071-2023</t>
+          <t>A 52166-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45237</v>
+        <v>45224.3316550926</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9314,7 +9286,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9351,14 +9323,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 52164-2023</t>
+          <t>A 56832-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45224</v>
+        <v>45244</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9371,7 +9343,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9408,14 +9380,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 52166-2023</t>
+          <t>A 12091-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45224.3316550926</v>
+        <v>45377.56653935185</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9428,7 +9400,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9465,14 +9437,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 56832-2023</t>
+          <t>A 51012-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45244</v>
+        <v>45218.57846064815</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9484,8 +9456,13 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>4.9</v>
+        <v>1.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9522,14 +9499,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 12091-2024</t>
+          <t>A 64291-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45377.56653935185</v>
+        <v>45280</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9542,7 +9519,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9579,14 +9556,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 51012-2023</t>
+          <t>A 13582-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45218.57846064815</v>
+        <v>45736.59074074074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9598,13 +9575,8 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9641,14 +9613,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 64291-2023</t>
+          <t>A 25499-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45280</v>
+        <v>44732.57032407408</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9661,7 +9633,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9698,14 +9670,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 13582-2025</t>
+          <t>A 46798-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45736.59074074074</v>
+        <v>45583</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9718,7 +9690,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.1</v>
+        <v>6.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9755,14 +9727,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 25499-2022</t>
+          <t>A 17860-2021</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44732.57032407408</v>
+        <v>44301.28643518518</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9775,7 +9747,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9812,14 +9784,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 46798-2024</t>
+          <t>A 11249-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45583</v>
+        <v>45371.63502314815</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9832,7 +9804,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9869,14 +9841,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 17860-2021</t>
+          <t>A 21302-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44301.28643518518</v>
+        <v>45780.88960648148</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9889,7 +9861,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9926,14 +9898,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 11249-2024</t>
+          <t>A 21872-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45371.63502314815</v>
+        <v>45784.38836805556</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9946,7 +9918,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>6.5</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9980,17 +9952,17 @@
       </c>
       <c r="R156" s="2" t="inlineStr"/>
     </row>
-    <row r="157" ht="15" customHeight="1">
+    <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 21302-2025</t>
+          <t>A 22271-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45780.88960648148</v>
+        <v>45785.89675925926</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10003,7 +9975,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10036,120 +10008,6 @@
         <v>0</v>
       </c>
       <c r="R157" s="2" t="inlineStr"/>
-    </row>
-    <row r="158" ht="15" customHeight="1">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>A 21872-2025</t>
-        </is>
-      </c>
-      <c r="B158" s="1" t="n">
-        <v>45784.38836805556</v>
-      </c>
-      <c r="C158" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>HÄRRYDA</t>
-        </is>
-      </c>
-      <c r="G158" t="n">
-        <v>1</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="n">
-        <v>0</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0</v>
-      </c>
-      <c r="L158" t="n">
-        <v>0</v>
-      </c>
-      <c r="M158" t="n">
-        <v>0</v>
-      </c>
-      <c r="N158" t="n">
-        <v>0</v>
-      </c>
-      <c r="O158" t="n">
-        <v>0</v>
-      </c>
-      <c r="P158" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q158" t="n">
-        <v>0</v>
-      </c>
-      <c r="R158" s="2" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>A 22271-2025</t>
-        </is>
-      </c>
-      <c r="B159" s="1" t="n">
-        <v>45785.89675925926</v>
-      </c>
-      <c r="C159" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>HÄRRYDA</t>
-        </is>
-      </c>
-      <c r="G159" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="n">
-        <v>0</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0</v>
-      </c>
-      <c r="L159" t="n">
-        <v>0</v>
-      </c>
-      <c r="M159" t="n">
-        <v>0</v>
-      </c>
-      <c r="N159" t="n">
-        <v>0</v>
-      </c>
-      <c r="O159" t="n">
-        <v>0</v>
-      </c>
-      <c r="P159" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q159" t="n">
-        <v>0</v>
-      </c>
-      <c r="R159" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HÄRRYDA.xlsx
+++ b/Översikt HÄRRYDA.xlsx
@@ -575,7 +575,7 @@
         <v>45608.35664351852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45030</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45239</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>45811.5165625</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>45924.45489583333</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>46058.59695601852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44508</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,14 +1282,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 27482-2025</t>
+          <t>A 7575-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45813.38332175926</v>
+        <v>45705</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1302,16 +1302,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>14.1</v>
+        <v>3.9</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1336,45 +1336,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 27482-2025 artfynd.xlsx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 7575-2025 artfynd.xlsx", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 27482-2025 karta.png", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 7575-2025 karta.png", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 27482-2025 FSC-klagomål.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 7575-2025 FSC-klagomål.docx", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 27482-2025 FSC-klagomål mail.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 7575-2025 FSC-klagomål mail.docx", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 27482-2025 tillsynsbegäran.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 7575-2025 tillsynsbegäran.docx", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 27482-2025 tillsynsbegäran mail.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 7575-2025 tillsynsbegäran mail.docx", "A 7575-2025")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 55686-2023</t>
+          <t>A 27482-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45239.34966435185</v>
+        <v>45813.38332175926</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1387,17 +1387,17 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>6.6</v>
+        <v>14.1</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1421,49 +1421,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 55686-2023 artfynd.xlsx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 27482-2025 artfynd.xlsx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 55686-2023 karta.png", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 27482-2025 karta.png", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 55686-2023 FSC-klagomål.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 27482-2025 FSC-klagomål.docx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 55686-2023 FSC-klagomål mail.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 27482-2025 FSC-klagomål mail.docx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 55686-2023 tillsynsbegäran.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 27482-2025 tillsynsbegäran.docx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 55686-2023 tillsynsbegäran mail.docx", "A 55686-2023")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 55686-2023 prioriterade fågelarter.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 27482-2025 tillsynsbegäran mail.docx", "A 27482-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 14259-2025</t>
+          <t>A 55686-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45740.62429398148</v>
+        <v>45239.34966435185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1476,10 +1472,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.9</v>
+        <v>6.6</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1491,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1500,55 +1496,59 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 14259-2025 artfynd.xlsx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 55686-2023 artfynd.xlsx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 14259-2025 karta.png", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 55686-2023 karta.png", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 14259-2025 FSC-klagomål.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 55686-2023 FSC-klagomål.docx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 14259-2025 FSC-klagomål mail.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 55686-2023 FSC-klagomål mail.docx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 14259-2025 tillsynsbegäran.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 55686-2023 tillsynsbegäran.docx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 14259-2025 tillsynsbegäran mail.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 55686-2023 tillsynsbegäran mail.docx", "A 55686-2023")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 55686-2023 prioriterade fågelarter.docx", "A 55686-2023")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 13586-2025</t>
+          <t>A 14259-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45736.59434027778</v>
+        <v>45740.62429398148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1561,23 +1561,23 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
@@ -1585,55 +1585,55 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Smal svampklubba</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 13586-2025 artfynd.xlsx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 14259-2025 artfynd.xlsx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 13586-2025 karta.png", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 14259-2025 karta.png", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 13586-2025 FSC-klagomål.docx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 14259-2025 FSC-klagomål.docx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 13586-2025 FSC-klagomål mail.docx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 14259-2025 FSC-klagomål mail.docx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 13586-2025 tillsynsbegäran.docx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 14259-2025 tillsynsbegäran.docx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 13586-2025 tillsynsbegäran mail.docx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 14259-2025 tillsynsbegäran mail.docx", "A 14259-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 42915-2025</t>
+          <t>A 13586-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45908.76802083333</v>
+        <v>45736.59434027778</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>8.699999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1680,45 +1680,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Klippfrullania</t>
+          <t>Smal svampklubba</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 42915-2025 artfynd.xlsx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 13586-2025 artfynd.xlsx", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 42915-2025 karta.png", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 13586-2025 karta.png", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 42915-2025 FSC-klagomål.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 13586-2025 FSC-klagomål.docx", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 42915-2025 FSC-klagomål mail.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 13586-2025 FSC-klagomål mail.docx", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 42915-2025 tillsynsbegäran.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 13586-2025 tillsynsbegäran.docx", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 42915-2025 tillsynsbegäran mail.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 13586-2025 tillsynsbegäran mail.docx", "A 13586-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 49645-2025</t>
+          <t>A 42915-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45939.61609953704</v>
+        <v>45908.76802083333</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1731,13 +1731,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,45 +1765,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Klippfrullania</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 49645-2025 artfynd.xlsx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 42915-2025 artfynd.xlsx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 49645-2025 karta.png", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 42915-2025 karta.png", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 49645-2025 FSC-klagomål.docx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 42915-2025 FSC-klagomål.docx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 49645-2025 FSC-klagomål mail.docx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 42915-2025 FSC-klagomål mail.docx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 49645-2025 tillsynsbegäran.docx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 42915-2025 tillsynsbegäran.docx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 49645-2025 tillsynsbegäran mail.docx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 42915-2025 tillsynsbegäran mail.docx", "A 42915-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 39670-2025</t>
+          <t>A 49645-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45890.64280092593</v>
+        <v>45939.61609953704</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1840,55 +1840,55 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Flodpärlmussla</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 39670-2025 artfynd.xlsx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 49645-2025 artfynd.xlsx", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 39670-2025 karta.png", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 49645-2025 karta.png", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 39670-2025 FSC-klagomål.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 49645-2025 FSC-klagomål.docx", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 39670-2025 FSC-klagomål mail.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 49645-2025 FSC-klagomål mail.docx", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 39670-2025 tillsynsbegäran.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 49645-2025 tillsynsbegäran.docx", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 39670-2025 tillsynsbegäran mail.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 49645-2025 tillsynsbegäran mail.docx", "A 49645-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 43202-2024</t>
+          <t>A 39670-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45567.69123842593</v>
+        <v>45890.64280092593</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1901,23 +1901,23 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>5.3</v>
+        <v>1.9</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>1</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
@@ -1925,55 +1925,55 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Havstulpanlav</t>
+          <t>Flodpärlmussla</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 43202-2024 artfynd.xlsx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 39670-2025 artfynd.xlsx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 43202-2024 karta.png", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 39670-2025 karta.png", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 43202-2024 FSC-klagomål.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 39670-2025 FSC-klagomål.docx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 43202-2024 FSC-klagomål mail.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 39670-2025 FSC-klagomål mail.docx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 43202-2024 tillsynsbegäran.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 39670-2025 tillsynsbegäran.docx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 43202-2024 tillsynsbegäran mail.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 39670-2025 tillsynsbegäran mail.docx", "A 39670-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 7575-2025</t>
+          <t>A 43202-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45705</v>
+        <v>45567.69123842593</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.9</v>
+        <v>5.3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2020,31 +2020,31 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Havstulpanlav</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 7575-2025 artfynd.xlsx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 43202-2024 artfynd.xlsx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 7575-2025 karta.png", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 43202-2024 karta.png", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 7575-2025 FSC-klagomål.docx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 43202-2024 FSC-klagomål.docx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 7575-2025 FSC-klagomål mail.docx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 43202-2024 FSC-klagomål mail.docx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 7575-2025 tillsynsbegäran.docx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 43202-2024 tillsynsbegäran.docx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 7575-2025 tillsynsbegäran mail.docx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 43202-2024 tillsynsbegäran mail.docx", "A 43202-2024")</f>
         <v/>
       </c>
     </row>
@@ -2058,7 +2058,7 @@
         <v>45061</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44301.77314814815</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44732</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>44599</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>44623.57480324074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>44257</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>44547</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>44468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>44708</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44321.65381944444</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44278</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>44278</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>44489.80715277778</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>44271.47340277778</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>44494</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44342.44517361111</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>44615.66289351852</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44392</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>44784.51399305555</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>44344</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44266</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44543.354375</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44694</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>44663</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>44351</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3561,14 +3561,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 52045-2022</t>
+          <t>A 63595-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44873.31652777778</v>
+        <v>44508</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3618,14 +3618,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 63595-2021</t>
+          <t>A 52045-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44508</v>
+        <v>44873.31652777778</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>44902</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>44508</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>45560.86376157407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>45175</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>45219</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3960,14 +3960,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 19977-2022</t>
+          <t>A 55274-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44697</v>
+        <v>45968.70364583333</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4017,14 +4017,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 11939-2024</t>
+          <t>A 55273-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45376.67043981481</v>
+        <v>45968.69956018519</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>7.1</v>
+        <v>2.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4074,14 +4074,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 61874-2024</t>
+          <t>A 19977-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45651.93527777777</v>
+        <v>44697</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4131,14 +4131,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 9512-2021</t>
+          <t>A 22271-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44251</v>
+        <v>45785.89675925926</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4188,14 +4188,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 37201-2023</t>
+          <t>A 11939-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45155</v>
+        <v>45376.67043981481</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.2</v>
+        <v>7.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4245,14 +4245,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 24542-2025</t>
+          <t>A 61874-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45798.44365740741</v>
+        <v>45651.93527777777</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4302,14 +4302,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 61737-2025</t>
+          <t>A 9512-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>46002.59627314815</v>
+        <v>44251</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4359,14 +4359,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 61741-2025</t>
+          <t>A 39676-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>46002.60090277778</v>
+        <v>45890.64989583333</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4416,14 +4416,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 57269-2024</t>
+          <t>A 40285-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45629.57262731482</v>
+        <v>45895.37532407408</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4473,14 +4473,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 39676-2025</t>
+          <t>A 40299-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45890.64989583333</v>
+        <v>45895.39837962963</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4530,14 +4530,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 40285-2025</t>
+          <t>A 40281-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45895.37532407408</v>
+        <v>45895.36684027778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4587,14 +4587,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 40299-2025</t>
+          <t>A 40306-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45895.39837962963</v>
+        <v>45895.40923611111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4644,14 +4644,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 40281-2025</t>
+          <t>A 40273-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45895.36684027778</v>
+        <v>45895.34994212963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4663,8 +4663,13 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4701,14 +4706,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 40306-2025</t>
+          <t>A 24542-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45895.40923611111</v>
+        <v>45798.44365740741</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4721,7 +4726,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4758,14 +4763,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 40273-2025</t>
+          <t>A 37201-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45895.34994212963</v>
+        <v>45155</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4777,13 +4782,8 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4820,14 +4820,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 51154-2023</t>
+          <t>A 13454-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45219</v>
+        <v>45387.51503472222</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4877,14 +4877,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 51157-2023</t>
+          <t>A 57269-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45219</v>
+        <v>45629.57262731482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4934,14 +4934,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 26992-2025</t>
+          <t>A 42307-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45811.52253472222</v>
+        <v>45904.65253472222</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4991,14 +4991,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 13454-2024</t>
+          <t>A 51154-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45387.51503472222</v>
+        <v>45219</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5048,14 +5048,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 27513-2025</t>
+          <t>A 51157-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45813.42880787037</v>
+        <v>45219</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5105,14 +5105,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 11697-2024</t>
+          <t>A 26992-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45373.60171296296</v>
+        <v>45811.52253472222</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5162,14 +5162,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 42307-2025</t>
+          <t>A 14468-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45904.65253472222</v>
+        <v>45012.65208333333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5219,14 +5219,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 56558-2024</t>
+          <t>A 27513-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45625.57997685186</v>
+        <v>45813.42880787037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5276,14 +5276,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 14468-2023</t>
+          <t>A 11697-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45012.65208333333</v>
+        <v>45373.60171296296</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5333,14 +5333,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 9491-2025</t>
+          <t>A 43832-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45715.4965162037</v>
+        <v>45912.63020833334</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.5</v>
+        <v>6.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5390,14 +5390,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 43832-2025</t>
+          <t>A 56558-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45912.63020833334</v>
+        <v>45625.57997685186</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>6.4</v>
+        <v>2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5447,14 +5447,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 40053-2023</t>
+          <t>A 9491-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45168.72297453704</v>
+        <v>45715.4965162037</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>45925.48078703704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5561,14 +5561,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 48538-2025</t>
+          <t>A 40053-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45936.41079861111</v>
+        <v>45168.72297453704</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5618,14 +5618,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 35404-2025</t>
+          <t>A 48538-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45855.35253472222</v>
+        <v>45936.41079861111</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5675,14 +5675,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 29697-2023</t>
+          <t>A 48440-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45107</v>
+        <v>45935.51550925926</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5.8</v>
+        <v>1.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5732,14 +5732,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 1551-2022</t>
+          <t>A 48432-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44573.61799768519</v>
+        <v>45934.89319444444</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5789,14 +5789,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 48440-2025</t>
+          <t>A 50188-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45935.51550925926</v>
+        <v>45943.63313657408</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5846,14 +5846,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 48432-2025</t>
+          <t>A 29697-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45934.89319444444</v>
+        <v>45107</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.1</v>
+        <v>5.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5903,14 +5903,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 18003-2025</t>
+          <t>A 39672-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45761.41628472223</v>
+        <v>45890.64541666667</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5960,14 +5960,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 13108-2023</t>
+          <t>A 1551-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45002</v>
+        <v>44573.61799768519</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6017,14 +6017,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 69563-2021</t>
+          <t>A 18003-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44532</v>
+        <v>45761.41628472223</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6074,14 +6074,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 16509-2025</t>
+          <t>A 13108-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45751.61958333333</v>
+        <v>45002</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6131,14 +6131,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 60432-2022</t>
+          <t>A 51009-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44911</v>
+        <v>45947.37550925926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6188,14 +6188,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 50188-2025</t>
+          <t>A 69563-2021</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45943.63313657408</v>
+        <v>44532</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6245,14 +6245,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 39672-2025</t>
+          <t>A 35404-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45890.64541666667</v>
+        <v>45855.35253472222</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6302,14 +6302,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 21800-2023</t>
+          <t>A 51501-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45067.85023148148</v>
+        <v>45950.63748842593</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.8</v>
+        <v>6.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6359,14 +6359,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 51009-2025</t>
+          <t>A 60432-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45947.37550925926</v>
+        <v>44911</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6416,14 +6416,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 7356-2025</t>
+          <t>A 41995-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45704.50445601852</v>
+        <v>45903.55027777778</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.9</v>
+        <v>6.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6473,14 +6473,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 51501-2025</t>
+          <t>A 16509-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45950.63748842593</v>
+        <v>45751.61958333333</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>6.1</v>
+        <v>3.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6530,14 +6530,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 16679-2025</t>
+          <t>A 21800-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45754.44922453703</v>
+        <v>45067.85023148148</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6587,14 +6587,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 4433-2025</t>
+          <t>A 16679-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45686.49392361111</v>
+        <v>45754.44922453703</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6651,7 +6651,7 @@
         <v>44733</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6701,14 +6701,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 41995-2025</t>
+          <t>A 4433-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45903.55027777778</v>
+        <v>45686.49392361111</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>6.5</v>
+        <v>4.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6758,14 +6758,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 9492-2025</t>
+          <t>A 60323-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45715.49974537037</v>
+        <v>45994.72667824074</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6815,14 +6815,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 9494-2025</t>
+          <t>A 13692-2021</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45715.503125</v>
+        <v>44274</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6872,14 +6872,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 55274-2025</t>
+          <t>A 60334-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45968.70364583333</v>
+        <v>45994.76167824074</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6929,14 +6929,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 55273-2025</t>
+          <t>A 16435-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45968.69956018519</v>
+        <v>45751.48401620371</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6986,14 +6986,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 13692-2021</t>
+          <t>A 29696-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44274</v>
+        <v>45107</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.5</v>
+        <v>5.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7043,14 +7043,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 16435-2025</t>
+          <t>A 47350-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45751.48401620371</v>
+        <v>45587.41349537037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7100,14 +7100,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 29696-2023</t>
+          <t>A 5987-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45107</v>
+        <v>45336</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>5.3</v>
+        <v>0.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7157,14 +7157,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 47350-2024</t>
+          <t>A 61737-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45587.41349537037</v>
+        <v>46002.59627314815</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7214,14 +7214,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 5987-2024</t>
+          <t>A 61741-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45336</v>
+        <v>46002.60090277778</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7234,7 +7234,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7278,7 +7278,7 @@
         <v>44826</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7328,14 +7328,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 60323-2025</t>
+          <t>A 34938-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45994.72667824074</v>
+        <v>44796</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7385,14 +7385,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 34938-2022</t>
+          <t>A 9693-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44796</v>
+        <v>44252</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7442,14 +7442,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 9693-2021</t>
+          <t>A 39761-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44252</v>
+        <v>45167.71447916667</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7499,14 +7499,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 60334-2025</t>
+          <t>A 7356-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45994.76167824074</v>
+        <v>45704.50445601852</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7556,14 +7556,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 39761-2023</t>
+          <t>A 9492-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45167.71447916667</v>
+        <v>45715.49974537037</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7613,14 +7613,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 39762-2023</t>
+          <t>A 9494-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45167.71539351852</v>
+        <v>45715.503125</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7670,14 +7670,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 52043-2024</t>
+          <t>A 39762-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45608.32934027778</v>
+        <v>45167.71539351852</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4.4</v>
+        <v>0.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7727,14 +7727,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 18001-2025</t>
+          <t>A 52043-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45761.41210648148</v>
+        <v>45608.32934027778</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.7</v>
+        <v>4.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7784,14 +7784,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 47334-2024</t>
+          <t>A 18001-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45587.39581018518</v>
+        <v>45761.41210648148</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7841,14 +7841,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 14183-2024</t>
+          <t>A 47334-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45393.34479166667</v>
+        <v>45587.39581018518</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7898,14 +7898,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 2946-2024</t>
+          <t>A 14183-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45315</v>
+        <v>45393.34479166667</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7955,14 +7955,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 4315-2024</t>
+          <t>A 2946-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45324</v>
+        <v>45315</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8012,14 +8012,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 5985-2024</t>
+          <t>A 4315-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45336.56657407407</v>
+        <v>45324</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8069,14 +8069,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 15480-2025</t>
+          <t>A 5985-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45747.55828703703</v>
+        <v>45336.56657407407</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>5.6</v>
+        <v>0.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8126,14 +8126,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 23492-2022</t>
+          <t>A 15480-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44721.36030092592</v>
+        <v>45747.55828703703</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>4.4</v>
+        <v>5.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8183,14 +8183,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 64560-2023</t>
+          <t>A 23492-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45281.4116087963</v>
+        <v>44721.36030092592</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>7.1</v>
+        <v>4.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8240,14 +8240,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 3753-2024</t>
+          <t>A 64560-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45321.54748842592</v>
+        <v>45281.4116087963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.5</v>
+        <v>7.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8297,14 +8297,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 1807-2024</t>
+          <t>A 3753-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45307.59741898148</v>
+        <v>45321.54748842592</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8354,14 +8354,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 25439-2022</t>
+          <t>A 1807-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44732.48712962963</v>
+        <v>45307.59741898148</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8411,14 +8411,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 5630-2023</t>
+          <t>A 25439-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44960</v>
+        <v>44732.48712962963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8468,14 +8468,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 51127-2023</t>
+          <t>A 5630-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45219</v>
+        <v>44960</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8525,14 +8525,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 51130-2023</t>
+          <t>A 51127-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
         <v>45219</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8582,14 +8582,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 2605-2024</t>
+          <t>A 51130-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45313.7355787037</v>
+        <v>45219</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8639,14 +8639,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 21398-2023</t>
+          <t>A 2605-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45063</v>
+        <v>45313.7355787037</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>6.6</v>
+        <v>1.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8696,14 +8696,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 34665-2023</t>
+          <t>A 21398-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45140.81900462963</v>
+        <v>45063</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.3</v>
+        <v>6.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8753,14 +8753,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 32866-2022</t>
+          <t>A 34665-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44784.50711805555</v>
+        <v>45140.81900462963</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8810,14 +8810,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 65080-2023</t>
+          <t>A 32866-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45287</v>
+        <v>44784.50711805555</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8867,14 +8867,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 59711-2022</t>
+          <t>A 65080-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44908.40974537037</v>
+        <v>45287</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8924,14 +8924,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 12090-2024</t>
+          <t>A 59711-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45377.56537037037</v>
+        <v>44908.40974537037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8981,14 +8981,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 47362-2024</t>
+          <t>A 12090-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45587.4371875</v>
+        <v>45377.56537037037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9038,14 +9038,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 17616-2025</t>
+          <t>A 47362-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45757.82684027778</v>
+        <v>45587.4371875</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9095,14 +9095,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 20727-2023</t>
+          <t>A 17616-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45058.48152777777</v>
+        <v>45757.82684027778</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9152,14 +9152,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 55071-2023</t>
+          <t>A 20727-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45237</v>
+        <v>45058.48152777777</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9209,14 +9209,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 52164-2023</t>
+          <t>A 55071-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45224</v>
+        <v>45237</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>5.4</v>
+        <v>1.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9266,14 +9266,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 52166-2023</t>
+          <t>A 52164-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45224.3316550926</v>
+        <v>45224</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.9</v>
+        <v>5.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9323,14 +9323,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 56832-2023</t>
+          <t>A 52166-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45244</v>
+        <v>45224.3316550926</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>4.9</v>
+        <v>0.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9380,14 +9380,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 12091-2024</t>
+          <t>A 56832-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45377.56653935185</v>
+        <v>45244</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.5</v>
+        <v>4.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9437,14 +9437,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 51012-2023</t>
+          <t>A 12091-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45218.57846064815</v>
+        <v>45377.56653935185</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9456,13 +9456,8 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9499,14 +9494,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 64291-2023</t>
+          <t>A 51012-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45280</v>
+        <v>45218.57846064815</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9518,8 +9513,13 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9556,14 +9556,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 13582-2025</t>
+          <t>A 64291-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45736.59074074074</v>
+        <v>45280</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9576,7 +9576,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9613,14 +9613,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 25499-2022</t>
+          <t>A 13582-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44732.57032407408</v>
+        <v>45736.59074074074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9670,14 +9670,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 46798-2024</t>
+          <t>A 25499-2022</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45583</v>
+        <v>44732.57032407408</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9690,7 +9690,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>6.3</v>
+        <v>2.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9727,14 +9727,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 17860-2021</t>
+          <t>A 46798-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44301.28643518518</v>
+        <v>45583</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9747,7 +9747,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.3</v>
+        <v>6.3</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9784,14 +9784,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 11249-2024</t>
+          <t>A 17860-2021</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45371.63502314815</v>
+        <v>44301.28643518518</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>6.5</v>
+        <v>1.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9841,14 +9841,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 21302-2025</t>
+          <t>A 11249-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45780.88960648148</v>
+        <v>45371.63502314815</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.9</v>
+        <v>6.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9898,14 +9898,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 21872-2025</t>
+          <t>A 21302-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45784.38836805556</v>
+        <v>45780.88960648148</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9955,14 +9955,14 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 22271-2025</t>
+          <t>A 21872-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45785.89675925926</v>
+        <v>45784.38836805556</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>

--- a/Översikt HÄRRYDA.xlsx
+++ b/Översikt HÄRRYDA.xlsx
@@ -575,7 +575,7 @@
         <v>45608.35664351852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45030</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45239</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,14 +930,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 26989-2025</t>
+          <t>A 46044-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45811.5165625</v>
+        <v>45924.45489583333</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -984,122 +984,122 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Fjällig taggsvamp s.str.
+Mandelriska</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 46044-2025 artfynd.xlsx", "A 46044-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 46044-2025 karta.png", "A 46044-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 46044-2025 FSC-klagomål.docx", "A 46044-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 46044-2025 FSC-klagomål mail.docx", "A 46044-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 46044-2025 tillsynsbegäran.docx", "A 46044-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 46044-2025 tillsynsbegäran mail.docx", "A 46044-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 26989-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45811.5165625</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HÄRRYDA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Kungsfågel
 Skogsduva</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 26989-2025 artfynd.xlsx", "A 26989-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 26989-2025 karta.png", "A 26989-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 26989-2025 FSC-klagomål.docx", "A 26989-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 26989-2025 FSC-klagomål mail.docx", "A 26989-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 26989-2025 tillsynsbegäran.docx", "A 26989-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 26989-2025 tillsynsbegäran mail.docx", "A 26989-2025")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 26989-2025 prioriterade fågelarter.docx", "A 26989-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 46044-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45924.45489583333</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HÄRRYDA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Fjällig taggsvamp s.str.
-Mandelriska</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 46044-2025 artfynd.xlsx", "A 46044-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 46044-2025 karta.png", "A 46044-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 46044-2025 FSC-klagomål.docx", "A 46044-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 46044-2025 FSC-klagomål mail.docx", "A 46044-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 46044-2025 tillsynsbegäran.docx", "A 46044-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 46044-2025 tillsynsbegäran mail.docx", "A 46044-2025")</f>
         <v/>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
         <v>46058.59695601852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44508</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,14 +1282,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 7575-2025</t>
+          <t>A 42915-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45705</v>
+        <v>45908.76802083333</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,45 +1336,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Klippfrullania</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 7575-2025 artfynd.xlsx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 42915-2025 artfynd.xlsx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 7575-2025 karta.png", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 42915-2025 karta.png", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 7575-2025 FSC-klagomål.docx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 42915-2025 FSC-klagomål.docx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 7575-2025 FSC-klagomål mail.docx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 42915-2025 FSC-klagomål mail.docx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 7575-2025 tillsynsbegäran.docx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 42915-2025 tillsynsbegäran.docx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 7575-2025 tillsynsbegäran mail.docx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 42915-2025 tillsynsbegäran mail.docx", "A 42915-2025")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 27482-2025</t>
+          <t>A 49645-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45813.38332175926</v>
+        <v>45939.61609953704</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1387,16 +1387,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>14.1</v>
+        <v>2.3</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1421,45 +1421,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 27482-2025 artfynd.xlsx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 49645-2025 artfynd.xlsx", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 27482-2025 karta.png", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 49645-2025 karta.png", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 27482-2025 FSC-klagomål.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 49645-2025 FSC-klagomål.docx", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 27482-2025 FSC-klagomål mail.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 49645-2025 FSC-klagomål mail.docx", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 27482-2025 tillsynsbegäran.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 49645-2025 tillsynsbegäran.docx", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 27482-2025 tillsynsbegäran mail.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 49645-2025 tillsynsbegäran mail.docx", "A 49645-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 55686-2023</t>
+          <t>A 39670-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45239.34966435185</v>
+        <v>45890.64280092593</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1472,23 +1472,23 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>6.6</v>
+        <v>1.9</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
@@ -1496,59 +1496,55 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Flodpärlmussla</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 55686-2023 artfynd.xlsx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 39670-2025 artfynd.xlsx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 55686-2023 karta.png", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 39670-2025 karta.png", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 55686-2023 FSC-klagomål.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 39670-2025 FSC-klagomål.docx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 55686-2023 FSC-klagomål mail.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 39670-2025 FSC-klagomål mail.docx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 55686-2023 tillsynsbegäran.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 39670-2025 tillsynsbegäran.docx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 55686-2023 tillsynsbegäran mail.docx", "A 55686-2023")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 55686-2023 prioriterade fågelarter.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 39670-2025 tillsynsbegäran mail.docx", "A 39670-2025")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 14259-2025</t>
+          <t>A 55686-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45740.62429398148</v>
+        <v>45239.34966435185</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1561,10 +1557,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.9</v>
+        <v>6.6</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1585,55 +1581,59 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 14259-2025 artfynd.xlsx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 55686-2023 artfynd.xlsx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 14259-2025 karta.png", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 55686-2023 karta.png", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 14259-2025 FSC-klagomål.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 55686-2023 FSC-klagomål.docx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 14259-2025 FSC-klagomål mail.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 55686-2023 FSC-klagomål mail.docx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 14259-2025 tillsynsbegäran.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 55686-2023 tillsynsbegäran.docx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 14259-2025 tillsynsbegäran mail.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 55686-2023 tillsynsbegäran mail.docx", "A 55686-2023")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 55686-2023 prioriterade fågelarter.docx", "A 55686-2023")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 13586-2025</t>
+          <t>A 27482-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45736.59434027778</v>
+        <v>45813.38332175926</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1646,17 +1646,17 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.4</v>
+        <v>14.1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1680,45 +1680,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Smal svampklubba</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 13586-2025 artfynd.xlsx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 27482-2025 artfynd.xlsx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 13586-2025 karta.png", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 27482-2025 karta.png", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 13586-2025 FSC-klagomål.docx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 27482-2025 FSC-klagomål.docx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 13586-2025 FSC-klagomål mail.docx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 27482-2025 FSC-klagomål mail.docx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 13586-2025 tillsynsbegäran.docx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 27482-2025 tillsynsbegäran.docx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 13586-2025 tillsynsbegäran mail.docx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 27482-2025 tillsynsbegäran mail.docx", "A 27482-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 42915-2025</t>
+          <t>A 14259-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45908.76802083333</v>
+        <v>45740.62429398148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1731,23 +1731,23 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>8.699999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>1</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
@@ -1755,55 +1755,55 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Klippfrullania</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 42915-2025 artfynd.xlsx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 14259-2025 artfynd.xlsx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 42915-2025 karta.png", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 14259-2025 karta.png", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 42915-2025 FSC-klagomål.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 14259-2025 FSC-klagomål.docx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 42915-2025 FSC-klagomål mail.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 14259-2025 FSC-klagomål mail.docx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 42915-2025 tillsynsbegäran.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 14259-2025 tillsynsbegäran.docx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 42915-2025 tillsynsbegäran mail.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 14259-2025 tillsynsbegäran mail.docx", "A 14259-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 49645-2025</t>
+          <t>A 13586-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45939.61609953704</v>
+        <v>45736.59434027778</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1850,45 +1850,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Smal svampklubba</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 49645-2025 artfynd.xlsx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 13586-2025 artfynd.xlsx", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 49645-2025 karta.png", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 13586-2025 karta.png", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 49645-2025 FSC-klagomål.docx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 13586-2025 FSC-klagomål.docx", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 49645-2025 FSC-klagomål mail.docx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 13586-2025 FSC-klagomål mail.docx", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 49645-2025 tillsynsbegäran.docx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 13586-2025 tillsynsbegäran.docx", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 49645-2025 tillsynsbegäran mail.docx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 13586-2025 tillsynsbegäran mail.docx", "A 13586-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 39670-2025</t>
+          <t>A 7575-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45890.64280092593</v>
+        <v>45705</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1901,13 +1901,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1925,41 +1925,41 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Flodpärlmussla</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 39670-2025 artfynd.xlsx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 7575-2025 artfynd.xlsx", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 39670-2025 karta.png", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 7575-2025 karta.png", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 39670-2025 FSC-klagomål.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 7575-2025 FSC-klagomål.docx", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 39670-2025 FSC-klagomål mail.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 7575-2025 FSC-klagomål mail.docx", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 39670-2025 tillsynsbegäran.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 7575-2025 tillsynsbegäran.docx", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 39670-2025 tillsynsbegäran mail.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 7575-2025 tillsynsbegäran mail.docx", "A 7575-2025")</f>
         <v/>
       </c>
     </row>
@@ -1973,7 +1973,7 @@
         <v>45567.69123842593</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45061</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44301.77314814815</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44732</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>44599</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>44623.57480324074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>44257</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>44547</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>44468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>44708</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44321.65381944444</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44278</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>44278</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>44489.80715277778</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>44271.47340277778</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>44494</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44342.44517361111</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>44615.66289351852</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44392</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>44784.51399305555</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>44344</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44266</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44543.354375</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44694</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>44663</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>44351</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>44508</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3618,14 +3618,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 52045-2022</t>
+          <t>A 64560-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44873.31652777778</v>
+        <v>45281.4116087963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>7.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3675,14 +3675,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 58481-2022</t>
+          <t>A 51162-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44902</v>
+        <v>45219</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3732,14 +3732,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 63592-2021</t>
+          <t>A 12091-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44508</v>
+        <v>45377.56653935185</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>8.699999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3789,14 +3789,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 41725-2024</t>
+          <t>A 11939-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45560.86376157407</v>
+        <v>45376.67043981481</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.7</v>
+        <v>7.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3846,14 +3846,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 41457-2023</t>
+          <t>A 4433-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45175</v>
+        <v>45686.49392361111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.7</v>
+        <v>4.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3903,14 +3903,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 51162-2023</t>
+          <t>A 14183-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45219</v>
+        <v>45393.34479166667</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3960,14 +3960,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 55274-2025</t>
+          <t>A 48440-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45968.70364583333</v>
+        <v>45935.51550925926</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4017,14 +4017,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 55273-2025</t>
+          <t>A 48538-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45968.69956018519</v>
+        <v>45936.41079861111</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4074,14 +4074,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 19977-2022</t>
+          <t>A 51127-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44697</v>
+        <v>45219</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.7</v>
+        <v>1.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4131,14 +4131,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 22271-2025</t>
+          <t>A 51130-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45785.89675925926</v>
+        <v>45219</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4188,14 +4188,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 11939-2024</t>
+          <t>A 48432-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45376.67043981481</v>
+        <v>45934.89319444444</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>7.1</v>
+        <v>1.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4245,14 +4245,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 61874-2024</t>
+          <t>A 11249-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45651.93527777777</v>
+        <v>45371.63502314815</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4302,14 +4302,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 9512-2021</t>
+          <t>A 21302-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44251</v>
+        <v>45780.88960648148</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4359,14 +4359,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 39676-2025</t>
+          <t>A 21872-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45890.64989583333</v>
+        <v>45784.38836805556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4416,14 +4416,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 40285-2025</t>
+          <t>A 39676-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45895.37532407408</v>
+        <v>45890.64989583333</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4473,14 +4473,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 40299-2025</t>
+          <t>A 22271-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45895.39837962963</v>
+        <v>45785.89675925926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4537,7 +4537,7 @@
         <v>45895.36684027778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4587,14 +4587,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 40306-2025</t>
+          <t>A 40273-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45895.40923611111</v>
+        <v>45895.34994212963</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4606,8 +4606,13 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4644,14 +4649,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 40273-2025</t>
+          <t>A 2605-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45895.34994212963</v>
+        <v>45313.7355787037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4663,13 +4668,8 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4706,14 +4706,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 24542-2025</t>
+          <t>A 40299-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45798.44365740741</v>
+        <v>45895.39837962963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4763,14 +4763,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 37201-2023</t>
+          <t>A 40285-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45155</v>
+        <v>45895.37532407408</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4820,14 +4820,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 13454-2024</t>
+          <t>A 40306-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45387.51503472222</v>
+        <v>45895.40923611111</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4877,14 +4877,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 57269-2024</t>
+          <t>A 13454-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45629.57262731482</v>
+        <v>45387.51503472222</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4934,14 +4934,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 42307-2025</t>
+          <t>A 9512-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45904.65253472222</v>
+        <v>44251</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4991,14 +4991,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 51154-2023</t>
+          <t>A 50188-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45219</v>
+        <v>45943.63313657408</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5048,14 +5048,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 51157-2023</t>
+          <t>A 39672-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45219</v>
+        <v>45890.64541666667</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5105,14 +5105,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 26992-2025</t>
+          <t>A 42307-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45811.52253472222</v>
+        <v>45904.65253472222</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5162,14 +5162,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 14468-2023</t>
+          <t>A 52045-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45012.65208333333</v>
+        <v>44873.31652777778</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5219,14 +5219,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 27513-2025</t>
+          <t>A 14468-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45813.42880787037</v>
+        <v>45012.65208333333</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5276,14 +5276,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 11697-2024</t>
+          <t>A 51501-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45373.60171296296</v>
+        <v>45950.63748842593</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>6.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5333,14 +5333,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 43832-2025</t>
+          <t>A 51009-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45912.63020833334</v>
+        <v>45947.37550925926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>6.4</v>
+        <v>2.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5390,14 +5390,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 56558-2024</t>
+          <t>A 24542-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45625.57997685186</v>
+        <v>45798.44365740741</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5447,14 +5447,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 9491-2025</t>
+          <t>A 41995-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45715.4965162037</v>
+        <v>45903.55027777778</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5504,14 +5504,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 46349-2025</t>
+          <t>A 43832-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45925.48078703704</v>
+        <v>45912.63020833334</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.2</v>
+        <v>6.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5561,14 +5561,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 40053-2023</t>
+          <t>A 55273-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45168.72297453704</v>
+        <v>45968.69956018519</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5618,14 +5618,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 48538-2025</t>
+          <t>A 55274-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45936.41079861111</v>
+        <v>45968.70364583333</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5675,14 +5675,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 48440-2025</t>
+          <t>A 26992-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45935.51550925926</v>
+        <v>45811.52253472222</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5732,14 +5732,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 48432-2025</t>
+          <t>A 46349-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45934.89319444444</v>
+        <v>45925.48078703704</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5789,14 +5789,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 50188-2025</t>
+          <t>A 27513-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45943.63313657408</v>
+        <v>45813.42880787037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5846,14 +5846,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 29697-2023</t>
+          <t>A 11697-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45107</v>
+        <v>45373.60171296296</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>5.8</v>
+        <v>2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5903,14 +5903,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 39672-2025</t>
+          <t>A 56558-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45890.64541666667</v>
+        <v>45625.57997685186</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5960,14 +5960,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 1551-2022</t>
+          <t>A 37201-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44573.61799768519</v>
+        <v>45155</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6017,14 +6017,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 18003-2025</t>
+          <t>A 9491-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45761.41628472223</v>
+        <v>45715.4965162037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6074,14 +6074,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 13108-2023</t>
+          <t>A 47362-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45002</v>
+        <v>45587.4371875</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6131,14 +6131,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 51009-2025</t>
+          <t>A 51157-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45947.37550925926</v>
+        <v>45219</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6188,14 +6188,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 69563-2021</t>
+          <t>A 40053-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44532</v>
+        <v>45168.72297453704</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6245,14 +6245,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 35404-2025</t>
+          <t>A 5630-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45855.35253472222</v>
+        <v>44960</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6302,14 +6302,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 51501-2025</t>
+          <t>A 35404-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45950.63748842593</v>
+        <v>45855.35253472222</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>6.1</v>
+        <v>2.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6359,14 +6359,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 60432-2022</t>
+          <t>A 25439-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44911</v>
+        <v>44732.48712962963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6416,14 +6416,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 41995-2025</t>
+          <t>A 16509-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45903.55027777778</v>
+        <v>45751.61958333333</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6473,14 +6473,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 16509-2025</t>
+          <t>A 60323-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45751.61958333333</v>
+        <v>45994.72667824074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6530,14 +6530,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 21800-2023</t>
+          <t>A 25726-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45067.85023148148</v>
+        <v>44733</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6587,14 +6587,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 16679-2025</t>
+          <t>A 60334-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45754.44922453703</v>
+        <v>45994.76167824074</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6644,14 +6644,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 25726-2022</t>
+          <t>A 16679-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44733</v>
+        <v>45754.44922453703</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6701,14 +6701,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 4433-2025</t>
+          <t>A 17860-2021</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45686.49392361111</v>
+        <v>44301.28643518518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.3</v>
+        <v>1.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6758,14 +6758,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 60323-2025</t>
+          <t>A 47334-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45994.72667824074</v>
+        <v>45587.39581018518</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.9</v>
+        <v>0.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>44274</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6872,14 +6872,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 60334-2025</t>
+          <t>A 41318-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45994.76167824074</v>
+        <v>44826</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3</v>
+        <v>11.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6929,14 +6929,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 16435-2025</t>
+          <t>A 61737-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45751.48401620371</v>
+        <v>46002.59627314815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6986,14 +6986,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 29696-2023</t>
+          <t>A 61741-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45107</v>
+        <v>46002.60090277778</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>5.3</v>
+        <v>1.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7043,14 +7043,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 47350-2024</t>
+          <t>A 20727-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45587.41349537037</v>
+        <v>45058.48152777777</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7063,7 +7063,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7100,14 +7100,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 5987-2024</t>
+          <t>A 7356-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45336</v>
+        <v>45704.50445601852</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7157,14 +7157,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 61737-2025</t>
+          <t>A 9492-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>46002.59627314815</v>
+        <v>45715.49974537037</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7214,14 +7214,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 61741-2025</t>
+          <t>A 17616-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>46002.60090277778</v>
+        <v>45757.82684027778</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7234,7 +7234,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7271,14 +7271,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 41318-2022</t>
+          <t>A 9494-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44826</v>
+        <v>45715.503125</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>11.5</v>
+        <v>0.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7328,14 +7328,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 34938-2022</t>
+          <t>A 21800-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44796</v>
+        <v>45067.85023148148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7385,14 +7385,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 9693-2021</t>
+          <t>A 34665-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44252</v>
+        <v>45140.81900462963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7442,14 +7442,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 39761-2023</t>
+          <t>A 69563-2021</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45167.71447916667</v>
+        <v>44532</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7499,14 +7499,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 7356-2025</t>
+          <t>A 18001-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45704.50445601852</v>
+        <v>45761.41210648148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7556,14 +7556,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 9492-2025</t>
+          <t>A 41457-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45715.49974537037</v>
+        <v>45175</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7613,14 +7613,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 9494-2025</t>
+          <t>A 63592-2021</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45715.503125</v>
+        <v>44508</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7670,14 +7670,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 39762-2023</t>
+          <t>A 2946-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45167.71539351852</v>
+        <v>45315</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7727,14 +7727,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 52043-2024</t>
+          <t>A 15480-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45608.32934027778</v>
+        <v>45747.55828703703</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4.4</v>
+        <v>5.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7784,14 +7784,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 18001-2025</t>
+          <t>A 12090-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45761.41210648148</v>
+        <v>45377.56537037037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7841,14 +7841,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 47334-2024</t>
+          <t>A 52043-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45587.39581018518</v>
+        <v>45608.32934027778</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.3</v>
+        <v>4.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7898,14 +7898,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 14183-2024</t>
+          <t>A 57269-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45393.34479166667</v>
+        <v>45629.57262731482</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7955,14 +7955,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 2946-2024</t>
+          <t>A 29697-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45315</v>
+        <v>45107</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.6</v>
+        <v>5.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8012,14 +8012,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 4315-2024</t>
+          <t>A 23492-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45324</v>
+        <v>44721.36030092592</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8069,14 +8069,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 5985-2024</t>
+          <t>A 39761-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45336.56657407407</v>
+        <v>45167.71447916667</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8126,14 +8126,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 15480-2025</t>
+          <t>A 19977-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45747.55828703703</v>
+        <v>44697</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>5.6</v>
+        <v>4.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8183,14 +8183,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 23492-2022</t>
+          <t>A 46798-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44721.36030092592</v>
+        <v>45583</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4.4</v>
+        <v>6.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8240,14 +8240,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 64560-2023</t>
+          <t>A 18003-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45281.4116087963</v>
+        <v>45761.41628472223</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>7.1</v>
+        <v>3.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8297,14 +8297,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 3753-2024</t>
+          <t>A 65080-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45321.54748842592</v>
+        <v>45287</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8354,14 +8354,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 1807-2024</t>
+          <t>A 3753-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45307.59741898148</v>
+        <v>45321.54748842592</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8411,14 +8411,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 25439-2022</t>
+          <t>A 1807-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44732.48712962963</v>
+        <v>45307.59741898148</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8468,14 +8468,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 5630-2023</t>
+          <t>A 16435-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44960</v>
+        <v>45751.48401620371</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8525,14 +8525,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 51127-2023</t>
+          <t>A 59711-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45219</v>
+        <v>44908.40974537037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8582,14 +8582,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 51130-2023</t>
+          <t>A 13582-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45219</v>
+        <v>45736.59074074074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8639,14 +8639,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 2605-2024</t>
+          <t>A 39762-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45313.7355787037</v>
+        <v>45167.71539351852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8696,14 +8696,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 21398-2023</t>
+          <t>A 61874-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45063</v>
+        <v>45651.93527777777</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>6.6</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8753,14 +8753,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 34665-2023</t>
+          <t>A 21398-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45140.81900462963</v>
+        <v>45063</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.3</v>
+        <v>6.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8810,14 +8810,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 32866-2022</t>
+          <t>A 25499-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44784.50711805555</v>
+        <v>44732.57032407408</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8867,14 +8867,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 65080-2023</t>
+          <t>A 9693-2021</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45287</v>
+        <v>44252</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8924,14 +8924,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 59711-2022</t>
+          <t>A 32866-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44908.40974537037</v>
+        <v>44784.50711805555</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8981,14 +8981,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 12090-2024</t>
+          <t>A 41725-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45377.56537037037</v>
+        <v>45560.86376157407</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9038,14 +9038,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 47362-2024</t>
+          <t>A 5985-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45587.4371875</v>
+        <v>45336.56657407407</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3.5</v>
+        <v>0.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9095,14 +9095,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 17616-2025</t>
+          <t>A 64291-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45757.82684027778</v>
+        <v>45280</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9152,14 +9152,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 20727-2023</t>
+          <t>A 47350-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45058.48152777777</v>
+        <v>45587.41349537037</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9209,14 +9209,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 55071-2023</t>
+          <t>A 4315-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45237</v>
+        <v>45324</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9266,14 +9266,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 52164-2023</t>
+          <t>A 1551-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45224</v>
+        <v>44573.61799768519</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>5.4</v>
+        <v>4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9323,14 +9323,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 52166-2023</t>
+          <t>A 51012-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45224.3316550926</v>
+        <v>45218.57846064815</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9342,8 +9342,13 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9387,7 +9392,7 @@
         <v>45244</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9437,14 +9442,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 12091-2024</t>
+          <t>A 60432-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45377.56653935185</v>
+        <v>44911</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9457,7 +9462,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9494,14 +9499,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 51012-2023</t>
+          <t>A 13108-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45218.57846064815</v>
+        <v>45002</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9513,13 +9518,8 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9556,14 +9556,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 64291-2023</t>
+          <t>A 29696-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45280</v>
+        <v>45107</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9576,7 +9576,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.4</v>
+        <v>5.3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9613,14 +9613,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 13582-2025</t>
+          <t>A 58481-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45736.59074074074</v>
+        <v>44902</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9670,14 +9670,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 25499-2022</t>
+          <t>A 34938-2022</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44732.57032407408</v>
+        <v>44796</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9690,7 +9690,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9727,14 +9727,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 46798-2024</t>
+          <t>A 5987-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45583</v>
+        <v>45336</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9747,7 +9747,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>6.3</v>
+        <v>0.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9784,14 +9784,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 17860-2021</t>
+          <t>A 55071-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44301.28643518518</v>
+        <v>45237</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9841,14 +9841,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 11249-2024</t>
+          <t>A 51154-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45371.63502314815</v>
+        <v>45219</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>6.5</v>
+        <v>1.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9898,14 +9898,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 21302-2025</t>
+          <t>A 52164-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45780.88960648148</v>
+        <v>45224</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.9</v>
+        <v>5.4</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9955,14 +9955,14 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 21872-2025</t>
+          <t>A 52166-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45784.38836805556</v>
+        <v>45224.3316550926</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>

--- a/Översikt HÄRRYDA.xlsx
+++ b/Översikt HÄRRYDA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z157"/>
+  <dimension ref="A1:Z158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45608.35664351852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45030</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45239</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>45924.45489583333</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,14 +1016,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 26989-2025</t>
+          <t>A 7253-2026</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45811.5165625</v>
+        <v>46058.59695601852</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1035,17 +1035,22 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G7" t="n">
-        <v>4.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1060,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1070,127 +1075,122 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Svart taggsvamp
+Blåmossa</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 7253-2026 artfynd.xlsx", "A 7253-2026")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 7253-2026 karta.png", "A 7253-2026")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 7253-2026 FSC-klagomål.docx", "A 7253-2026")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 7253-2026 FSC-klagomål mail.docx", "A 7253-2026")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 7253-2026 tillsynsbegäran.docx", "A 7253-2026")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 7253-2026 tillsynsbegäran mail.docx", "A 7253-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 26989-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45811.5165625</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>HÄRRYDA</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Kungsfågel
 Skogsduva</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 26989-2025 artfynd.xlsx", "A 26989-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 26989-2025 karta.png", "A 26989-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 26989-2025 FSC-klagomål.docx", "A 26989-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 26989-2025 FSC-klagomål mail.docx", "A 26989-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 26989-2025 tillsynsbegäran.docx", "A 26989-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 26989-2025 tillsynsbegäran mail.docx", "A 26989-2025")</f>
         <v/>
       </c>
-      <c r="Z7">
+      <c r="Z8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 26989-2025 prioriterade fågelarter.docx", "A 26989-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 7253-2026</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>46058.59695601852</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>HÄRRYDA</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Svart taggsvamp
-Blåmossa</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 7253-2026 artfynd.xlsx", "A 7253-2026")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 7253-2026 karta.png", "A 7253-2026")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 7253-2026 FSC-klagomål.docx", "A 7253-2026")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 7253-2026 FSC-klagomål mail.docx", "A 7253-2026")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 7253-2026 tillsynsbegäran.docx", "A 7253-2026")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 7253-2026 tillsynsbegäran mail.docx", "A 7253-2026")</f>
         <v/>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
         <v>44508</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,14 +1282,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 42915-2025</t>
+          <t>A 14259-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45908.76802083333</v>
+        <v>45740.62429398148</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1302,23 +1302,23 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>8.699999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
@@ -1326,55 +1326,55 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Klippfrullania</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 42915-2025 artfynd.xlsx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 14259-2025 artfynd.xlsx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 42915-2025 karta.png", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 14259-2025 karta.png", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 42915-2025 FSC-klagomål.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 14259-2025 FSC-klagomål.docx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 42915-2025 FSC-klagomål mail.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 14259-2025 FSC-klagomål mail.docx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 42915-2025 tillsynsbegäran.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 14259-2025 tillsynsbegäran.docx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 42915-2025 tillsynsbegäran mail.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 14259-2025 tillsynsbegäran mail.docx", "A 14259-2025")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 49645-2025</t>
+          <t>A 13586-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45939.61609953704</v>
+        <v>45736.59434027778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1387,13 +1387,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,45 +1421,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Smal svampklubba</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 49645-2025 artfynd.xlsx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 13586-2025 artfynd.xlsx", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 49645-2025 karta.png", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 13586-2025 karta.png", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 49645-2025 FSC-klagomål.docx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 13586-2025 FSC-klagomål.docx", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 49645-2025 FSC-klagomål mail.docx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 13586-2025 FSC-klagomål mail.docx", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 49645-2025 tillsynsbegäran.docx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 13586-2025 tillsynsbegäran.docx", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 49645-2025 tillsynsbegäran mail.docx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 13586-2025 tillsynsbegäran mail.docx", "A 13586-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 39670-2025</t>
+          <t>A 55686-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45890.64280092593</v>
+        <v>45239.34966435185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1472,10 +1472,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.9</v>
+        <v>6.6</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1496,55 +1496,59 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Flodpärlmussla</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 39670-2025 artfynd.xlsx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 55686-2023 artfynd.xlsx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 39670-2025 karta.png", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 55686-2023 karta.png", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 39670-2025 FSC-klagomål.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 55686-2023 FSC-klagomål.docx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 39670-2025 FSC-klagomål mail.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 55686-2023 FSC-klagomål mail.docx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 39670-2025 tillsynsbegäran.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 55686-2023 tillsynsbegäran.docx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 39670-2025 tillsynsbegäran mail.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 55686-2023 tillsynsbegäran mail.docx", "A 55686-2023")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 55686-2023 prioriterade fågelarter.docx", "A 55686-2023")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 55686-2023</t>
+          <t>A 42915-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45239.34966435185</v>
+        <v>45908.76802083333</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1557,13 +1561,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>6.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1591,49 +1595,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Klippfrullania</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 55686-2023 artfynd.xlsx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 42915-2025 artfynd.xlsx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 55686-2023 karta.png", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 42915-2025 karta.png", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 55686-2023 FSC-klagomål.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 42915-2025 FSC-klagomål.docx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 55686-2023 FSC-klagomål mail.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 42915-2025 FSC-klagomål mail.docx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 55686-2023 tillsynsbegäran.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 42915-2025 tillsynsbegäran.docx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 55686-2023 tillsynsbegäran mail.docx", "A 55686-2023")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 55686-2023 prioriterade fågelarter.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 42915-2025 tillsynsbegäran mail.docx", "A 42915-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 27482-2025</t>
+          <t>A 43202-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45813.38332175926</v>
+        <v>45567.69123842593</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1646,16 +1646,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>14.1</v>
+        <v>5.3</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1680,45 +1680,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Havstulpanlav</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 27482-2025 artfynd.xlsx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 43202-2024 artfynd.xlsx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 27482-2025 karta.png", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 43202-2024 karta.png", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 27482-2025 FSC-klagomål.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 43202-2024 FSC-klagomål.docx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 27482-2025 FSC-klagomål mail.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 43202-2024 FSC-klagomål mail.docx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 27482-2025 tillsynsbegäran.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 43202-2024 tillsynsbegäran.docx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 27482-2025 tillsynsbegäran mail.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 43202-2024 tillsynsbegäran mail.docx", "A 43202-2024")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 14259-2025</t>
+          <t>A 49645-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45740.62429398148</v>
+        <v>45939.61609953704</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1731,10 +1731,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1755,55 +1755,55 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 14259-2025 artfynd.xlsx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 49645-2025 artfynd.xlsx", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 14259-2025 karta.png", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 49645-2025 karta.png", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 14259-2025 FSC-klagomål.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 49645-2025 FSC-klagomål.docx", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 14259-2025 FSC-klagomål mail.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 49645-2025 FSC-klagomål mail.docx", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 14259-2025 tillsynsbegäran.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 49645-2025 tillsynsbegäran.docx", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 14259-2025 tillsynsbegäran mail.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 49645-2025 tillsynsbegäran mail.docx", "A 49645-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 13586-2025</t>
+          <t>A 39670-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45736.59434027778</v>
+        <v>45890.64280092593</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1816,23 +1816,23 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>1</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
@@ -1840,55 +1840,55 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Smal svampklubba</t>
+          <t>Flodpärlmussla</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 13586-2025 artfynd.xlsx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 39670-2025 artfynd.xlsx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 13586-2025 karta.png", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 39670-2025 karta.png", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 13586-2025 FSC-klagomål.docx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 39670-2025 FSC-klagomål.docx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 13586-2025 FSC-klagomål mail.docx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 39670-2025 FSC-klagomål mail.docx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 13586-2025 tillsynsbegäran.docx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 39670-2025 tillsynsbegäran.docx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 13586-2025 tillsynsbegäran mail.docx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 39670-2025 tillsynsbegäran mail.docx", "A 39670-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 7575-2025</t>
+          <t>A 21101-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45705</v>
+        <v>45061</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1901,13 +1901,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.9</v>
+        <v>0.5</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1935,45 +1935,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Åkergroda</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 7575-2025 artfynd.xlsx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 21101-2023 artfynd.xlsx", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 7575-2025 karta.png", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 21101-2023 karta.png", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 7575-2025 FSC-klagomål.docx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 21101-2023 FSC-klagomål.docx", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 7575-2025 FSC-klagomål mail.docx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 21101-2023 FSC-klagomål mail.docx", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 7575-2025 tillsynsbegäran.docx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 21101-2023 tillsynsbegäran.docx", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 7575-2025 tillsynsbegäran mail.docx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 21101-2023 tillsynsbegäran mail.docx", "A 21101-2023")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 43202-2024</t>
+          <t>A 7575-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45567.69123842593</v>
+        <v>45705</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5.3</v>
+        <v>3.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2020,45 +2020,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Havstulpanlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 43202-2024 artfynd.xlsx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 7575-2025 artfynd.xlsx", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 43202-2024 karta.png", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 7575-2025 karta.png", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 43202-2024 FSC-klagomål.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 7575-2025 FSC-klagomål.docx", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 43202-2024 FSC-klagomål mail.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 7575-2025 FSC-klagomål mail.docx", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 43202-2024 tillsynsbegäran.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 7575-2025 tillsynsbegäran.docx", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 43202-2024 tillsynsbegäran mail.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 7575-2025 tillsynsbegäran mail.docx", "A 7575-2025")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 21101-2023</t>
+          <t>A 27482-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45061</v>
+        <v>45813.38332175926</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2071,17 +2071,17 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>14.1</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>1</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2105,31 +2105,31 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Åkergroda</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 21101-2023 artfynd.xlsx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 27482-2025 artfynd.xlsx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 21101-2023 karta.png", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 27482-2025 karta.png", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 21101-2023 FSC-klagomål.docx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 27482-2025 FSC-klagomål.docx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 21101-2023 FSC-klagomål mail.docx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 27482-2025 FSC-klagomål mail.docx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 21101-2023 tillsynsbegäran.docx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 27482-2025 tillsynsbegäran.docx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 21101-2023 tillsynsbegäran mail.docx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 27482-2025 tillsynsbegäran mail.docx", "A 27482-2025")</f>
         <v/>
       </c>
     </row>
@@ -2143,7 +2143,7 @@
         <v>44301.77314814815</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44732</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>44599</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>44623.57480324074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>44257</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>44547</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>44468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>44708</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44321.65381944444</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44278</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>44278</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>44489.80715277778</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>44271.47340277778</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>44494</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44342.44517361111</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>44615.66289351852</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44392</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>44784.51399305555</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>44344</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44266</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44543.354375</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44694</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>44663</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>44351</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>44508</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3618,14 +3618,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 64560-2023</t>
+          <t>A 52045-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45281.4116087963</v>
+        <v>44873.31652777778</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>7.1</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3675,14 +3675,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 51162-2023</t>
+          <t>A 58481-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45219</v>
+        <v>44902</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3732,14 +3732,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 12091-2024</t>
+          <t>A 63592-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45377.56653935185</v>
+        <v>44508</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3789,14 +3789,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 11939-2024</t>
+          <t>A 41725-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45376.67043981481</v>
+        <v>45560.86376157407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>7.1</v>
+        <v>1.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3846,14 +3846,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 4433-2025</t>
+          <t>A 41457-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45686.49392361111</v>
+        <v>45175</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3903,14 +3903,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 14183-2024</t>
+          <t>A 51162-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45393.34479166667</v>
+        <v>45219</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3960,14 +3960,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 48440-2025</t>
+          <t>A 19977-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45935.51550925926</v>
+        <v>44697</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4017,14 +4017,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 48538-2025</t>
+          <t>A 11939-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45936.41079861111</v>
+        <v>45376.67043981481</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.6</v>
+        <v>7.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4074,14 +4074,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 51127-2023</t>
+          <t>A 37201-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45219</v>
+        <v>45155</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4131,14 +4131,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 51130-2023</t>
+          <t>A 57269-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45219</v>
+        <v>45629.57262731482</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4188,14 +4188,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 48432-2025</t>
+          <t>A 61874-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45934.89319444444</v>
+        <v>45651.93527777777</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4245,14 +4245,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 11249-2024</t>
+          <t>A 51154-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45371.63502314815</v>
+        <v>45219</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>6.5</v>
+        <v>1.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4302,14 +4302,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 21302-2025</t>
+          <t>A 51157-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45780.88960648148</v>
+        <v>45219</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4359,14 +4359,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 21872-2025</t>
+          <t>A 56558-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45784.38836805556</v>
+        <v>45625.57997685186</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4416,14 +4416,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 39676-2025</t>
+          <t>A 40053-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45890.64989583333</v>
+        <v>45168.72297453704</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4473,14 +4473,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 22271-2025</t>
+          <t>A 9491-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45785.89675925926</v>
+        <v>45715.4965162037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4530,14 +4530,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 40281-2025</t>
+          <t>A 39676-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45895.36684027778</v>
+        <v>45890.64989583333</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4587,14 +4587,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 40273-2025</t>
+          <t>A 40285-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45895.34994212963</v>
+        <v>45895.37532407408</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4606,13 +4606,8 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4649,14 +4644,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 2605-2024</t>
+          <t>A 40299-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45313.7355787037</v>
+        <v>45895.39837962963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4669,7 +4664,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4706,14 +4701,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 40299-2025</t>
+          <t>A 40281-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45895.39837962963</v>
+        <v>45895.36684027778</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4726,7 +4721,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4763,14 +4758,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 40285-2025</t>
+          <t>A 40306-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45895.37532407408</v>
+        <v>45895.40923611111</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4783,7 +4778,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4820,14 +4815,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 40306-2025</t>
+          <t>A 40273-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45895.40923611111</v>
+        <v>45895.34994212963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4839,8 +4834,13 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4884,7 +4884,7 @@
         <v>45387.51503472222</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4934,14 +4934,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 9512-2021</t>
+          <t>A 42307-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44251</v>
+        <v>45904.65253472222</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4991,14 +4991,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 50188-2025</t>
+          <t>A 29697-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45943.63313657408</v>
+        <v>45107</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>5.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5048,14 +5048,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 39672-2025</t>
+          <t>A 1551-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45890.64541666667</v>
+        <v>44573.61799768519</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5105,14 +5105,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 42307-2025</t>
+          <t>A 18003-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45904.65253472222</v>
+        <v>45761.41628472223</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5162,14 +5162,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 52045-2022</t>
+          <t>A 14468-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44873.31652777778</v>
+        <v>45012.65208333333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5219,14 +5219,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 14468-2023</t>
+          <t>A 13108-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45012.65208333333</v>
+        <v>45002</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5276,14 +5276,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 51501-2025</t>
+          <t>A 69563-2021</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45950.63748842593</v>
+        <v>44532</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>6.1</v>
+        <v>2.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5333,14 +5333,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 51009-2025</t>
+          <t>A 60432-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45947.37550925926</v>
+        <v>44911</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5390,14 +5390,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 24542-2025</t>
+          <t>A 43832-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45798.44365740741</v>
+        <v>45912.63020833334</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.9</v>
+        <v>6.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5447,14 +5447,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 41995-2025</t>
+          <t>A 21800-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45903.55027777778</v>
+        <v>45067.85023148148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5504,14 +5504,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 43832-2025</t>
+          <t>A 35404-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45912.63020833334</v>
+        <v>45855.35253472222</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>6.4</v>
+        <v>2.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5561,14 +5561,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 55273-2025</t>
+          <t>A 16679-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45968.69956018519</v>
+        <v>45754.44922453703</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5618,14 +5618,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 55274-2025</t>
+          <t>A 25726-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45968.70364583333</v>
+        <v>44733</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5675,14 +5675,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 26992-2025</t>
+          <t>A 16509-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45811.52253472222</v>
+        <v>45751.61958333333</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5739,7 +5739,7 @@
         <v>45925.48078703704</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5789,14 +5789,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 27513-2025</t>
+          <t>A 48538-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45813.42880787037</v>
+        <v>45936.41079861111</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5846,14 +5846,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 11697-2024</t>
+          <t>A 48440-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45373.60171296296</v>
+        <v>45935.51550925926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5903,14 +5903,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 56558-2024</t>
+          <t>A 48432-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45625.57997685186</v>
+        <v>45934.89319444444</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5960,14 +5960,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 37201-2023</t>
+          <t>A 4433-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45155</v>
+        <v>45686.49392361111</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.2</v>
+        <v>4.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6017,14 +6017,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 9491-2025</t>
+          <t>A 13692-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45715.4965162037</v>
+        <v>44274</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6074,14 +6074,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 47362-2024</t>
+          <t>A 50188-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45587.4371875</v>
+        <v>45943.63313657408</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6131,14 +6131,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 51157-2023</t>
+          <t>A 16435-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45219</v>
+        <v>45751.48401620371</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6188,14 +6188,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 40053-2023</t>
+          <t>A 29696-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45168.72297453704</v>
+        <v>45107</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.5</v>
+        <v>5.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6245,14 +6245,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 5630-2023</t>
+          <t>A 39672-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44960</v>
+        <v>45890.64541666667</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6302,14 +6302,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 35404-2025</t>
+          <t>A 51009-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45855.35253472222</v>
+        <v>45947.37550925926</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6359,14 +6359,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 25439-2022</t>
+          <t>A 51501-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44732.48712962963</v>
+        <v>45950.63748842593</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.9</v>
+        <v>6.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6416,14 +6416,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 16509-2025</t>
+          <t>A 47350-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45751.61958333333</v>
+        <v>45587.41349537037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6473,14 +6473,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 60323-2025</t>
+          <t>A 41995-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45994.72667824074</v>
+        <v>45903.55027777778</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.9</v>
+        <v>6.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6530,14 +6530,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 25726-2022</t>
+          <t>A 5987-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44733</v>
+        <v>45336</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6587,14 +6587,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 60334-2025</t>
+          <t>A 41318-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45994.76167824074</v>
+        <v>44826</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3</v>
+        <v>11.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6644,14 +6644,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 16679-2025</t>
+          <t>A 34938-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45754.44922453703</v>
+        <v>44796</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6701,14 +6701,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 17860-2021</t>
+          <t>A 9693-2021</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44301.28643518518</v>
+        <v>44252</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6758,14 +6758,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 47334-2024</t>
+          <t>A 39761-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45587.39581018518</v>
+        <v>45167.71447916667</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6815,14 +6815,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 13692-2021</t>
+          <t>A 55274-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44274</v>
+        <v>45968.70364583333</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6872,14 +6872,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 41318-2022</t>
+          <t>A 55273-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44826</v>
+        <v>45968.69956018519</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>11.5</v>
+        <v>2.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6929,14 +6929,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 61737-2025</t>
+          <t>A 39762-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>46002.59627314815</v>
+        <v>45167.71539351852</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6986,14 +6986,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 61741-2025</t>
+          <t>A 52043-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>46002.60090277778</v>
+        <v>45608.32934027778</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.6</v>
+        <v>4.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7043,14 +7043,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 20727-2023</t>
+          <t>A 18001-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45058.48152777777</v>
+        <v>45761.41210648148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7063,7 +7063,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7100,14 +7100,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 7356-2025</t>
+          <t>A 47334-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45704.50445601852</v>
+        <v>45587.39581018518</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7157,14 +7157,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 9492-2025</t>
+          <t>A 14183-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45715.49974537037</v>
+        <v>45393.34479166667</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7214,14 +7214,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 17616-2025</t>
+          <t>A 60323-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45757.82684027778</v>
+        <v>45994.72667824074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7234,7 +7234,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7271,14 +7271,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 9494-2025</t>
+          <t>A 60334-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45715.503125</v>
+        <v>45994.76167824074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7328,14 +7328,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 21800-2023</t>
+          <t>A 2946-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45067.85023148148</v>
+        <v>45315</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7385,14 +7385,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 34665-2023</t>
+          <t>A 4315-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45140.81900462963</v>
+        <v>45324</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7442,14 +7442,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 69563-2021</t>
+          <t>A 5985-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44532</v>
+        <v>45336.56657407407</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7499,14 +7499,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 18001-2025</t>
+          <t>A 15480-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45761.41210648148</v>
+        <v>45747.55828703703</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.7</v>
+        <v>5.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7556,14 +7556,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 41457-2023</t>
+          <t>A 23492-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45175</v>
+        <v>44721.36030092592</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.7</v>
+        <v>4.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7613,14 +7613,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 63592-2021</t>
+          <t>A 64560-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44508</v>
+        <v>45281.4116087963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>8.699999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7670,14 +7670,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 2946-2024</t>
+          <t>A 3753-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45315</v>
+        <v>45321.54748842592</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7727,14 +7727,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 15480-2025</t>
+          <t>A 61737-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45747.55828703703</v>
+        <v>46002.59627314815</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>5.6</v>
+        <v>0.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7784,14 +7784,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 12090-2024</t>
+          <t>A 61741-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45377.56537037037</v>
+        <v>46002.60090277778</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7841,14 +7841,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 52043-2024</t>
+          <t>A 1807-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45608.32934027778</v>
+        <v>45307.59741898148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7898,14 +7898,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 57269-2024</t>
+          <t>A 25439-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45629.57262731482</v>
+        <v>44732.48712962963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7955,14 +7955,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 29697-2023</t>
+          <t>A 5630-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45107</v>
+        <v>44960</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>5.8</v>
+        <v>1.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8012,14 +8012,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 23492-2022</t>
+          <t>A 51127-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44721.36030092592</v>
+        <v>45219</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>4.4</v>
+        <v>1.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8069,14 +8069,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 39761-2023</t>
+          <t>A 51130-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45167.71447916667</v>
+        <v>45219</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8126,14 +8126,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 19977-2022</t>
+          <t>A 7356-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44697</v>
+        <v>45704.50445601852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>4.7</v>
+        <v>0.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8183,14 +8183,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 46798-2024</t>
+          <t>A 2605-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45583</v>
+        <v>45313.7355787037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>6.3</v>
+        <v>1.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8240,14 +8240,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 18003-2025</t>
+          <t>A 9492-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45761.41628472223</v>
+        <v>45715.49974537037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8297,14 +8297,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 65080-2023</t>
+          <t>A 9494-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45287</v>
+        <v>45715.503125</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8354,14 +8354,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 3753-2024</t>
+          <t>A 21398-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45321.54748842592</v>
+        <v>45063</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.5</v>
+        <v>6.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8411,14 +8411,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 1807-2024</t>
+          <t>A 34665-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45307.59741898148</v>
+        <v>45140.81900462963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8468,14 +8468,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 16435-2025</t>
+          <t>A 32866-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45751.48401620371</v>
+        <v>44784.50711805555</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8525,14 +8525,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 59711-2022</t>
+          <t>A 65080-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44908.40974537037</v>
+        <v>45287</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8582,14 +8582,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 13582-2025</t>
+          <t>A 59711-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45736.59074074074</v>
+        <v>44908.40974537037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8639,14 +8639,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 39762-2023</t>
+          <t>A 9785-2026</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45167.71539351852</v>
+        <v>46072.59296296296</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8696,14 +8696,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 61874-2024</t>
+          <t>A 12090-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45651.93527777777</v>
+        <v>45377.56537037037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8753,14 +8753,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 21398-2023</t>
+          <t>A 47362-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45063</v>
+        <v>45587.4371875</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>6.6</v>
+        <v>3.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8810,14 +8810,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 25499-2022</t>
+          <t>A 17616-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44732.57032407408</v>
+        <v>45757.82684027778</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8867,14 +8867,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 9693-2021</t>
+          <t>A 20727-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44252</v>
+        <v>45058.48152777777</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8924,14 +8924,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 32866-2022</t>
+          <t>A 55071-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44784.50711805555</v>
+        <v>45237</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8981,14 +8981,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 41725-2024</t>
+          <t>A 52164-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45560.86376157407</v>
+        <v>45224</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.7</v>
+        <v>5.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9038,14 +9038,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 5985-2024</t>
+          <t>A 52166-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45336.56657407407</v>
+        <v>45224.3316550926</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9095,14 +9095,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 64291-2023</t>
+          <t>A 56832-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45280</v>
+        <v>45244</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.4</v>
+        <v>4.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9152,14 +9152,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 47350-2024</t>
+          <t>A 12091-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45587.41349537037</v>
+        <v>45377.56653935185</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9209,14 +9209,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 4315-2024</t>
+          <t>A 51012-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45324</v>
+        <v>45218.57846064815</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9228,8 +9228,13 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9266,14 +9271,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 1551-2022</t>
+          <t>A 64291-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44573.61799768519</v>
+        <v>45280</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9286,7 +9291,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9323,14 +9328,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 51012-2023</t>
+          <t>A 13582-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45218.57846064815</v>
+        <v>45736.59074074074</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9342,13 +9347,8 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9385,14 +9385,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 56832-2023</t>
+          <t>A 25499-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45244</v>
+        <v>44732.57032407408</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>4.9</v>
+        <v>2.1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9442,14 +9442,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 60432-2022</t>
+          <t>A 46798-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44911</v>
+        <v>45583</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9462,7 +9462,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.9</v>
+        <v>6.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9499,14 +9499,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 13108-2023</t>
+          <t>A 17860-2021</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45002</v>
+        <v>44301.28643518518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9519,7 +9519,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9556,14 +9556,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 29696-2023</t>
+          <t>A 11249-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45107</v>
+        <v>45371.63502314815</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9576,7 +9576,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>5.3</v>
+        <v>6.5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9613,14 +9613,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 58481-2022</t>
+          <t>A 21302-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44902</v>
+        <v>45780.88960648148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9670,14 +9670,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 34938-2022</t>
+          <t>A 21872-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44796</v>
+        <v>45784.38836805556</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9690,7 +9690,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9727,14 +9727,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 5987-2024</t>
+          <t>A 22271-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45336</v>
+        <v>45785.89675925926</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9747,7 +9747,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9784,14 +9784,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 55071-2023</t>
+          <t>A 9512-2021</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45237</v>
+        <v>44251</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9841,14 +9841,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 51154-2023</t>
+          <t>A 24542-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45219</v>
+        <v>45798.44365740741</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9898,14 +9898,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 52164-2023</t>
+          <t>A 26992-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45224</v>
+        <v>45811.52253472222</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9952,17 +9952,17 @@
       </c>
       <c r="R156" s="2" t="inlineStr"/>
     </row>
-    <row r="157">
+    <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 52166-2023</t>
+          <t>A 27513-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45224.3316550926</v>
+        <v>45813.42880787037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10008,6 +10008,63 @@
         <v>0</v>
       </c>
       <c r="R157" s="2" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>A 11697-2024</t>
+        </is>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>45373.60171296296</v>
+      </c>
+      <c r="C158" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>HÄRRYDA</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>2</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0</v>
+      </c>
+      <c r="O158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R158" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HÄRRYDA.xlsx
+++ b/Översikt HÄRRYDA.xlsx
@@ -575,7 +575,7 @@
         <v>45608.35664351852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45030</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45239</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>45924.45489583333</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>46058.59695601852</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>45811.5165625</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44508</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>45740.62429398148</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>45736.59434027778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>45239.34966435185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>45908.76802083333</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45567.69123842593</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>45939.61609953704</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>45890.64280092593</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45061</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>45705</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45813.38332175926</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44301.77314814815</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44732</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>44599</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>44623.57480324074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>44257</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>44547</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>44468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>44708</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44321.65381944444</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44278</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>44278</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>44489.80715277778</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>44271.47340277778</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>44494</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44342.44517361111</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>44615.66289351852</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44392</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>44784.51399305555</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>44344</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44266</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44543.354375</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44694</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>44663</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>44351</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>44508</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>44873.31652777778</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>44902</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>44508</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>45560.86376157407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>45175</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>45219</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>44697</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>45376.67043981481</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>45155</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>45629.57262731482</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>45651.93527777777</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>45219</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>45219</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>45625.57997685186</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>45168.72297453704</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>45715.4965162037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>45890.64989583333</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>45895.37532407408</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>45895.39837962963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>45895.36684027778</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>45895.40923611111</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>45895.34994212963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>45387.51503472222</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>45904.65253472222</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         <v>45107</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         <v>44573.61799768519</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>45761.41628472223</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>45012.65208333333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>45002</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>44532</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
         <v>44911</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>45912.63020833334</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>45067.85023148148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>45855.35253472222</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>45754.44922453703</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>44733</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>45751.61958333333</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>45925.48078703704</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>45936.41079861111</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>45935.51550925926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>45934.89319444444</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>45686.49392361111</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>44274</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>45943.63313657408</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>45751.48401620371</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>45107</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>45890.64541666667</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         <v>45947.37550925926</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6366,7 +6366,7 @@
         <v>45950.63748842593</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         <v>45587.41349537037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>45903.55027777778</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>45336</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         <v>44826</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6651,7 +6651,7 @@
         <v>44796</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>44252</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>45167.71447916667</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6822,7 +6822,7 @@
         <v>45968.70364583333</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>45968.69956018519</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>45167.71539351852</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>45608.32934027778</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>45761.41210648148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>45587.39581018518</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>45393.34479166667</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>45994.72667824074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>45994.76167824074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>45315</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>45324</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>45336.56657407407</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>45747.55828703703</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>44721.36030092592</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>45281.4116087963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>45321.54748842592</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>46002.59627314815</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>46002.60090277778</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>45307.59741898148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>44732.48712962963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>44960</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>45219</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>45219</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>45704.50445601852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>45313.7355787037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>45715.49974537037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>45715.503125</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>45063</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>45140.81900462963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>44784.50711805555</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>45287</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>44908.40974537037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>46072.59296296296</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>45377.56537037037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>45587.4371875</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>45757.82684027778</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>45058.48152777777</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>45237</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>45224</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>45224.3316550926</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>45244</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>45377.56653935185</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>45218.57846064815</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>45280</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>45736.59074074074</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>44732.57032407408</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>45583</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>44301.28643518518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>45371.63502314815</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>45780.88960648148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>45784.38836805556</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>45785.89675925926</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>44251</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>45798.44365740741</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>45811.52253472222</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>45813.42880787037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>45373.60171296296</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>

--- a/Översikt HÄRRYDA.xlsx
+++ b/Översikt HÄRRYDA.xlsx
@@ -575,7 +575,7 @@
         <v>45608.35664351852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45030</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45239</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>45924.45489583333</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>46058.59695601852</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>45811.5165625</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44508</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>45740.62429398148</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>45736.59434027778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>45239.34966435185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>45908.76802083333</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45567.69123842593</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>45939.61609953704</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>45890.64280092593</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45061</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>45705</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45813.38332175926</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44301.77314814815</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44732</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>44599</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>44623.57480324074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>44257</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>44547</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>44468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>44708</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44321.65381944444</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44278</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>44278</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>44489.80715277778</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>44271.47340277778</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>44494</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44342.44517361111</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>44615.66289351852</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44392</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>44784.51399305555</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>44344</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44266</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44543.354375</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44694</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>44663</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>44351</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>44508</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>44873.31652777778</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>44902</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>44508</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>45560.86376157407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>45175</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>45219</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>44697</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>45376.67043981481</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>45155</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>45629.57262731482</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>45651.93527777777</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>45219</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>45219</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>45625.57997685186</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>45168.72297453704</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>45715.4965162037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>45890.64989583333</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>45895.37532407408</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>45895.39837962963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>45895.36684027778</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>45895.40923611111</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>45895.34994212963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>45387.51503472222</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>45904.65253472222</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         <v>45107</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         <v>44573.61799768519</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>45761.41628472223</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>45012.65208333333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>45002</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>44532</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
         <v>44911</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>45912.63020833334</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>45067.85023148148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>45855.35253472222</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>45754.44922453703</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>44733</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>45751.61958333333</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>45925.48078703704</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>45936.41079861111</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>45935.51550925926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>45934.89319444444</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>45686.49392361111</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>44274</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>45943.63313657408</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>45751.48401620371</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>45107</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>45890.64541666667</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         <v>45947.37550925926</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6366,7 +6366,7 @@
         <v>45950.63748842593</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         <v>45587.41349537037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>45903.55027777778</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>45336</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         <v>44826</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6651,7 +6651,7 @@
         <v>44796</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>44252</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>45167.71447916667</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6822,7 +6822,7 @@
         <v>45968.70364583333</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>45968.69956018519</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>45167.71539351852</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>45608.32934027778</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>45761.41210648148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>45587.39581018518</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>45393.34479166667</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>45994.72667824074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>45994.76167824074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>45315</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>45324</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>45336.56657407407</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>45747.55828703703</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>44721.36030092592</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>45281.4116087963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>45321.54748842592</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>46002.59627314815</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>46002.60090277778</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>45307.59741898148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>44732.48712962963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>44960</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>45219</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>45219</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>45704.50445601852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>45313.7355787037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>45715.49974537037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>45715.503125</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>45063</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>45140.81900462963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>44784.50711805555</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>45287</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>44908.40974537037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>46072.59296296296</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>45377.56537037037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>45587.4371875</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>45757.82684027778</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>45058.48152777777</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>45237</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>45224</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>45224.3316550926</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>45244</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>45377.56653935185</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>45218.57846064815</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>45280</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>45736.59074074074</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>44732.57032407408</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>45583</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>44301.28643518518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>45371.63502314815</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>45780.88960648148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>45784.38836805556</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>45785.89675925926</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>44251</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>45798.44365740741</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>45811.52253472222</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>45813.42880787037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>45373.60171296296</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>

--- a/Översikt HÄRRYDA.xlsx
+++ b/Översikt HÄRRYDA.xlsx
@@ -575,7 +575,7 @@
         <v>45608.35664351852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45030</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45239</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>45924.45489583333</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,14 +1016,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 7253-2026</t>
+          <t>A 26989-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>46058.59695601852</v>
+        <v>45811.5165625</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1035,22 +1035,17 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G7" t="n">
-        <v>9.800000000000001</v>
+        <v>4.6</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1065,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1075,122 +1070,127 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Kungsfågel
+Skogsduva</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 26989-2025 artfynd.xlsx", "A 26989-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 26989-2025 karta.png", "A 26989-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 26989-2025 FSC-klagomål.docx", "A 26989-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 26989-2025 FSC-klagomål mail.docx", "A 26989-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 26989-2025 tillsynsbegäran.docx", "A 26989-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 26989-2025 tillsynsbegäran mail.docx", "A 26989-2025")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 26989-2025 prioriterade fågelarter.docx", "A 26989-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 7253-2026</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>46058.59695601852</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>HÄRRYDA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Svart taggsvamp
 Blåmossa</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 7253-2026 artfynd.xlsx", "A 7253-2026")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 7253-2026 karta.png", "A 7253-2026")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 7253-2026 FSC-klagomål.docx", "A 7253-2026")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 7253-2026 FSC-klagomål mail.docx", "A 7253-2026")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 7253-2026 tillsynsbegäran.docx", "A 7253-2026")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 7253-2026 tillsynsbegäran mail.docx", "A 7253-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 26989-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45811.5165625</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>HÄRRYDA</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Kungsfågel
-Skogsduva</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 26989-2025 artfynd.xlsx", "A 26989-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 26989-2025 karta.png", "A 26989-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 26989-2025 FSC-klagomål.docx", "A 26989-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 26989-2025 FSC-klagomål mail.docx", "A 26989-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 26989-2025 tillsynsbegäran.docx", "A 26989-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 26989-2025 tillsynsbegäran mail.docx", "A 26989-2025")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 26989-2025 prioriterade fågelarter.docx", "A 26989-2025")</f>
         <v/>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
         <v>44508</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,14 +1282,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 14259-2025</t>
+          <t>A 43202-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45740.62429398148</v>
+        <v>45567.69123842593</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1302,13 +1302,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.9</v>
+        <v>5.3</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1326,55 +1326,55 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Havstulpanlav</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 14259-2025 artfynd.xlsx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 43202-2024 artfynd.xlsx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 14259-2025 karta.png", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 43202-2024 karta.png", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 14259-2025 FSC-klagomål.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 43202-2024 FSC-klagomål.docx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 14259-2025 FSC-klagomål mail.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 43202-2024 FSC-klagomål mail.docx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 14259-2025 tillsynsbegäran.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 43202-2024 tillsynsbegäran.docx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 14259-2025 tillsynsbegäran mail.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 43202-2024 tillsynsbegäran mail.docx", "A 43202-2024")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 13586-2025</t>
+          <t>A 55686-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45736.59434027778</v>
+        <v>45239.34966435185</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1387,13 +1387,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.4</v>
+        <v>6.6</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,45 +1421,49 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Smal svampklubba</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 13586-2025 artfynd.xlsx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 55686-2023 artfynd.xlsx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 13586-2025 karta.png", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 55686-2023 karta.png", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 13586-2025 FSC-klagomål.docx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 55686-2023 FSC-klagomål.docx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 13586-2025 FSC-klagomål mail.docx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 55686-2023 FSC-klagomål mail.docx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 13586-2025 tillsynsbegäran.docx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 55686-2023 tillsynsbegäran.docx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 13586-2025 tillsynsbegäran mail.docx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 55686-2023 tillsynsbegäran mail.docx", "A 55686-2023")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 55686-2023 prioriterade fågelarter.docx", "A 55686-2023")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 55686-2023</t>
+          <t>A 42915-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45239.34966435185</v>
+        <v>45908.76802083333</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1472,13 +1476,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>6.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1506,49 +1510,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Klippfrullania</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 55686-2023 artfynd.xlsx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 42915-2025 artfynd.xlsx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 55686-2023 karta.png", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 42915-2025 karta.png", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 55686-2023 FSC-klagomål.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 42915-2025 FSC-klagomål.docx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 55686-2023 FSC-klagomål mail.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 42915-2025 FSC-klagomål mail.docx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 55686-2023 tillsynsbegäran.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 42915-2025 tillsynsbegäran.docx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 55686-2023 tillsynsbegäran mail.docx", "A 55686-2023")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 55686-2023 prioriterade fågelarter.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 42915-2025 tillsynsbegäran mail.docx", "A 42915-2025")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 42915-2025</t>
+          <t>A 49645-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45908.76802083333</v>
+        <v>45939.61609953704</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1561,13 +1561,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>8.699999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1595,45 +1595,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Klippfrullania</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 42915-2025 artfynd.xlsx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 49645-2025 artfynd.xlsx", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 42915-2025 karta.png", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 49645-2025 karta.png", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 42915-2025 FSC-klagomål.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 49645-2025 FSC-klagomål.docx", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 42915-2025 FSC-klagomål mail.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 49645-2025 FSC-klagomål mail.docx", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 42915-2025 tillsynsbegäran.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 49645-2025 tillsynsbegäran.docx", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 42915-2025 tillsynsbegäran mail.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 49645-2025 tillsynsbegäran mail.docx", "A 49645-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 43202-2024</t>
+          <t>A 39670-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45567.69123842593</v>
+        <v>45890.64280092593</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1646,23 +1646,23 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5.3</v>
+        <v>1.9</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>1</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
@@ -1670,55 +1670,55 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Havstulpanlav</t>
+          <t>Flodpärlmussla</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 43202-2024 artfynd.xlsx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 39670-2025 artfynd.xlsx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 43202-2024 karta.png", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 39670-2025 karta.png", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 43202-2024 FSC-klagomål.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 39670-2025 FSC-klagomål.docx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 43202-2024 FSC-klagomål mail.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 39670-2025 FSC-klagomål mail.docx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 43202-2024 tillsynsbegäran.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 39670-2025 tillsynsbegäran.docx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 43202-2024 tillsynsbegäran mail.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 39670-2025 tillsynsbegäran mail.docx", "A 39670-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 49645-2025</t>
+          <t>A 21101-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45939.61609953704</v>
+        <v>45061</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1765,45 +1765,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Åkergroda</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 49645-2025 artfynd.xlsx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 21101-2023 artfynd.xlsx", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 49645-2025 karta.png", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 21101-2023 karta.png", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 49645-2025 FSC-klagomål.docx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 21101-2023 FSC-klagomål.docx", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 49645-2025 FSC-klagomål mail.docx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 21101-2023 FSC-klagomål mail.docx", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 49645-2025 tillsynsbegäran.docx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 21101-2023 tillsynsbegäran.docx", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 49645-2025 tillsynsbegäran mail.docx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 21101-2023 tillsynsbegäran mail.docx", "A 21101-2023")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 39670-2025</t>
+          <t>A 7575-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45890.64280092593</v>
+        <v>45705</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1840,55 +1840,55 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Flodpärlmussla</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 39670-2025 artfynd.xlsx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 7575-2025 artfynd.xlsx", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 39670-2025 karta.png", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 7575-2025 karta.png", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 39670-2025 FSC-klagomål.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 7575-2025 FSC-klagomål.docx", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 39670-2025 FSC-klagomål mail.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 7575-2025 FSC-klagomål mail.docx", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 39670-2025 tillsynsbegäran.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 7575-2025 tillsynsbegäran.docx", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 39670-2025 tillsynsbegäran mail.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 7575-2025 tillsynsbegäran mail.docx", "A 7575-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 21101-2023</t>
+          <t>A 27482-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45061</v>
+        <v>45813.38332175926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1901,17 +1901,17 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>14.1</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1935,45 +1935,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Åkergroda</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 21101-2023 artfynd.xlsx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 27482-2025 artfynd.xlsx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 21101-2023 karta.png", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 27482-2025 karta.png", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 21101-2023 FSC-klagomål.docx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 27482-2025 FSC-klagomål.docx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 21101-2023 FSC-klagomål mail.docx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 27482-2025 FSC-klagomål mail.docx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 21101-2023 tillsynsbegäran.docx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 27482-2025 tillsynsbegäran.docx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 21101-2023 tillsynsbegäran mail.docx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 27482-2025 tillsynsbegäran mail.docx", "A 27482-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 7575-2025</t>
+          <t>A 14259-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45705</v>
+        <v>45740.62429398148</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1986,23 +1986,23 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
@@ -2010,55 +2010,55 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 7575-2025 artfynd.xlsx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 14259-2025 artfynd.xlsx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 7575-2025 karta.png", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 14259-2025 karta.png", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 7575-2025 FSC-klagomål.docx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 14259-2025 FSC-klagomål.docx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 7575-2025 FSC-klagomål mail.docx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 14259-2025 FSC-klagomål mail.docx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 7575-2025 tillsynsbegäran.docx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 14259-2025 tillsynsbegäran.docx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 7575-2025 tillsynsbegäran mail.docx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 14259-2025 tillsynsbegäran mail.docx", "A 14259-2025")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 27482-2025</t>
+          <t>A 13586-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45813.38332175926</v>
+        <v>45736.59434027778</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2071,16 +2071,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>14.1</v>
+        <v>2.4</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2105,31 +2105,31 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Smal svampklubba</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 27482-2025 artfynd.xlsx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 13586-2025 artfynd.xlsx", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 27482-2025 karta.png", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 13586-2025 karta.png", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 27482-2025 FSC-klagomål.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 13586-2025 FSC-klagomål.docx", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 27482-2025 FSC-klagomål mail.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 13586-2025 FSC-klagomål mail.docx", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 27482-2025 tillsynsbegäran.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 13586-2025 tillsynsbegäran.docx", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 27482-2025 tillsynsbegäran mail.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 13586-2025 tillsynsbegäran mail.docx", "A 13586-2025")</f>
         <v/>
       </c>
     </row>
@@ -2143,7 +2143,7 @@
         <v>44301.77314814815</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44732</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>44599</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>44623.57480324074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>44257</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2421,14 +2421,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 72891-2021</t>
+          <t>A 21780-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44547</v>
+        <v>44708</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2441,7 +2441,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2478,14 +2478,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 53200-2021</t>
+          <t>A 72891-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44468</v>
+        <v>44547</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2498,7 +2498,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>5.3</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2535,14 +2535,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 21780-2022</t>
+          <t>A 53200-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44708</v>
+        <v>44468</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.4</v>
+        <v>5.3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>44321.65381944444</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44278</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>44278</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2763,14 +2763,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 58926-2021</t>
+          <t>A 53204-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44489.80715277778</v>
+        <v>44468</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2820,14 +2820,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 12906-2021</t>
+          <t>A 59767-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44271.47340277778</v>
+        <v>44494</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2877,14 +2877,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 53204-2021</t>
+          <t>A 58926-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44468</v>
+        <v>44489.80715277778</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2934,14 +2934,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 59767-2021</t>
+          <t>A 25267-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44494</v>
+        <v>44342.44517361111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2991,14 +2991,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 25267-2021</t>
+          <t>A 12906-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44342.44517361111</v>
+        <v>44271.47340277778</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3055,7 +3055,7 @@
         <v>44615.66289351852</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44392</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>44784.51399305555</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>44344</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44266</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44543.354375</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3390,14 +3390,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 19782-2022</t>
+          <t>A 15683-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44694</v>
+        <v>44663</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3447,14 +3447,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 15683-2022</t>
+          <t>A 19782-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44663</v>
+        <v>44694</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>44351</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>44508</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3618,14 +3618,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 52045-2022</t>
+          <t>A 51162-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44873.31652777778</v>
+        <v>45219</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3675,14 +3675,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 58481-2022</t>
+          <t>A 64560-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44902</v>
+        <v>45281.4116087963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.4</v>
+        <v>7.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3732,14 +3732,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 63592-2021</t>
+          <t>A 25439-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44508</v>
+        <v>44732.48712962963</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>8.699999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3789,14 +3789,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 41725-2024</t>
+          <t>A 12091-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45560.86376157407</v>
+        <v>45377.56653935185</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3846,14 +3846,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 41457-2023</t>
+          <t>A 11939-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45175</v>
+        <v>45376.67043981481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.7</v>
+        <v>7.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3903,14 +3903,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 51162-2023</t>
+          <t>A 25726-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45219</v>
+        <v>44733</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3960,14 +3960,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 19977-2022</t>
+          <t>A 14183-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44697</v>
+        <v>45393.34479166667</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.7</v>
+        <v>1.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4017,14 +4017,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 11939-2024</t>
+          <t>A 16679-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45376.67043981481</v>
+        <v>45754.44922453703</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>7.1</v>
+        <v>0.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4074,14 +4074,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 37201-2023</t>
+          <t>A 17860-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45155</v>
+        <v>44301.28643518518</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4131,14 +4131,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 57269-2024</t>
+          <t>A 51127-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45629.57262731482</v>
+        <v>45219</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4188,14 +4188,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 61874-2024</t>
+          <t>A 51130-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45651.93527777777</v>
+        <v>45219</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4245,14 +4245,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 51154-2023</t>
+          <t>A 47334-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45219</v>
+        <v>45587.39581018518</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4302,14 +4302,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 51157-2023</t>
+          <t>A 37201-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45219</v>
+        <v>45155</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4359,14 +4359,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 56558-2024</t>
+          <t>A 13692-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45625.57997685186</v>
+        <v>44274</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4416,14 +4416,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 40053-2023</t>
+          <t>A 41318-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45168.72297453704</v>
+        <v>44826</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.5</v>
+        <v>11.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4473,14 +4473,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 9491-2025</t>
+          <t>A 47362-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45715.4965162037</v>
+        <v>45587.4371875</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4530,14 +4530,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 39676-2025</t>
+          <t>A 2605-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45890.64989583333</v>
+        <v>45313.7355787037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4587,14 +4587,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 40285-2025</t>
+          <t>A 20727-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45895.37532407408</v>
+        <v>45058.48152777777</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4644,14 +4644,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 40299-2025</t>
+          <t>A 51157-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45895.39837962963</v>
+        <v>45219</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4701,14 +4701,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 40281-2025</t>
+          <t>A 17616-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45895.36684027778</v>
+        <v>45757.82684027778</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4758,14 +4758,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 40306-2025</t>
+          <t>A 40053-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45895.40923611111</v>
+        <v>45168.72297453704</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4815,14 +4815,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 40273-2025</t>
+          <t>A 5630-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45895.34994212963</v>
+        <v>44960</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4834,13 +4834,8 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4877,14 +4872,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 13454-2024</t>
+          <t>A 18001-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45387.51503472222</v>
+        <v>45761.41210648148</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4897,7 +4892,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4934,14 +4929,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 42307-2025</t>
+          <t>A 41457-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45904.65253472222</v>
+        <v>45175</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4954,7 +4949,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4991,14 +4986,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 29697-2023</t>
+          <t>A 63592-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45107</v>
+        <v>44508</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5011,7 +5006,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>5.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5048,14 +5043,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 1551-2022</t>
+          <t>A 21800-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44573.61799768519</v>
+        <v>45067.85023148148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5068,7 +5063,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5105,14 +5100,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 18003-2025</t>
+          <t>A 34665-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45761.41628472223</v>
+        <v>45140.81900462963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5125,7 +5120,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5162,14 +5157,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 14468-2023</t>
+          <t>A 2946-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45012.65208333333</v>
+        <v>45315</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5182,7 +5177,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5219,14 +5214,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 13108-2023</t>
+          <t>A 15480-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45002</v>
+        <v>45747.55828703703</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5239,7 +5234,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.7</v>
+        <v>5.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5276,14 +5271,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 69563-2021</t>
+          <t>A 18003-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44532</v>
+        <v>45761.41628472223</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5296,7 +5291,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5333,14 +5328,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 60432-2022</t>
+          <t>A 65080-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44911</v>
+        <v>45287</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5353,7 +5348,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5390,14 +5385,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 43832-2025</t>
+          <t>A 12090-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45912.63020833334</v>
+        <v>45377.56537037037</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5410,7 +5405,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>6.4</v>
+        <v>0.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5447,14 +5442,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 21800-2023</t>
+          <t>A 52043-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45067.85023148148</v>
+        <v>45608.32934027778</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5467,7 +5462,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5504,14 +5499,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 35404-2025</t>
+          <t>A 57269-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45855.35253472222</v>
+        <v>45629.57262731482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5524,7 +5519,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5561,14 +5556,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 16679-2025</t>
+          <t>A 69563-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45754.44922453703</v>
+        <v>44532</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5581,7 +5576,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5618,14 +5613,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 25726-2022</t>
+          <t>A 52045-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44733</v>
+        <v>44873.31652777778</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5638,7 +5633,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5675,14 +5670,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 16509-2025</t>
+          <t>A 3753-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45751.61958333333</v>
+        <v>45321.54748842592</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5695,7 +5690,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5732,14 +5727,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 46349-2025</t>
+          <t>A 4433-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45925.48078703704</v>
+        <v>45686.49392361111</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5752,7 +5747,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.2</v>
+        <v>4.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5789,14 +5784,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 48538-2025</t>
+          <t>A 1807-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45936.41079861111</v>
+        <v>45307.59741898148</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5809,7 +5804,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5846,14 +5841,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 48440-2025</t>
+          <t>A 29697-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45935.51550925926</v>
+        <v>45107</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5866,7 +5861,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.2</v>
+        <v>5.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5903,14 +5898,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 48432-2025</t>
+          <t>A 23492-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45934.89319444444</v>
+        <v>44721.36030092592</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5923,7 +5918,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5960,14 +5955,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 4433-2025</t>
+          <t>A 39761-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45686.49392361111</v>
+        <v>45167.71447916667</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5980,7 +5975,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6017,14 +6012,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 13692-2021</t>
+          <t>A 16435-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44274</v>
+        <v>45751.48401620371</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6037,7 +6032,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6074,14 +6069,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 50188-2025</t>
+          <t>A 59711-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45943.63313657408</v>
+        <v>44908.40974537037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6094,7 +6089,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6131,14 +6126,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 16435-2025</t>
+          <t>A 13582-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45751.48401620371</v>
+        <v>45736.59074074074</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6151,7 +6146,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6188,14 +6183,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 29696-2023</t>
+          <t>A 39762-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45107</v>
+        <v>45167.71539351852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6208,7 +6203,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>5.3</v>
+        <v>0.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6245,14 +6240,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 39672-2025</t>
+          <t>A 19977-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45890.64541666667</v>
+        <v>44697</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6265,7 +6260,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6302,14 +6297,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 51009-2025</t>
+          <t>A 46798-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45947.37550925926</v>
+        <v>45583</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6322,7 +6317,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.9</v>
+        <v>6.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6359,14 +6354,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 51501-2025</t>
+          <t>A 39676-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45950.63748842593</v>
+        <v>45890.64989583333</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6379,7 +6374,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>6.1</v>
+        <v>2.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6416,14 +6411,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 47350-2024</t>
+          <t>A 61874-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45587.41349537037</v>
+        <v>45651.93527777777</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6436,7 +6431,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6473,14 +6468,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 41995-2025</t>
+          <t>A 40281-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45903.55027777778</v>
+        <v>45895.36684027778</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6493,7 +6488,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>6.5</v>
+        <v>1.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6530,14 +6525,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 5987-2024</t>
+          <t>A 40273-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45336</v>
+        <v>45895.34994212963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6547,6 +6542,11 @@
       <c r="E97" t="inlineStr">
         <is>
           <t>HÄRRYDA</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -6587,14 +6587,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 41318-2022</t>
+          <t>A 40299-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44826</v>
+        <v>45895.39837962963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>11.5</v>
+        <v>3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6644,14 +6644,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 34938-2022</t>
+          <t>A 40285-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44796</v>
+        <v>45895.37532407408</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6701,14 +6701,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 9693-2021</t>
+          <t>A 40306-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44252</v>
+        <v>45895.40923611111</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6758,14 +6758,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 39761-2023</t>
+          <t>A 13454-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45167.71447916667</v>
+        <v>45387.51503472222</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6815,14 +6815,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 55274-2025</t>
+          <t>A 21398-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45968.70364583333</v>
+        <v>45063</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>6.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6872,14 +6872,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 55273-2025</t>
+          <t>A 42307-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45968.69956018519</v>
+        <v>45904.65253472222</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6929,14 +6929,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 39762-2023</t>
+          <t>A 14468-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45167.71539351852</v>
+        <v>45012.65208333333</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6986,14 +6986,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 52043-2024</t>
+          <t>A 43832-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45608.32934027778</v>
+        <v>45912.63020833334</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4.4</v>
+        <v>6.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7043,14 +7043,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 18001-2025</t>
+          <t>A 25499-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45761.41210648148</v>
+        <v>44732.57032407408</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7063,7 +7063,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7100,14 +7100,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 47334-2024</t>
+          <t>A 9693-2021</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45587.39581018518</v>
+        <v>44252</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7157,14 +7157,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 14183-2024</t>
+          <t>A 32866-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45393.34479166667</v>
+        <v>44784.50711805555</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7214,14 +7214,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 60323-2025</t>
+          <t>A 41725-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45994.72667824074</v>
+        <v>45560.86376157407</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7234,7 +7234,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7271,14 +7271,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 60334-2025</t>
+          <t>A 46349-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45994.76167824074</v>
+        <v>45925.48078703704</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7328,14 +7328,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 2946-2024</t>
+          <t>A 5985-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45315</v>
+        <v>45336.56657407407</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7385,14 +7385,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 4315-2024</t>
+          <t>A 64291-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45324</v>
+        <v>45280</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7442,14 +7442,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 5985-2024</t>
+          <t>A 48440-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45336.56657407407</v>
+        <v>45935.51550925926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7499,14 +7499,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 15480-2025</t>
+          <t>A 48538-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45747.55828703703</v>
+        <v>45936.41079861111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>5.6</v>
+        <v>0.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7556,14 +7556,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 23492-2022</t>
+          <t>A 48432-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44721.36030092592</v>
+        <v>45934.89319444444</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4.4</v>
+        <v>1.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7613,14 +7613,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 64560-2023</t>
+          <t>A 47350-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45281.4116087963</v>
+        <v>45587.41349537037</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>7.1</v>
+        <v>1.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7670,14 +7670,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 3753-2024</t>
+          <t>A 50188-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45321.54748842592</v>
+        <v>45943.63313657408</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7727,14 +7727,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 61737-2025</t>
+          <t>A 39672-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>46002.59627314815</v>
+        <v>45890.64541666667</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7784,14 +7784,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 61741-2025</t>
+          <t>A 4315-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>46002.60090277778</v>
+        <v>45324</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7841,14 +7841,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 1807-2024</t>
+          <t>A 1551-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45307.59741898148</v>
+        <v>44573.61799768519</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7898,14 +7898,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 25439-2022</t>
+          <t>A 51012-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44732.48712962963</v>
+        <v>45218.57846064815</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7917,8 +7917,13 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7955,14 +7960,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 5630-2023</t>
+          <t>A 56832-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44960</v>
+        <v>45244</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7975,7 +7980,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.8</v>
+        <v>4.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8012,14 +8017,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 51127-2023</t>
+          <t>A 60432-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45219</v>
+        <v>44911</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8032,7 +8037,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8069,14 +8074,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 51130-2023</t>
+          <t>A 51501-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45219</v>
+        <v>45950.63748842593</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8089,7 +8094,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.8</v>
+        <v>6.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8126,14 +8131,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 7356-2025</t>
+          <t>A 51009-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45704.50445601852</v>
+        <v>45947.37550925926</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8146,7 +8151,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8183,14 +8188,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 2605-2024</t>
+          <t>A 13108-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45313.7355787037</v>
+        <v>45002</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8203,7 +8208,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8240,14 +8245,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 9492-2025</t>
+          <t>A 29696-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45715.49974537037</v>
+        <v>45107</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8260,7 +8265,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.2</v>
+        <v>5.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8297,14 +8302,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 9494-2025</t>
+          <t>A 58481-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45715.503125</v>
+        <v>44902</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8317,7 +8322,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8354,14 +8359,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 21398-2023</t>
+          <t>A 34938-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45063</v>
+        <v>44796</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8374,7 +8379,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>6.6</v>
+        <v>2.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8411,14 +8416,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 34665-2023</t>
+          <t>A 5987-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45140.81900462963</v>
+        <v>45336</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8431,7 +8436,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8468,14 +8473,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 32866-2022</t>
+          <t>A 55071-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44784.50711805555</v>
+        <v>45237</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8488,7 +8493,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8525,14 +8530,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 65080-2023</t>
+          <t>A 41995-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45287</v>
+        <v>45903.55027777778</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8545,7 +8550,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.7</v>
+        <v>6.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8582,14 +8587,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 59711-2022</t>
+          <t>A 51154-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44908.40974537037</v>
+        <v>45219</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8602,7 +8607,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8639,14 +8644,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 9785-2026</t>
+          <t>A 55273-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>46072.59296296296</v>
+        <v>45968.69956018519</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8659,7 +8664,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8696,14 +8701,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 12090-2024</t>
+          <t>A 55274-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45377.56537037037</v>
+        <v>45968.70364583333</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8716,7 +8721,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8753,14 +8758,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 47362-2024</t>
+          <t>A 52164-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45587.4371875</v>
+        <v>45224</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8773,7 +8778,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.5</v>
+        <v>5.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8810,14 +8815,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 17616-2025</t>
+          <t>A 52166-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45757.82684027778</v>
+        <v>45224.3316550926</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8830,7 +8835,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8867,14 +8872,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 20727-2023</t>
+          <t>A 11249-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45058.48152777777</v>
+        <v>45371.63502314815</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8887,7 +8892,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8924,14 +8929,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 55071-2023</t>
+          <t>A 21302-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45237</v>
+        <v>45780.88960648148</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8944,7 +8949,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8981,14 +8986,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 52164-2023</t>
+          <t>A 21872-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45224</v>
+        <v>45784.38836805556</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9001,7 +9006,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>5.4</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9038,14 +9043,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 52166-2023</t>
+          <t>A 22271-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45224.3316550926</v>
+        <v>45785.89675925926</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9058,7 +9063,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9095,14 +9100,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 56832-2023</t>
+          <t>A 60323-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45244</v>
+        <v>45994.72667824074</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9115,7 +9120,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9152,14 +9157,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 12091-2024</t>
+          <t>A 60334-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45377.56653935185</v>
+        <v>45994.76167824074</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9172,7 +9177,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9209,14 +9214,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 51012-2023</t>
+          <t>A 9512-2021</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45218.57846064815</v>
+        <v>44251</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9228,13 +9233,8 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9271,14 +9271,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 64291-2023</t>
+          <t>A 61737-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45280</v>
+        <v>46002.59627314815</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9328,14 +9328,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 13582-2025</t>
+          <t>A 61741-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45736.59074074074</v>
+        <v>46002.60090277778</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9385,14 +9385,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 25499-2022</t>
+          <t>A 24542-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44732.57032407408</v>
+        <v>45798.44365740741</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9442,14 +9442,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 46798-2024</t>
+          <t>A 26992-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45583</v>
+        <v>45811.52253472222</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9462,7 +9462,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>6.3</v>
+        <v>3.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9499,14 +9499,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 17860-2021</t>
+          <t>A 7356-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44301.28643518518</v>
+        <v>45704.50445601852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9519,7 +9519,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9556,14 +9556,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 11249-2024</t>
+          <t>A 9492-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45371.63502314815</v>
+        <v>45715.49974537037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9576,7 +9576,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9613,14 +9613,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 21302-2025</t>
+          <t>A 9494-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45780.88960648148</v>
+        <v>45715.503125</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9670,14 +9670,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 21872-2025</t>
+          <t>A 27513-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45784.38836805556</v>
+        <v>45813.42880787037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9690,7 +9690,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9727,14 +9727,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 22271-2025</t>
+          <t>A 11697-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45785.89675925926</v>
+        <v>45373.60171296296</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9747,7 +9747,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9784,14 +9784,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 9512-2021</t>
+          <t>A 56558-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44251</v>
+        <v>45625.57997685186</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9841,14 +9841,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 24542-2025</t>
+          <t>A 9491-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45798.44365740741</v>
+        <v>45715.4965162037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9898,14 +9898,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 26992-2025</t>
+          <t>A 9785-2026</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45811.52253472222</v>
+        <v>46072.59296296296</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9955,14 +9955,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 27513-2025</t>
+          <t>A 35404-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45813.42880787037</v>
+        <v>45855.35253472222</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10012,14 +10012,14 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 11697-2024</t>
+          <t>A 16509-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45373.60171296296</v>
+        <v>45751.61958333333</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>

--- a/Översikt HÄRRYDA.xlsx
+++ b/Översikt HÄRRYDA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z158"/>
+  <dimension ref="A1:Z157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45608.35664351852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45030</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45239</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,14 +930,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 46044-2025</t>
+          <t>A 26989-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45924.45489583333</v>
+        <v>45811.5165625</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.7</v>
+        <v>4.6</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -984,122 +984,122 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Kungsfågel
+Skogsduva</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 26989-2025 artfynd.xlsx", "A 26989-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 26989-2025 karta.png", "A 26989-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 26989-2025 FSC-klagomål.docx", "A 26989-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 26989-2025 FSC-klagomål mail.docx", "A 26989-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 26989-2025 tillsynsbegäran.docx", "A 26989-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 26989-2025 tillsynsbegäran mail.docx", "A 26989-2025")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 26989-2025 prioriterade fågelarter.docx", "A 26989-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 46044-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45924.45489583333</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HÄRRYDA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Fjällig taggsvamp s.str.
 Mandelriska</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 46044-2025 artfynd.xlsx", "A 46044-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 46044-2025 karta.png", "A 46044-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 46044-2025 FSC-klagomål.docx", "A 46044-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 46044-2025 FSC-klagomål mail.docx", "A 46044-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 46044-2025 tillsynsbegäran.docx", "A 46044-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 46044-2025 tillsynsbegäran mail.docx", "A 46044-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 26989-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45811.5165625</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HÄRRYDA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Kungsfågel
-Skogsduva</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 26989-2025 artfynd.xlsx", "A 26989-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 26989-2025 karta.png", "A 26989-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 26989-2025 FSC-klagomål.docx", "A 26989-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 26989-2025 FSC-klagomål mail.docx", "A 26989-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 26989-2025 tillsynsbegäran.docx", "A 26989-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 26989-2025 tillsynsbegäran mail.docx", "A 26989-2025")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 26989-2025 prioriterade fågelarter.docx", "A 26989-2025")</f>
         <v/>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
         <v>46058.59695601852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44508</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,14 +1282,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 43202-2024</t>
+          <t>A 42915-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45567.69123842593</v>
+        <v>45908.76802083333</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,31 +1336,31 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Havstulpanlav</t>
+          <t>Klippfrullania</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 43202-2024 artfynd.xlsx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 42915-2025 artfynd.xlsx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 43202-2024 karta.png", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 42915-2025 karta.png", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 43202-2024 FSC-klagomål.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 42915-2025 FSC-klagomål.docx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 43202-2024 FSC-klagomål mail.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 42915-2025 FSC-klagomål mail.docx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 43202-2024 tillsynsbegäran.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 42915-2025 tillsynsbegäran.docx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 43202-2024 tillsynsbegäran mail.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 42915-2025 tillsynsbegäran mail.docx", "A 42915-2025")</f>
         <v/>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
         <v>45239.34966435185</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1456,14 +1456,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 42915-2025</t>
+          <t>A 27482-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45908.76802083333</v>
+        <v>45813.38332175926</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1476,17 +1476,17 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>8.699999999999999</v>
+        <v>14.1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1510,31 +1510,31 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Klippfrullania</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 42915-2025 artfynd.xlsx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 27482-2025 artfynd.xlsx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 42915-2025 karta.png", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 27482-2025 karta.png", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 42915-2025 FSC-klagomål.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 27482-2025 FSC-klagomål.docx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 42915-2025 FSC-klagomål mail.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 27482-2025 FSC-klagomål mail.docx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 42915-2025 tillsynsbegäran.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 27482-2025 tillsynsbegäran.docx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 42915-2025 tillsynsbegäran mail.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 27482-2025 tillsynsbegäran mail.docx", "A 27482-2025")</f>
         <v/>
       </c>
     </row>
@@ -1548,7 +1548,7 @@
         <v>45939.61609953704</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1626,14 +1626,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 39670-2025</t>
+          <t>A 14259-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45890.64280092593</v>
+        <v>45740.62429398148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1680,45 +1680,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Flodpärlmussla</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 39670-2025 artfynd.xlsx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 14259-2025 artfynd.xlsx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 39670-2025 karta.png", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 14259-2025 karta.png", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 39670-2025 FSC-klagomål.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 14259-2025 FSC-klagomål.docx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 39670-2025 FSC-klagomål mail.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 14259-2025 FSC-klagomål mail.docx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 39670-2025 tillsynsbegäran.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 14259-2025 tillsynsbegäran.docx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 39670-2025 tillsynsbegäran mail.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 14259-2025 tillsynsbegäran mail.docx", "A 14259-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 21101-2023</t>
+          <t>A 39670-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45061</v>
+        <v>45890.64280092593</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1731,23 +1731,23 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
@@ -1755,55 +1755,55 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Åkergroda</t>
+          <t>Flodpärlmussla</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 21101-2023 artfynd.xlsx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 39670-2025 artfynd.xlsx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 21101-2023 karta.png", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 39670-2025 karta.png", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 21101-2023 FSC-klagomål.docx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 39670-2025 FSC-klagomål.docx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 21101-2023 FSC-klagomål mail.docx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 39670-2025 FSC-klagomål mail.docx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 21101-2023 tillsynsbegäran.docx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 39670-2025 tillsynsbegäran.docx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 21101-2023 tillsynsbegäran mail.docx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 39670-2025 tillsynsbegäran mail.docx", "A 39670-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 7575-2025</t>
+          <t>A 43202-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45705</v>
+        <v>45567.69123842593</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.9</v>
+        <v>5.3</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1850,45 +1850,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Havstulpanlav</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 7575-2025 artfynd.xlsx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 43202-2024 artfynd.xlsx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 7575-2025 karta.png", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 43202-2024 karta.png", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 7575-2025 FSC-klagomål.docx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 43202-2024 FSC-klagomål.docx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 7575-2025 FSC-klagomål mail.docx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 43202-2024 FSC-klagomål mail.docx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 7575-2025 tillsynsbegäran.docx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 43202-2024 tillsynsbegäran.docx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 7575-2025 tillsynsbegäran mail.docx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 43202-2024 tillsynsbegäran mail.docx", "A 43202-2024")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 27482-2025</t>
+          <t>A 21101-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45813.38332175926</v>
+        <v>45061</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1901,16 +1901,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>14.1</v>
+        <v>0.5</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1935,45 +1935,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Åkergroda</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 27482-2025 artfynd.xlsx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 21101-2023 artfynd.xlsx", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 27482-2025 karta.png", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 21101-2023 karta.png", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 27482-2025 FSC-klagomål.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 21101-2023 FSC-klagomål.docx", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 27482-2025 FSC-klagomål mail.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 21101-2023 FSC-klagomål mail.docx", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 27482-2025 tillsynsbegäran.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 21101-2023 tillsynsbegäran.docx", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 27482-2025 tillsynsbegäran mail.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 21101-2023 tillsynsbegäran mail.docx", "A 21101-2023")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 14259-2025</t>
+          <t>A 7575-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45740.62429398148</v>
+        <v>45705</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1986,13 +1986,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2010,41 +2010,41 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 14259-2025 artfynd.xlsx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 7575-2025 artfynd.xlsx", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 14259-2025 karta.png", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 7575-2025 karta.png", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 14259-2025 FSC-klagomål.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 7575-2025 FSC-klagomål.docx", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 14259-2025 FSC-klagomål mail.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 7575-2025 FSC-klagomål mail.docx", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 14259-2025 tillsynsbegäran.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 7575-2025 tillsynsbegäran.docx", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 14259-2025 tillsynsbegäran mail.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 7575-2025 tillsynsbegäran mail.docx", "A 7575-2025")</f>
         <v/>
       </c>
     </row>
@@ -2058,7 +2058,7 @@
         <v>45736.59434027778</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44301.77314814815</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44732</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>44599</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>44623.57480324074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>44257</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2421,14 +2421,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 21780-2022</t>
+          <t>A 72891-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44708</v>
+        <v>44547</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2441,7 +2441,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2478,14 +2478,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 72891-2021</t>
+          <t>A 53200-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44547</v>
+        <v>44468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2498,7 +2498,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>5.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2535,14 +2535,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 53200-2021</t>
+          <t>A 21780-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44468</v>
+        <v>44708</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>5.3</v>
+        <v>1.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>44321.65381944444</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44278</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>44278</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2763,14 +2763,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 53204-2021</t>
+          <t>A 58926-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44468</v>
+        <v>44489.80715277778</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2820,14 +2820,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 59767-2021</t>
+          <t>A 12906-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44494</v>
+        <v>44271.47340277778</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2877,14 +2877,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 58926-2021</t>
+          <t>A 53204-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44489.80715277778</v>
+        <v>44468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2934,14 +2934,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 25267-2021</t>
+          <t>A 59767-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44342.44517361111</v>
+        <v>44494</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.2</v>
+        <v>6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2991,14 +2991,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 12906-2021</t>
+          <t>A 25267-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44271.47340277778</v>
+        <v>44342.44517361111</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3055,7 +3055,7 @@
         <v>44615.66289351852</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44392</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>44784.51399305555</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>44344</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44266</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44543.354375</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3390,14 +3390,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 15683-2022</t>
+          <t>A 19782-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44663</v>
+        <v>44694</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3447,14 +3447,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 19782-2022</t>
+          <t>A 15683-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44694</v>
+        <v>44663</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>44351</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>44508</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3618,14 +3618,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 51162-2023</t>
+          <t>A 52045-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45219</v>
+        <v>44873.31652777778</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3675,14 +3675,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 64560-2023</t>
+          <t>A 58481-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45281.4116087963</v>
+        <v>44902</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>7.1</v>
+        <v>2.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3732,14 +3732,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 25439-2022</t>
+          <t>A 63592-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44732.48712962963</v>
+        <v>44508</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3789,14 +3789,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 12091-2024</t>
+          <t>A 41725-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45377.56653935185</v>
+        <v>45560.86376157407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3846,14 +3846,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 11939-2024</t>
+          <t>A 41457-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45376.67043981481</v>
+        <v>45175</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>7.1</v>
+        <v>0.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3903,14 +3903,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 25726-2022</t>
+          <t>A 51162-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44733</v>
+        <v>45219</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3960,14 +3960,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 14183-2024</t>
+          <t>A 19977-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45393.34479166667</v>
+        <v>44697</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.8</v>
+        <v>4.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4017,14 +4017,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 16679-2025</t>
+          <t>A 11249-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45754.44922453703</v>
+        <v>45371.63502314815</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.6</v>
+        <v>6.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4074,14 +4074,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 17860-2021</t>
+          <t>A 48538-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44301.28643518518</v>
+        <v>45936.41079861111</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4131,14 +4131,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 51127-2023</t>
+          <t>A 21302-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45219</v>
+        <v>45780.88960648148</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4188,14 +4188,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 51130-2023</t>
+          <t>A 11939-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45219</v>
+        <v>45376.67043981481</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.8</v>
+        <v>7.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4245,14 +4245,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 47334-2024</t>
+          <t>A 21872-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45587.39581018518</v>
+        <v>45784.38836805556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4302,14 +4302,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 37201-2023</t>
+          <t>A 48440-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45155</v>
+        <v>45935.51550925926</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4359,14 +4359,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 13692-2021</t>
+          <t>A 48432-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44274</v>
+        <v>45934.89319444444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4416,14 +4416,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 41318-2022</t>
+          <t>A 61874-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44826</v>
+        <v>45651.93527777777</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>11.5</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4473,14 +4473,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 47362-2024</t>
+          <t>A 39676-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45587.4371875</v>
+        <v>45890.64989583333</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4530,14 +4530,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 2605-2024</t>
+          <t>A 40285-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45313.7355787037</v>
+        <v>45895.37532407408</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4587,14 +4587,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 20727-2023</t>
+          <t>A 40299-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45058.48152777777</v>
+        <v>45895.39837962963</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4644,14 +4644,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 51157-2023</t>
+          <t>A 22271-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45219</v>
+        <v>45785.89675925926</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4701,14 +4701,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 17616-2025</t>
+          <t>A 40281-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45757.82684027778</v>
+        <v>45895.36684027778</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4758,14 +4758,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 40053-2023</t>
+          <t>A 40306-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45168.72297453704</v>
+        <v>45895.40923611111</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4815,14 +4815,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 5630-2023</t>
+          <t>A 40273-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44960</v>
+        <v>45895.34994212963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4834,8 +4834,13 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4872,14 +4877,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 18001-2025</t>
+          <t>A 37201-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45761.41210648148</v>
+        <v>45155</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4892,7 +4897,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4929,14 +4934,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 41457-2023</t>
+          <t>A 13454-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45175</v>
+        <v>45387.51503472222</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4949,7 +4954,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4986,14 +4991,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 63592-2021</t>
+          <t>A 57269-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44508</v>
+        <v>45629.57262731482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5006,7 +5011,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>8.699999999999999</v>
+        <v>2.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5043,14 +5048,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 21800-2023</t>
+          <t>A 42307-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45067.85023148148</v>
+        <v>45904.65253472222</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5063,7 +5068,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5100,14 +5105,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 34665-2023</t>
+          <t>A 14468-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45140.81900462963</v>
+        <v>45012.65208333333</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5120,7 +5125,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5157,14 +5162,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 2946-2024</t>
+          <t>A 24542-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45315</v>
+        <v>45798.44365740741</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5177,7 +5182,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5214,14 +5219,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 15480-2025</t>
+          <t>A 51154-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45747.55828703703</v>
+        <v>45219</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5234,7 +5239,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>5.6</v>
+        <v>1.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5271,14 +5276,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 18003-2025</t>
+          <t>A 51157-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45761.41628472223</v>
+        <v>45219</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5291,7 +5296,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5328,14 +5333,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 65080-2023</t>
+          <t>A 43832-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45287</v>
+        <v>45912.63020833334</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5348,7 +5353,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.7</v>
+        <v>6.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5385,14 +5390,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 12090-2024</t>
+          <t>A 26992-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45377.56537037037</v>
+        <v>45811.52253472222</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5405,7 +5410,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.5</v>
+        <v>3.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5442,14 +5447,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 52043-2024</t>
+          <t>A 27513-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45608.32934027778</v>
+        <v>45813.42880787037</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5462,7 +5467,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.4</v>
+        <v>1.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5499,14 +5504,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 57269-2024</t>
+          <t>A 11697-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45629.57262731482</v>
+        <v>45373.60171296296</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5519,7 +5524,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5556,14 +5561,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 69563-2021</t>
+          <t>A 46349-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44532</v>
+        <v>45925.48078703704</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5576,7 +5581,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5613,14 +5618,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 52045-2022</t>
+          <t>A 56558-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44873.31652777778</v>
+        <v>45625.57997685186</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5670,14 +5675,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 3753-2024</t>
+          <t>A 40053-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45321.54748842592</v>
+        <v>45168.72297453704</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5690,7 +5695,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5727,14 +5732,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 4433-2025</t>
+          <t>A 9491-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45686.49392361111</v>
+        <v>45715.4965162037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5747,7 +5752,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4.3</v>
+        <v>1.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5784,14 +5789,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 1807-2024</t>
+          <t>A 50188-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45307.59741898148</v>
+        <v>45943.63313657408</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5804,7 +5809,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5841,14 +5846,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 29697-2023</t>
+          <t>A 39672-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45107</v>
+        <v>45890.64541666667</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5861,7 +5866,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>5.8</v>
+        <v>3.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5898,14 +5903,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 23492-2022</t>
+          <t>A 29697-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44721.36030092592</v>
+        <v>45107</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5918,7 +5923,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4.4</v>
+        <v>5.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5955,14 +5960,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 39761-2023</t>
+          <t>A 1551-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45167.71447916667</v>
+        <v>44573.61799768519</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5975,7 +5980,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6012,14 +6017,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 16435-2025</t>
+          <t>A 51009-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45751.48401620371</v>
+        <v>45947.37550925926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6032,7 +6037,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6069,14 +6074,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 59711-2022</t>
+          <t>A 18003-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44908.40974537037</v>
+        <v>45761.41628472223</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6089,7 +6094,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6126,14 +6131,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 13582-2025</t>
+          <t>A 13108-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45736.59074074074</v>
+        <v>45002</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6146,7 +6151,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6183,14 +6188,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 39762-2023</t>
+          <t>A 69563-2021</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45167.71539351852</v>
+        <v>44532</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6203,7 +6208,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6240,14 +6245,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 19977-2022</t>
+          <t>A 51501-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44697</v>
+        <v>45950.63748842593</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6260,7 +6265,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4.7</v>
+        <v>6.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6297,14 +6302,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 46798-2024</t>
+          <t>A 60432-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45583</v>
+        <v>44911</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6317,7 +6322,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>6.3</v>
+        <v>0.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6354,14 +6359,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 39676-2025</t>
+          <t>A 35404-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45890.64989583333</v>
+        <v>45855.35253472222</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6374,7 +6379,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6411,14 +6416,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 61874-2024</t>
+          <t>A 21800-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45651.93527777777</v>
+        <v>45067.85023148148</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6431,7 +6436,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6468,14 +6473,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 40281-2025</t>
+          <t>A 16679-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45895.36684027778</v>
+        <v>45754.44922453703</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6488,7 +6493,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6525,14 +6530,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 40273-2025</t>
+          <t>A 25726-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45895.34994212963</v>
+        <v>44733</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6544,13 +6549,8 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6587,14 +6587,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 40299-2025</t>
+          <t>A 16509-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45895.39837962963</v>
+        <v>45751.61958333333</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6644,14 +6644,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 40285-2025</t>
+          <t>A 41995-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45895.37532407408</v>
+        <v>45903.55027777778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6701,14 +6701,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 40306-2025</t>
+          <t>A 4433-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45895.40923611111</v>
+        <v>45686.49392361111</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6758,14 +6758,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 13454-2024</t>
+          <t>A 13692-2021</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45387.51503472222</v>
+        <v>44274</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6815,14 +6815,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 21398-2023</t>
+          <t>A 16435-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45063</v>
+        <v>45751.48401620371</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>6.6</v>
+        <v>1.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6872,14 +6872,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 42307-2025</t>
+          <t>A 29696-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45904.65253472222</v>
+        <v>45107</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.4</v>
+        <v>5.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6929,14 +6929,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 14468-2023</t>
+          <t>A 55274-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45012.65208333333</v>
+        <v>45968.70364583333</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6986,14 +6986,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 43832-2025</t>
+          <t>A 55273-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45912.63020833334</v>
+        <v>45968.69956018519</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>6.4</v>
+        <v>2.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7043,14 +7043,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 25499-2022</t>
+          <t>A 47350-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44732.57032407408</v>
+        <v>45587.41349537037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7063,7 +7063,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7100,14 +7100,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 9693-2021</t>
+          <t>A 5987-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44252</v>
+        <v>45336</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7157,14 +7157,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 32866-2022</t>
+          <t>A 41318-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44784.50711805555</v>
+        <v>44826</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.4</v>
+        <v>11.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7214,14 +7214,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 41725-2024</t>
+          <t>A 34938-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45560.86376157407</v>
+        <v>44796</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7234,7 +7234,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7271,14 +7271,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 46349-2025</t>
+          <t>A 9693-2021</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45925.48078703704</v>
+        <v>44252</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7328,14 +7328,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 5985-2024</t>
+          <t>A 39761-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45336.56657407407</v>
+        <v>45167.71447916667</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7385,14 +7385,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 64291-2023</t>
+          <t>A 60323-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45280</v>
+        <v>45994.72667824074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7442,14 +7442,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 48440-2025</t>
+          <t>A 60334-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45935.51550925926</v>
+        <v>45994.76167824074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7499,14 +7499,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 48538-2025</t>
+          <t>A 39762-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45936.41079861111</v>
+        <v>45167.71539351852</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7556,14 +7556,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 48432-2025</t>
+          <t>A 52043-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45934.89319444444</v>
+        <v>45608.32934027778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7613,14 +7613,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 47350-2024</t>
+          <t>A 18001-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45587.41349537037</v>
+        <v>45761.41210648148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7670,14 +7670,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 50188-2025</t>
+          <t>A 47334-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45943.63313657408</v>
+        <v>45587.39581018518</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7727,14 +7727,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 39672-2025</t>
+          <t>A 14183-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45890.64541666667</v>
+        <v>45393.34479166667</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7784,14 +7784,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 4315-2024</t>
+          <t>A 61737-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45324</v>
+        <v>46002.59627314815</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7841,14 +7841,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 1551-2022</t>
+          <t>A 61741-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44573.61799768519</v>
+        <v>46002.60090277778</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7898,14 +7898,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 51012-2023</t>
+          <t>A 2946-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45218.57846064815</v>
+        <v>45315</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7917,13 +7917,8 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7960,14 +7955,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 56832-2023</t>
+          <t>A 4315-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45244</v>
+        <v>45324</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7980,7 +7975,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>4.9</v>
+        <v>0.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8017,14 +8012,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 60432-2022</t>
+          <t>A 5985-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44911</v>
+        <v>45336.56657407407</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8037,7 +8032,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8074,14 +8069,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 51501-2025</t>
+          <t>A 15480-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45950.63748842593</v>
+        <v>45747.55828703703</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8094,7 +8089,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8131,14 +8126,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 51009-2025</t>
+          <t>A 23492-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45947.37550925926</v>
+        <v>44721.36030092592</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8151,7 +8146,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.9</v>
+        <v>4.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8188,14 +8183,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 13108-2023</t>
+          <t>A 64560-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45002</v>
+        <v>45281.4116087963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8208,7 +8203,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.7</v>
+        <v>7.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8245,14 +8240,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 29696-2023</t>
+          <t>A 3753-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45107</v>
+        <v>45321.54748842592</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8265,7 +8260,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>5.3</v>
+        <v>0.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8302,14 +8297,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 58481-2022</t>
+          <t>A 7356-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44902</v>
+        <v>45704.50445601852</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8322,7 +8317,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8359,14 +8354,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 34938-2022</t>
+          <t>A 9492-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44796</v>
+        <v>45715.49974537037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8379,7 +8374,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8416,14 +8411,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 5987-2024</t>
+          <t>A 9494-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45336</v>
+        <v>45715.503125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8436,7 +8431,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8473,14 +8468,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 55071-2023</t>
+          <t>A 1807-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45237</v>
+        <v>45307.59741898148</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8493,7 +8488,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8530,14 +8525,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 41995-2025</t>
+          <t>A 25439-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45903.55027777778</v>
+        <v>44732.48712962963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8550,7 +8545,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>6.5</v>
+        <v>0.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8587,14 +8582,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 51154-2023</t>
+          <t>A 5630-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45219</v>
+        <v>44960</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8607,7 +8602,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8644,14 +8639,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 55273-2025</t>
+          <t>A 51127-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45968.69956018519</v>
+        <v>45219</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8664,7 +8659,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8701,14 +8696,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 55274-2025</t>
+          <t>A 51130-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45968.70364583333</v>
+        <v>45219</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8721,7 +8716,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8758,14 +8753,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 52164-2023</t>
+          <t>A 2605-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45224</v>
+        <v>45313.7355787037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8778,7 +8773,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>5.4</v>
+        <v>1.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8815,14 +8810,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 52166-2023</t>
+          <t>A 21398-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45224.3316550926</v>
+        <v>45063</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8835,7 +8830,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.9</v>
+        <v>6.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8872,14 +8867,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 11249-2024</t>
+          <t>A 34665-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45371.63502314815</v>
+        <v>45140.81900462963</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8892,7 +8887,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8929,14 +8924,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 21302-2025</t>
+          <t>A 9785-2026</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45780.88960648148</v>
+        <v>46072.59296296296</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8949,7 +8944,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8986,14 +8981,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 21872-2025</t>
+          <t>A 32866-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45784.38836805556</v>
+        <v>44784.50711805555</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9006,7 +9001,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9043,14 +9038,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 22271-2025</t>
+          <t>A 65080-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45785.89675925926</v>
+        <v>45287</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9100,14 +9095,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 60323-2025</t>
+          <t>A 59711-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45994.72667824074</v>
+        <v>44908.40974537037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9120,7 +9115,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>3.9</v>
+        <v>0.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9157,14 +9152,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 60334-2025</t>
+          <t>A 12090-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45994.76167824074</v>
+        <v>45377.56537037037</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9177,7 +9172,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9214,14 +9209,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 9512-2021</t>
+          <t>A 47362-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44251</v>
+        <v>45587.4371875</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9234,7 +9229,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9271,14 +9266,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 61737-2025</t>
+          <t>A 17616-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>46002.59627314815</v>
+        <v>45757.82684027778</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9291,7 +9286,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9328,14 +9323,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 61741-2025</t>
+          <t>A 20727-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>46002.60090277778</v>
+        <v>45058.48152777777</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9348,7 +9343,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9385,14 +9380,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 24542-2025</t>
+          <t>A 55071-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45798.44365740741</v>
+        <v>45237</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9405,7 +9400,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9442,14 +9437,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 26992-2025</t>
+          <t>A 52164-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45811.52253472222</v>
+        <v>45224</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9462,7 +9457,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.9</v>
+        <v>5.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9499,14 +9494,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 7356-2025</t>
+          <t>A 52166-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45704.50445601852</v>
+        <v>45224.3316550926</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9556,14 +9551,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 9492-2025</t>
+          <t>A 56832-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45715.49974537037</v>
+        <v>45244</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9576,7 +9571,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.2</v>
+        <v>4.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9613,14 +9608,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 9494-2025</t>
+          <t>A 12091-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45715.503125</v>
+        <v>45377.56653935185</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9633,7 +9628,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9670,14 +9665,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 27513-2025</t>
+          <t>A 51012-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45813.42880787037</v>
+        <v>45218.57846064815</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9687,6 +9682,11 @@
       <c r="E152" t="inlineStr">
         <is>
           <t>HÄRRYDA</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G152" t="n">
@@ -9727,14 +9727,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 11697-2024</t>
+          <t>A 64291-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45373.60171296296</v>
+        <v>45280</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9747,7 +9747,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9784,14 +9784,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 56558-2024</t>
+          <t>A 13582-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45625.57997685186</v>
+        <v>45736.59074074074</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9841,14 +9841,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 9491-2025</t>
+          <t>A 25499-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45715.4965162037</v>
+        <v>44732.57032407408</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9898,14 +9898,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 9785-2026</t>
+          <t>A 46798-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>46072.59296296296</v>
+        <v>45583</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.8</v>
+        <v>6.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9952,17 +9952,17 @@
       </c>
       <c r="R156" s="2" t="inlineStr"/>
     </row>
-    <row r="157" ht="15" customHeight="1">
+    <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 35404-2025</t>
+          <t>A 17860-2021</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45855.35253472222</v>
+        <v>44301.28643518518</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10008,63 +10008,6 @@
         <v>0</v>
       </c>
       <c r="R157" s="2" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>A 16509-2025</t>
-        </is>
-      </c>
-      <c r="B158" s="1" t="n">
-        <v>45751.61958333333</v>
-      </c>
-      <c r="C158" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>HÄRRYDA</t>
-        </is>
-      </c>
-      <c r="G158" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="n">
-        <v>0</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0</v>
-      </c>
-      <c r="L158" t="n">
-        <v>0</v>
-      </c>
-      <c r="M158" t="n">
-        <v>0</v>
-      </c>
-      <c r="N158" t="n">
-        <v>0</v>
-      </c>
-      <c r="O158" t="n">
-        <v>0</v>
-      </c>
-      <c r="P158" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q158" t="n">
-        <v>0</v>
-      </c>
-      <c r="R158" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HÄRRYDA.xlsx
+++ b/Översikt HÄRRYDA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z157"/>
+  <dimension ref="A1:Z156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 52061-2024</t>
+          <t>A 16723-2023</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45608.35664351852</v>
+        <v>45030</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,16 +588,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>8.1</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -621,6 +621,98 @@
         <v>4</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Björksplintborre
+Blåmossa
+Kornknutmossa</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 16723-2023 artfynd.xlsx", "A 16723-2023")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 16723-2023 karta.png", "A 16723-2023")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 16723-2023 FSC-klagomål.docx", "A 16723-2023")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 16723-2023 FSC-klagomål mail.docx", "A 16723-2023")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 16723-2023 tillsynsbegäran.docx", "A 16723-2023")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 16723-2023 tillsynsbegäran mail.docx", "A 16723-2023")</f>
+        <v/>
+      </c>
+      <c r="Z2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 16723-2023 prioriterade fågelarter.docx", "A 16723-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 52061-2024</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45608.35664351852</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>HÄRRYDA</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Blåmossa
 Skuggmossa
@@ -628,120 +720,28 @@
 Vågbandad barkbock</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 52061-2024 artfynd.xlsx", "A 52061-2024")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 52061-2024 karta.png", "A 52061-2024")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 52061-2024 FSC-klagomål.docx", "A 52061-2024")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 52061-2024 FSC-klagomål mail.docx", "A 52061-2024")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 52061-2024 tillsynsbegäran.docx", "A 52061-2024")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 52061-2024 tillsynsbegäran mail.docx", "A 52061-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 16723-2023</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45030</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>HÄRRYDA</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>4</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Björksplintborre
-Blåmossa
-Kornknutmossa</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 16723-2023 artfynd.xlsx", "A 16723-2023")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 16723-2023 karta.png", "A 16723-2023")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 16723-2023 FSC-klagomål.docx", "A 16723-2023")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 16723-2023 FSC-klagomål mail.docx", "A 16723-2023")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 16723-2023 tillsynsbegäran.docx", "A 16723-2023")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 16723-2023 tillsynsbegäran mail.docx", "A 16723-2023")</f>
-        <v/>
-      </c>
-      <c r="Z3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 16723-2023 prioriterade fågelarter.docx", "A 16723-2023")</f>
         <v/>
       </c>
     </row>
@@ -755,7 +755,7 @@
         <v>44732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45239</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,14 +930,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 26989-2025</t>
+          <t>A 46044-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45811.5165625</v>
+        <v>45924.45489583333</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -984,122 +984,122 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Fjällig taggsvamp s.str.
+Mandelriska</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 46044-2025 artfynd.xlsx", "A 46044-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 46044-2025 karta.png", "A 46044-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 46044-2025 FSC-klagomål.docx", "A 46044-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 46044-2025 FSC-klagomål mail.docx", "A 46044-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 46044-2025 tillsynsbegäran.docx", "A 46044-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 46044-2025 tillsynsbegäran mail.docx", "A 46044-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 26989-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45811.5165625</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HÄRRYDA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Kungsfågel
 Skogsduva</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 26989-2025 artfynd.xlsx", "A 26989-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 26989-2025 karta.png", "A 26989-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 26989-2025 FSC-klagomål.docx", "A 26989-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 26989-2025 FSC-klagomål mail.docx", "A 26989-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 26989-2025 tillsynsbegäran.docx", "A 26989-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 26989-2025 tillsynsbegäran mail.docx", "A 26989-2025")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 26989-2025 prioriterade fågelarter.docx", "A 26989-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 46044-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45924.45489583333</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HÄRRYDA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Fjällig taggsvamp s.str.
-Mandelriska</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 46044-2025 artfynd.xlsx", "A 46044-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 46044-2025 karta.png", "A 46044-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 46044-2025 FSC-klagomål.docx", "A 46044-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 46044-2025 FSC-klagomål mail.docx", "A 46044-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 46044-2025 tillsynsbegäran.docx", "A 46044-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 46044-2025 tillsynsbegäran mail.docx", "A 46044-2025")</f>
         <v/>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
         <v>46058.59695601852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44508</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,14 +1282,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 42915-2025</t>
+          <t>A 21101-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45908.76802083333</v>
+        <v>45061</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1302,13 +1302,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>8.699999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,45 +1336,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Klippfrullania</t>
+          <t>Åkergroda</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 42915-2025 artfynd.xlsx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 21101-2023 artfynd.xlsx", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 42915-2025 karta.png", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 21101-2023 karta.png", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 42915-2025 FSC-klagomål.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 21101-2023 FSC-klagomål.docx", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 42915-2025 FSC-klagomål mail.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 21101-2023 FSC-klagomål mail.docx", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 42915-2025 tillsynsbegäran.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 21101-2023 tillsynsbegäran.docx", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 42915-2025 tillsynsbegäran mail.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 21101-2023 tillsynsbegäran mail.docx", "A 21101-2023")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 55686-2023</t>
+          <t>A 43202-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45239.34966435185</v>
+        <v>45567.69123842593</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1387,13 +1387,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>6.6</v>
+        <v>5.3</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,49 +1421,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Havstulpanlav</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 55686-2023 artfynd.xlsx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 43202-2024 artfynd.xlsx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 55686-2023 karta.png", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 43202-2024 karta.png", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 55686-2023 FSC-klagomål.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 43202-2024 FSC-klagomål.docx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 55686-2023 FSC-klagomål mail.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 43202-2024 FSC-klagomål mail.docx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 55686-2023 tillsynsbegäran.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 43202-2024 tillsynsbegäran.docx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 55686-2023 tillsynsbegäran mail.docx", "A 55686-2023")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 55686-2023 prioriterade fågelarter.docx", "A 55686-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 43202-2024 tillsynsbegäran mail.docx", "A 43202-2024")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 27482-2025</t>
+          <t>A 55686-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45813.38332175926</v>
+        <v>45239.34966435185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1476,16 +1472,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>14.1</v>
+        <v>6.6</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1500,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1510,45 +1506,49 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 27482-2025 artfynd.xlsx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 55686-2023 artfynd.xlsx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 27482-2025 karta.png", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 55686-2023 karta.png", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 27482-2025 FSC-klagomål.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 55686-2023 FSC-klagomål.docx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 27482-2025 FSC-klagomål mail.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 55686-2023 FSC-klagomål mail.docx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 27482-2025 tillsynsbegäran.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 55686-2023 tillsynsbegäran.docx", "A 55686-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 27482-2025 tillsynsbegäran mail.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 55686-2023 tillsynsbegäran mail.docx", "A 55686-2023")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 55686-2023 prioriterade fågelarter.docx", "A 55686-2023")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 49645-2025</t>
+          <t>A 27482-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45939.61609953704</v>
+        <v>45813.38332175926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1561,17 +1561,17 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.3</v>
+        <v>14.1</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1595,45 +1595,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 49645-2025 artfynd.xlsx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 27482-2025 artfynd.xlsx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 49645-2025 karta.png", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 27482-2025 karta.png", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 49645-2025 FSC-klagomål.docx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 27482-2025 FSC-klagomål.docx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 49645-2025 FSC-klagomål mail.docx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 27482-2025 FSC-klagomål mail.docx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 49645-2025 tillsynsbegäran.docx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 27482-2025 tillsynsbegäran.docx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 49645-2025 tillsynsbegäran mail.docx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 27482-2025 tillsynsbegäran mail.docx", "A 27482-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 14259-2025</t>
+          <t>A 42915-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45740.62429398148</v>
+        <v>45908.76802083333</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1646,13 +1646,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1670,55 +1670,55 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Klippfrullania</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 14259-2025 artfynd.xlsx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 42915-2025 artfynd.xlsx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 14259-2025 karta.png", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 42915-2025 karta.png", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 14259-2025 FSC-klagomål.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 42915-2025 FSC-klagomål.docx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 14259-2025 FSC-klagomål mail.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 42915-2025 FSC-klagomål mail.docx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 14259-2025 tillsynsbegäran.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 42915-2025 tillsynsbegäran.docx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 14259-2025 tillsynsbegäran mail.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 42915-2025 tillsynsbegäran mail.docx", "A 42915-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 39670-2025</t>
+          <t>A 49645-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45890.64280092593</v>
+        <v>45939.61609953704</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1731,10 +1731,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1755,55 +1755,55 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Flodpärlmussla</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 39670-2025 artfynd.xlsx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 49645-2025 artfynd.xlsx", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 39670-2025 karta.png", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 49645-2025 karta.png", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 39670-2025 FSC-klagomål.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 49645-2025 FSC-klagomål.docx", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 39670-2025 FSC-klagomål mail.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 49645-2025 FSC-klagomål mail.docx", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 39670-2025 tillsynsbegäran.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 49645-2025 tillsynsbegäran.docx", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 39670-2025 tillsynsbegäran mail.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 49645-2025 tillsynsbegäran mail.docx", "A 49645-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 43202-2024</t>
+          <t>A 39670-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45567.69123842593</v>
+        <v>45890.64280092593</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1816,23 +1816,23 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5.3</v>
+        <v>1.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>1</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
@@ -1840,55 +1840,55 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Havstulpanlav</t>
+          <t>Flodpärlmussla</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 43202-2024 artfynd.xlsx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 39670-2025 artfynd.xlsx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 43202-2024 karta.png", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 39670-2025 karta.png", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 43202-2024 FSC-klagomål.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 39670-2025 FSC-klagomål.docx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 43202-2024 FSC-klagomål mail.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 39670-2025 FSC-klagomål mail.docx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 43202-2024 tillsynsbegäran.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 39670-2025 tillsynsbegäran.docx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 43202-2024 tillsynsbegäran mail.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 39670-2025 tillsynsbegäran mail.docx", "A 39670-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 21101-2023</t>
+          <t>A 14259-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45061</v>
+        <v>45740.62429398148</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1901,23 +1901,23 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
@@ -1925,41 +1925,41 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Åkergroda</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 21101-2023 artfynd.xlsx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 14259-2025 artfynd.xlsx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 21101-2023 karta.png", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 14259-2025 karta.png", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 21101-2023 FSC-klagomål.docx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 14259-2025 FSC-klagomål.docx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 21101-2023 FSC-klagomål mail.docx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 14259-2025 FSC-klagomål mail.docx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 21101-2023 tillsynsbegäran.docx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 14259-2025 tillsynsbegäran.docx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 21101-2023 tillsynsbegäran mail.docx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 14259-2025 tillsynsbegäran mail.docx", "A 14259-2025")</f>
         <v/>
       </c>
     </row>
@@ -1973,7 +1973,7 @@
         <v>45705</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45736.59434027778</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44301.77314814815</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44732</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>44599</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>44623.57480324074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>44257</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>44547</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>44468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>44708</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44321.65381944444</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44278</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2706,14 +2706,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 14349-2021</t>
+          <t>A 12906-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44278</v>
+        <v>44271.47340277778</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2763,14 +2763,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 58926-2021</t>
+          <t>A 14349-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44489.80715277778</v>
+        <v>44278</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2820,14 +2820,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 12906-2021</t>
+          <t>A 53204-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44271.47340277778</v>
+        <v>44468</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2877,14 +2877,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 53204-2021</t>
+          <t>A 59767-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44468</v>
+        <v>44494</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2934,14 +2934,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 59767-2021</t>
+          <t>A 25267-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44494</v>
+        <v>44342.44517361111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2991,14 +2991,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 25267-2021</t>
+          <t>A 58926-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44342.44517361111</v>
+        <v>44489.80715277778</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3055,7 +3055,7 @@
         <v>44615.66289351852</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44392</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3162,14 +3162,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 32869-2022</t>
+          <t>A 71648-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44784.51399305555</v>
+        <v>44543.354375</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3219,14 +3219,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 25967-2021</t>
+          <t>A 12262-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44344</v>
+        <v>44266</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>5.4</v>
+        <v>2.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3276,14 +3276,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 12262-2021</t>
+          <t>A 32869-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44266</v>
+        <v>44784.51399305555</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3333,14 +3333,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 71648-2021</t>
+          <t>A 19782-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44543.354375</v>
+        <v>44694</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3390,14 +3390,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 19782-2022</t>
+          <t>A 15683-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44694</v>
+        <v>44663</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3447,14 +3447,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 15683-2022</t>
+          <t>A 25967-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44663</v>
+        <v>44344</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.1</v>
+        <v>5.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3504,14 +3504,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 27546-2021</t>
+          <t>A 51162-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44351</v>
+        <v>45219</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3561,14 +3561,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 63595-2021</t>
+          <t>A 37201-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44508</v>
+        <v>45155</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3618,14 +3618,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 52045-2022</t>
+          <t>A 64560-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44873.31652777778</v>
+        <v>45281.4116087963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>7.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3675,14 +3675,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 58481-2022</t>
+          <t>A 27546-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44902</v>
+        <v>44351</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3732,14 +3732,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 63592-2021</t>
+          <t>A 63595-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
         <v>44508</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>8.699999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3789,14 +3789,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 41725-2024</t>
+          <t>A 12091-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45560.86376157407</v>
+        <v>45377.56653935185</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3846,14 +3846,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 41457-2023</t>
+          <t>A 11939-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45175</v>
+        <v>45376.67043981481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.7</v>
+        <v>7.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3903,14 +3903,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 51162-2023</t>
+          <t>A 47362-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45219</v>
+        <v>45587.4371875</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3960,14 +3960,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 19977-2022</t>
+          <t>A 32866-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44697</v>
+        <v>44784.50711805555</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.7</v>
+        <v>1.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4017,14 +4017,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 11249-2024</t>
+          <t>A 41725-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45371.63502314815</v>
+        <v>45560.86376157407</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>6.5</v>
+        <v>1.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4074,14 +4074,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 48538-2025</t>
+          <t>A 14183-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45936.41079861111</v>
+        <v>45393.34479166667</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4131,14 +4131,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 21302-2025</t>
+          <t>A 51127-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45780.88960648148</v>
+        <v>45219</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4188,14 +4188,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 11939-2024</t>
+          <t>A 51130-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45376.67043981481</v>
+        <v>45219</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>7.1</v>
+        <v>2.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4245,14 +4245,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 21872-2025</t>
+          <t>A 51157-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45784.38836805556</v>
+        <v>45219</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4302,14 +4302,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 48440-2025</t>
+          <t>A 40053-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45935.51550925926</v>
+        <v>45168.72297453704</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4359,14 +4359,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 48432-2025</t>
+          <t>A 5630-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45934.89319444444</v>
+        <v>44960</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4416,14 +4416,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 61874-2024</t>
+          <t>A 5985-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45651.93527777777</v>
+        <v>45336.56657407407</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4473,14 +4473,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 39676-2025</t>
+          <t>A 64291-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45890.64989583333</v>
+        <v>45280</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4530,14 +4530,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 40285-2025</t>
+          <t>A 47350-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45895.37532407408</v>
+        <v>45587.41349537037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4587,14 +4587,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 40299-2025</t>
+          <t>A 2605-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45895.39837962963</v>
+        <v>45313.7355787037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4644,14 +4644,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 22271-2025</t>
+          <t>A 25439-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45785.89675925926</v>
+        <v>44732.48712962963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4701,14 +4701,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 40281-2025</t>
+          <t>A 25726-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45895.36684027778</v>
+        <v>44733</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4758,14 +4758,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 40306-2025</t>
+          <t>A 4315-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45895.40923611111</v>
+        <v>45324</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4815,14 +4815,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 40273-2025</t>
+          <t>A 16679-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45895.34994212963</v>
+        <v>45754.44922453703</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4832,11 +4832,6 @@
       <c r="E67" t="inlineStr">
         <is>
           <t>HÄRRYDA</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -4877,14 +4872,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 37201-2023</t>
+          <t>A 1551-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45155</v>
+        <v>44573.61799768519</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4897,7 +4892,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4934,14 +4929,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 13454-2024</t>
+          <t>A 51012-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45387.51503472222</v>
+        <v>45218.57846064815</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4953,8 +4948,13 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4991,14 +4991,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 57269-2024</t>
+          <t>A 17860-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45629.57262731482</v>
+        <v>44301.28643518518</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5048,14 +5048,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 42307-2025</t>
+          <t>A 56832-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45904.65253472222</v>
+        <v>45244</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.4</v>
+        <v>4.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5105,14 +5105,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 14468-2023</t>
+          <t>A 52045-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45012.65208333333</v>
+        <v>44873.31652777778</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5162,14 +5162,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 24542-2025</t>
+          <t>A 60432-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45798.44365740741</v>
+        <v>44911</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5219,14 +5219,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 51154-2023</t>
+          <t>A 47334-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45219</v>
+        <v>45587.39581018518</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5276,14 +5276,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 51157-2023</t>
+          <t>A 13108-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45219</v>
+        <v>45002</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5333,14 +5333,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 43832-2025</t>
+          <t>A 29696-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45912.63020833334</v>
+        <v>45107</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5390,14 +5390,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 26992-2025</t>
+          <t>A 18001-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45811.52253472222</v>
+        <v>45761.41210648148</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5447,14 +5447,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 27513-2025</t>
+          <t>A 58481-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45813.42880787037</v>
+        <v>44902</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5504,14 +5504,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 11697-2024</t>
+          <t>A 13692-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45373.60171296296</v>
+        <v>44274</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5561,14 +5561,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 46349-2025</t>
+          <t>A 34938-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45925.48078703704</v>
+        <v>44796</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5618,14 +5618,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 56558-2024</t>
+          <t>A 5987-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45625.57997685186</v>
+        <v>45336</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5675,14 +5675,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 40053-2023</t>
+          <t>A 55071-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45168.72297453704</v>
+        <v>45237</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5732,14 +5732,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 9491-2025</t>
+          <t>A 41457-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45715.4965162037</v>
+        <v>45175</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5789,14 +5789,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 50188-2025</t>
+          <t>A 41318-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45943.63313657408</v>
+        <v>44826</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3</v>
+        <v>11.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5846,14 +5846,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 39672-2025</t>
+          <t>A 51154-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45890.64541666667</v>
+        <v>45219</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5903,14 +5903,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 29697-2023</t>
+          <t>A 63592-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45107</v>
+        <v>44508</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>5.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5960,14 +5960,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 1551-2022</t>
+          <t>A 52164-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44573.61799768519</v>
+        <v>45224</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4</v>
+        <v>5.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6017,14 +6017,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 51009-2025</t>
+          <t>A 52166-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45947.37550925926</v>
+        <v>45224.3316550926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6074,14 +6074,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 18003-2025</t>
+          <t>A 2946-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45761.41628472223</v>
+        <v>45315</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6131,14 +6131,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 13108-2023</t>
+          <t>A 15480-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45002</v>
+        <v>45747.55828703703</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.7</v>
+        <v>5.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6188,14 +6188,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 69563-2021</t>
+          <t>A 4433-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44532</v>
+        <v>45686.49392361111</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6245,14 +6245,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 51501-2025</t>
+          <t>A 20727-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45950.63748842593</v>
+        <v>45058.48152777777</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>6.1</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6302,14 +6302,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 60432-2022</t>
+          <t>A 11249-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44911</v>
+        <v>45371.63502314815</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.9</v>
+        <v>6.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6359,14 +6359,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 35404-2025</t>
+          <t>A 21302-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45855.35253472222</v>
+        <v>45780.88960648148</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6416,14 +6416,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 21800-2023</t>
+          <t>A 17616-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45067.85023148148</v>
+        <v>45757.82684027778</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6473,14 +6473,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 16679-2025</t>
+          <t>A 21872-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45754.44922453703</v>
+        <v>45784.38836805556</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6530,14 +6530,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 25726-2022</t>
+          <t>A 12090-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44733</v>
+        <v>45377.56537037037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6587,14 +6587,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 16509-2025</t>
+          <t>A 52043-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45751.61958333333</v>
+        <v>45608.32934027778</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6644,14 +6644,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 41995-2025</t>
+          <t>A 57269-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45903.55027777778</v>
+        <v>45629.57262731482</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6701,14 +6701,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 4433-2025</t>
+          <t>A 39676-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45686.49392361111</v>
+        <v>45890.64989583333</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.3</v>
+        <v>2.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6758,14 +6758,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 13692-2021</t>
+          <t>A 40281-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44274</v>
+        <v>45895.36684027778</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6815,14 +6815,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 16435-2025</t>
+          <t>A 40273-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45751.48401620371</v>
+        <v>45895.34994212963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6834,8 +6834,13 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6872,14 +6877,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 29696-2023</t>
+          <t>A 40299-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45107</v>
+        <v>45895.39837962963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6892,7 +6897,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>5.3</v>
+        <v>3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6929,14 +6934,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 55274-2025</t>
+          <t>A 40285-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45968.70364583333</v>
+        <v>45895.37532407408</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6949,7 +6954,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6986,14 +6991,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 55273-2025</t>
+          <t>A 40306-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45968.69956018519</v>
+        <v>45895.40923611111</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7006,7 +7011,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7043,14 +7048,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 47350-2024</t>
+          <t>A 22271-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45587.41349537037</v>
+        <v>45785.89675925926</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7063,7 +7068,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7100,14 +7105,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 5987-2024</t>
+          <t>A 29697-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45336</v>
+        <v>45107</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7120,7 +7125,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.6</v>
+        <v>5.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7157,14 +7162,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 41318-2022</t>
+          <t>A 21800-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44826</v>
+        <v>45067.85023148148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7177,7 +7182,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>11.5</v>
+        <v>3.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7214,14 +7219,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 34938-2022</t>
+          <t>A 34665-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44796</v>
+        <v>45140.81900462963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7271,14 +7276,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 9693-2021</t>
+          <t>A 23492-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44252</v>
+        <v>44721.36030092592</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7291,7 +7296,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.2</v>
+        <v>4.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7328,14 +7333,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 39761-2023</t>
+          <t>A 13454-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45167.71447916667</v>
+        <v>45387.51503472222</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7348,7 +7353,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7385,14 +7390,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 60323-2025</t>
+          <t>A 39761-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45994.72667824074</v>
+        <v>45167.71447916667</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7405,7 +7410,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7442,14 +7447,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 60334-2025</t>
+          <t>A 42307-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45994.76167824074</v>
+        <v>45904.65253472222</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7462,7 +7467,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7499,14 +7504,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 39762-2023</t>
+          <t>A 14468-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45167.71539351852</v>
+        <v>45012.65208333333</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7519,7 +7524,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7556,14 +7561,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 52043-2024</t>
+          <t>A 69563-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45608.32934027778</v>
+        <v>44532</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7576,7 +7581,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7613,14 +7618,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 18001-2025</t>
+          <t>A 43832-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45761.41210648148</v>
+        <v>45912.63020833334</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7633,7 +7638,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.7</v>
+        <v>6.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7670,14 +7675,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 47334-2024</t>
+          <t>A 24542-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45587.39581018518</v>
+        <v>45798.44365740741</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7690,7 +7695,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.3</v>
+        <v>2.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7727,14 +7732,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 14183-2024</t>
+          <t>A 19977-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45393.34479166667</v>
+        <v>44697</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7747,7 +7752,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.8</v>
+        <v>4.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7784,14 +7789,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 61737-2025</t>
+          <t>A 46798-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>46002.59627314815</v>
+        <v>45583</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7804,7 +7809,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.9</v>
+        <v>6.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7841,14 +7846,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 61741-2025</t>
+          <t>A 46349-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>46002.60090277778</v>
+        <v>45925.48078703704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7861,7 +7866,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7898,14 +7903,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 2946-2024</t>
+          <t>A 26992-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45315</v>
+        <v>45811.52253472222</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7918,7 +7923,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.6</v>
+        <v>3.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7955,14 +7960,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 4315-2024</t>
+          <t>A 27513-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45324</v>
+        <v>45813.42880787037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7975,7 +7980,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8012,14 +8017,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 5985-2024</t>
+          <t>A 11697-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45336.56657407407</v>
+        <v>45373.60171296296</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8032,7 +8037,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8069,14 +8074,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 15480-2025</t>
+          <t>A 48440-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45747.55828703703</v>
+        <v>45935.51550925926</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8089,7 +8094,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>5.6</v>
+        <v>1.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8126,14 +8131,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 23492-2022</t>
+          <t>A 48538-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44721.36030092592</v>
+        <v>45936.41079861111</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8146,7 +8151,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>4.4</v>
+        <v>0.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8183,14 +8188,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 64560-2023</t>
+          <t>A 56558-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45281.4116087963</v>
+        <v>45625.57997685186</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8203,7 +8208,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>7.1</v>
+        <v>2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8240,14 +8245,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 3753-2024</t>
+          <t>A 48432-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45321.54748842592</v>
+        <v>45934.89319444444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8260,7 +8265,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8297,14 +8302,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 7356-2025</t>
+          <t>A 50188-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45704.50445601852</v>
+        <v>45943.63313657408</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8317,7 +8322,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8354,14 +8359,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 9492-2025</t>
+          <t>A 39672-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45715.49974537037</v>
+        <v>45890.64541666667</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8374,7 +8379,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8411,14 +8416,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 9494-2025</t>
+          <t>A 18003-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45715.503125</v>
+        <v>45761.41628472223</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8431,7 +8436,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8468,14 +8473,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 1807-2024</t>
+          <t>A 65080-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45307.59741898148</v>
+        <v>45287</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8488,7 +8493,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8525,14 +8530,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 25439-2022</t>
+          <t>A 9491-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44732.48712962963</v>
+        <v>45715.4965162037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8545,7 +8550,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8582,14 +8587,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 5630-2023</t>
+          <t>A 51501-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44960</v>
+        <v>45950.63748842593</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8602,7 +8607,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.8</v>
+        <v>6.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8639,14 +8644,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 51127-2023</t>
+          <t>A 51009-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45219</v>
+        <v>45947.37550925926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8659,7 +8664,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8696,14 +8701,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 51130-2023</t>
+          <t>A 3753-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45219</v>
+        <v>45321.54748842592</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8716,7 +8721,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8753,14 +8758,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 2605-2024</t>
+          <t>A 1807-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45313.7355787037</v>
+        <v>45307.59741898148</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8773,7 +8778,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8810,14 +8815,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 21398-2023</t>
+          <t>A 41995-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45063</v>
+        <v>45903.55027777778</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8830,7 +8835,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8867,14 +8872,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 34665-2023</t>
+          <t>A 16435-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45140.81900462963</v>
+        <v>45751.48401620371</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8887,7 +8892,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8924,14 +8929,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 9785-2026</t>
+          <t>A 55273-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>46072.59296296296</v>
+        <v>45968.69956018519</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8944,7 +8949,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8981,14 +8986,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 32866-2022</t>
+          <t>A 55274-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44784.50711805555</v>
+        <v>45968.70364583333</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9001,7 +9006,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9038,14 +9043,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 65080-2023</t>
+          <t>A 59711-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45287</v>
+        <v>44908.40974537037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9058,7 +9063,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9095,14 +9100,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 59711-2022</t>
+          <t>A 13582-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44908.40974537037</v>
+        <v>45736.59074074074</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9115,7 +9120,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9152,14 +9157,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 12090-2024</t>
+          <t>A 39762-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45377.56537037037</v>
+        <v>45167.71539351852</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9209,14 +9214,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 47362-2024</t>
+          <t>A 35404-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45587.4371875</v>
+        <v>45855.35253472222</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9229,7 +9234,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9266,14 +9271,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 17616-2025</t>
+          <t>A 61874-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45757.82684027778</v>
+        <v>45651.93527777777</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9286,7 +9291,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9323,14 +9328,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 20727-2023</t>
+          <t>A 16509-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45058.48152777777</v>
+        <v>45751.61958333333</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9343,7 +9348,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9380,14 +9385,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 55071-2023</t>
+          <t>A 21398-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45237</v>
+        <v>45063</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9400,7 +9405,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.5</v>
+        <v>6.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9437,14 +9442,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 52164-2023</t>
+          <t>A 60323-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45224</v>
+        <v>45994.72667824074</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9457,7 +9462,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9494,14 +9499,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 52166-2023</t>
+          <t>A 60334-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45224.3316550926</v>
+        <v>45994.76167824074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9514,7 +9519,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9551,14 +9556,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 56832-2023</t>
+          <t>A 61737-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45244</v>
+        <v>46002.59627314815</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9571,7 +9576,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>4.9</v>
+        <v>0.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9608,14 +9613,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 12091-2024</t>
+          <t>A 61741-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45377.56653935185</v>
+        <v>46002.60090277778</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9628,7 +9633,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9665,14 +9670,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 51012-2023</t>
+          <t>A 25499-2022</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45218.57846064815</v>
+        <v>44732.57032407408</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9684,13 +9689,8 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9727,14 +9727,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 64291-2023</t>
+          <t>A 7356-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45280</v>
+        <v>45704.50445601852</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9747,7 +9747,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9784,14 +9784,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 13582-2025</t>
+          <t>A 9492-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45736.59074074074</v>
+        <v>45715.49974537037</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9841,14 +9841,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 25499-2022</t>
+          <t>A 9494-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44732.57032407408</v>
+        <v>45715.503125</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9895,17 +9895,17 @@
       </c>
       <c r="R155" s="2" t="inlineStr"/>
     </row>
-    <row r="156" ht="15" customHeight="1">
+    <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 46798-2024</t>
+          <t>A 9785-2026</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45583</v>
+        <v>46072.59296296296</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>6.3</v>
+        <v>1.8</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9951,63 +9951,6 @@
         <v>0</v>
       </c>
       <c r="R156" s="2" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>A 17860-2021</t>
-        </is>
-      </c>
-      <c r="B157" s="1" t="n">
-        <v>44301.28643518518</v>
-      </c>
-      <c r="C157" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>HÄRRYDA</t>
-        </is>
-      </c>
-      <c r="G157" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="n">
-        <v>0</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0</v>
-      </c>
-      <c r="L157" t="n">
-        <v>0</v>
-      </c>
-      <c r="M157" t="n">
-        <v>0</v>
-      </c>
-      <c r="N157" t="n">
-        <v>0</v>
-      </c>
-      <c r="O157" t="n">
-        <v>0</v>
-      </c>
-      <c r="P157" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q157" t="n">
-        <v>0</v>
-      </c>
-      <c r="R157" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HÄRRYDA.xlsx
+++ b/Översikt HÄRRYDA.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 16723-2023</t>
+          <t>A 52061-2024</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45030</v>
+        <v>45608.35664351852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,16 +588,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>8.1</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -621,6 +621,94 @@
         <v>4</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Blåmossa
+Skuggmossa
+Stor revmossa
+Vågbandad barkbock</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 52061-2024 artfynd.xlsx", "A 52061-2024")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 52061-2024 karta.png", "A 52061-2024")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 52061-2024 FSC-klagomål.docx", "A 52061-2024")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 52061-2024 FSC-klagomål mail.docx", "A 52061-2024")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 52061-2024 tillsynsbegäran.docx", "A 52061-2024")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 52061-2024 tillsynsbegäran mail.docx", "A 52061-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 16723-2023</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45030</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>HÄRRYDA</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Björksplintborre
@@ -628,120 +716,32 @@
 Kornknutmossa</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 16723-2023 artfynd.xlsx", "A 16723-2023")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 16723-2023 karta.png", "A 16723-2023")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 16723-2023 FSC-klagomål.docx", "A 16723-2023")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 16723-2023 FSC-klagomål mail.docx", "A 16723-2023")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 16723-2023 tillsynsbegäran.docx", "A 16723-2023")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 16723-2023 tillsynsbegäran mail.docx", "A 16723-2023")</f>
         <v/>
       </c>
-      <c r="Z2">
+      <c r="Z3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 16723-2023 prioriterade fågelarter.docx", "A 16723-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 52061-2024</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45608.35664351852</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>HÄRRYDA</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>4</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Blåmossa
-Skuggmossa
-Stor revmossa
-Vågbandad barkbock</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 52061-2024 artfynd.xlsx", "A 52061-2024")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 52061-2024 karta.png", "A 52061-2024")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 52061-2024 FSC-klagomål.docx", "A 52061-2024")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 52061-2024 FSC-klagomål mail.docx", "A 52061-2024")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 52061-2024 tillsynsbegäran.docx", "A 52061-2024")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 52061-2024 tillsynsbegäran mail.docx", "A 52061-2024")</f>
         <v/>
       </c>
     </row>
@@ -755,7 +755,7 @@
         <v>44732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45239</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,14 +930,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 46044-2025</t>
+          <t>A 26989-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45924.45489583333</v>
+        <v>45811.5165625</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.7</v>
+        <v>4.6</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -984,122 +984,122 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Kungsfågel
+Skogsduva</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 26989-2025 artfynd.xlsx", "A 26989-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 26989-2025 karta.png", "A 26989-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 26989-2025 FSC-klagomål.docx", "A 26989-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 26989-2025 FSC-klagomål mail.docx", "A 26989-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 26989-2025 tillsynsbegäran.docx", "A 26989-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 26989-2025 tillsynsbegäran mail.docx", "A 26989-2025")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 26989-2025 prioriterade fågelarter.docx", "A 26989-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 46044-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45924.45489583333</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HÄRRYDA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Fjällig taggsvamp s.str.
 Mandelriska</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 46044-2025 artfynd.xlsx", "A 46044-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 46044-2025 karta.png", "A 46044-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 46044-2025 FSC-klagomål.docx", "A 46044-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 46044-2025 FSC-klagomål mail.docx", "A 46044-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 46044-2025 tillsynsbegäran.docx", "A 46044-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 46044-2025 tillsynsbegäran mail.docx", "A 46044-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 26989-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45811.5165625</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HÄRRYDA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Kungsfågel
-Skogsduva</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 26989-2025 artfynd.xlsx", "A 26989-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 26989-2025 karta.png", "A 26989-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 26989-2025 FSC-klagomål.docx", "A 26989-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 26989-2025 FSC-klagomål mail.docx", "A 26989-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 26989-2025 tillsynsbegäran.docx", "A 26989-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 26989-2025 tillsynsbegäran mail.docx", "A 26989-2025")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/fåglar/A 26989-2025 prioriterade fågelarter.docx", "A 26989-2025")</f>
         <v/>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
         <v>46058.59695601852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44508</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,14 +1282,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 21101-2023</t>
+          <t>A 27482-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45061</v>
+        <v>45813.38332175926</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1302,17 +1302,17 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.5</v>
+        <v>14.1</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1336,45 +1336,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Åkergroda</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 21101-2023 artfynd.xlsx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 27482-2025 artfynd.xlsx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 21101-2023 karta.png", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 27482-2025 karta.png", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 21101-2023 FSC-klagomål.docx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 27482-2025 FSC-klagomål.docx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 21101-2023 FSC-klagomål mail.docx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 27482-2025 FSC-klagomål mail.docx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 21101-2023 tillsynsbegäran.docx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 27482-2025 tillsynsbegäran.docx", "A 27482-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 21101-2023 tillsynsbegäran mail.docx", "A 21101-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 27482-2025 tillsynsbegäran mail.docx", "A 27482-2025")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 43202-2024</t>
+          <t>A 14259-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45567.69123842593</v>
+        <v>45740.62429398148</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1387,23 +1387,23 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5.3</v>
+        <v>1.9</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
@@ -1411,41 +1411,41 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Havstulpanlav</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 43202-2024 artfynd.xlsx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 14259-2025 artfynd.xlsx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 43202-2024 karta.png", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 14259-2025 karta.png", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 43202-2024 FSC-klagomål.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 14259-2025 FSC-klagomål.docx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 43202-2024 FSC-klagomål mail.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 14259-2025 FSC-klagomål mail.docx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 43202-2024 tillsynsbegäran.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 14259-2025 tillsynsbegäran.docx", "A 14259-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 43202-2024 tillsynsbegäran mail.docx", "A 43202-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 14259-2025 tillsynsbegäran mail.docx", "A 14259-2025")</f>
         <v/>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
         <v>45239.34966435185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1541,14 +1541,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 27482-2025</t>
+          <t>A 42915-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45813.38332175926</v>
+        <v>45908.76802083333</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1561,16 +1561,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>14.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1595,45 +1595,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Klippfrullania</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 27482-2025 artfynd.xlsx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 42915-2025 artfynd.xlsx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 27482-2025 karta.png", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 42915-2025 karta.png", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 27482-2025 FSC-klagomål.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 42915-2025 FSC-klagomål.docx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 27482-2025 FSC-klagomål mail.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 42915-2025 FSC-klagomål mail.docx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 27482-2025 tillsynsbegäran.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 42915-2025 tillsynsbegäran.docx", "A 42915-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 27482-2025 tillsynsbegäran mail.docx", "A 27482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 42915-2025 tillsynsbegäran mail.docx", "A 42915-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 42915-2025</t>
+          <t>A 49645-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45908.76802083333</v>
+        <v>45939.61609953704</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1646,13 +1646,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>8.699999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1680,45 +1680,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Klippfrullania</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 42915-2025 artfynd.xlsx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 49645-2025 artfynd.xlsx", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 42915-2025 karta.png", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 49645-2025 karta.png", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 42915-2025 FSC-klagomål.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 49645-2025 FSC-klagomål.docx", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 42915-2025 FSC-klagomål mail.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 49645-2025 FSC-klagomål mail.docx", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 42915-2025 tillsynsbegäran.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 49645-2025 tillsynsbegäran.docx", "A 49645-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 42915-2025 tillsynsbegäran mail.docx", "A 42915-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 49645-2025 tillsynsbegäran mail.docx", "A 49645-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 49645-2025</t>
+          <t>A 39670-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45939.61609953704</v>
+        <v>45890.64280092593</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1731,23 +1731,23 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
@@ -1755,55 +1755,55 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Flodpärlmussla</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 49645-2025 artfynd.xlsx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 39670-2025 artfynd.xlsx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 49645-2025 karta.png", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 39670-2025 karta.png", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 49645-2025 FSC-klagomål.docx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 39670-2025 FSC-klagomål.docx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 49645-2025 FSC-klagomål mail.docx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 39670-2025 FSC-klagomål mail.docx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 49645-2025 tillsynsbegäran.docx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 39670-2025 tillsynsbegäran.docx", "A 39670-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 49645-2025 tillsynsbegäran mail.docx", "A 49645-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 39670-2025 tillsynsbegäran mail.docx", "A 39670-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 39670-2025</t>
+          <t>A 43202-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45890.64280092593</v>
+        <v>45567.69123842593</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.9</v>
+        <v>5.3</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1840,55 +1840,55 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Flodpärlmussla</t>
+          <t>Havstulpanlav</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 39670-2025 artfynd.xlsx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 43202-2024 artfynd.xlsx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 39670-2025 karta.png", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 43202-2024 karta.png", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 39670-2025 FSC-klagomål.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 43202-2024 FSC-klagomål.docx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 39670-2025 FSC-klagomål mail.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 43202-2024 FSC-klagomål mail.docx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 39670-2025 tillsynsbegäran.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 43202-2024 tillsynsbegäran.docx", "A 43202-2024")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 39670-2025 tillsynsbegäran mail.docx", "A 39670-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 43202-2024 tillsynsbegäran mail.docx", "A 43202-2024")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 14259-2025</t>
+          <t>A 7575-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45740.62429398148</v>
+        <v>45705</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1901,13 +1901,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1925,55 +1925,55 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 14259-2025 artfynd.xlsx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 7575-2025 artfynd.xlsx", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 14259-2025 karta.png", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 7575-2025 karta.png", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 14259-2025 FSC-klagomål.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 7575-2025 FSC-klagomål.docx", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 14259-2025 FSC-klagomål mail.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 7575-2025 FSC-klagomål mail.docx", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 14259-2025 tillsynsbegäran.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 7575-2025 tillsynsbegäran.docx", "A 7575-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 14259-2025 tillsynsbegäran mail.docx", "A 14259-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 7575-2025 tillsynsbegäran mail.docx", "A 7575-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 7575-2025</t>
+          <t>A 13586-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45705</v>
+        <v>45736.59434027778</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2020,45 +2020,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Smal svampklubba</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 7575-2025 artfynd.xlsx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 13586-2025 artfynd.xlsx", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 7575-2025 karta.png", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 13586-2025 karta.png", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 7575-2025 FSC-klagomål.docx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 13586-2025 FSC-klagomål.docx", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 7575-2025 FSC-klagomål mail.docx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 13586-2025 FSC-klagomål mail.docx", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 7575-2025 tillsynsbegäran.docx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 13586-2025 tillsynsbegäran.docx", "A 13586-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 7575-2025 tillsynsbegäran mail.docx", "A 7575-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 13586-2025 tillsynsbegäran mail.docx", "A 13586-2025")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 13586-2025</t>
+          <t>A 21101-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45736.59434027778</v>
+        <v>45061</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2071,13 +2071,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2105,31 +2105,31 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Smal svampklubba</t>
+          <t>Åkergroda</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 13586-2025 artfynd.xlsx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/artfynd/A 21101-2023 artfynd.xlsx", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 13586-2025 karta.png", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/kartor/A 21101-2023 karta.png", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 13586-2025 FSC-klagomål.docx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomål/A 21101-2023 FSC-klagomål.docx", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 13586-2025 FSC-klagomål mail.docx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/klagomålsmail/A 21101-2023 FSC-klagomål mail.docx", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 13586-2025 tillsynsbegäran.docx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsyn/A 21101-2023 tillsynsbegäran.docx", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 13586-2025 tillsynsbegäran mail.docx", "A 13586-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1401/tillsynsmail/A 21101-2023 tillsynsbegäran mail.docx", "A 21101-2023")</f>
         <v/>
       </c>
     </row>
@@ -2143,7 +2143,7 @@
         <v>44301.77314814815</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44732</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>44599</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>44623.57480324074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>44257</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>44547</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>44468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>44708</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44321.65381944444</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44278</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2706,14 +2706,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 12906-2021</t>
+          <t>A 14349-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44271.47340277778</v>
+        <v>44278</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2763,14 +2763,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 14349-2021</t>
+          <t>A 58926-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44278</v>
+        <v>44489.80715277778</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2820,14 +2820,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 53204-2021</t>
+          <t>A 12906-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44468</v>
+        <v>44271.47340277778</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2877,14 +2877,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 59767-2021</t>
+          <t>A 53204-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44494</v>
+        <v>44468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2934,14 +2934,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 25267-2021</t>
+          <t>A 59767-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44342.44517361111</v>
+        <v>44494</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.2</v>
+        <v>6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2991,14 +2991,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 58926-2021</t>
+          <t>A 25267-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44489.80715277778</v>
+        <v>44342.44517361111</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3055,7 +3055,7 @@
         <v>44615.66289351852</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44392</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3162,14 +3162,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 71648-2021</t>
+          <t>A 32869-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44543.354375</v>
+        <v>44784.51399305555</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3219,14 +3219,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 12262-2021</t>
+          <t>A 25967-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44266</v>
+        <v>44344</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.6</v>
+        <v>5.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3276,14 +3276,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 32869-2022</t>
+          <t>A 12262-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44784.51399305555</v>
+        <v>44266</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3333,14 +3333,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 19782-2022</t>
+          <t>A 71648-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44694</v>
+        <v>44543.354375</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3390,14 +3390,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 15683-2022</t>
+          <t>A 19782-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44663</v>
+        <v>44694</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3447,14 +3447,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 25967-2021</t>
+          <t>A 15683-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44344</v>
+        <v>44663</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>5.4</v>
+        <v>0.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3504,14 +3504,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 51162-2023</t>
+          <t>A 27546-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45219</v>
+        <v>44351</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3561,14 +3561,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 37201-2023</t>
+          <t>A 63595-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45155</v>
+        <v>44508</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>45281.4116087963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3675,14 +3675,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 27546-2021</t>
+          <t>A 12091-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44351</v>
+        <v>45377.56653935185</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3732,14 +3732,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 63595-2021</t>
+          <t>A 11939-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44508</v>
+        <v>45376.67043981481</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.2</v>
+        <v>7.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3789,14 +3789,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 12091-2024</t>
+          <t>A 14183-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45377.56653935185</v>
+        <v>45393.34479166667</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3846,14 +3846,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 11939-2024</t>
+          <t>A 51127-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45376.67043981481</v>
+        <v>45219</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>7.1</v>
+        <v>1.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3903,14 +3903,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 47362-2024</t>
+          <t>A 51130-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45587.4371875</v>
+        <v>45219</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3960,14 +3960,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 32866-2022</t>
+          <t>A 51162-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44784.50711805555</v>
+        <v>45219</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4017,14 +4017,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 41725-2024</t>
+          <t>A 2605-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45560.86376157407</v>
+        <v>45313.7355787037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4074,14 +4074,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 14183-2024</t>
+          <t>A 52045-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45393.34479166667</v>
+        <v>44873.31652777778</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4131,14 +4131,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 51127-2023</t>
+          <t>A 26992-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45219</v>
+        <v>45811.52253472222</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4188,14 +4188,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 51130-2023</t>
+          <t>A 39676-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45219</v>
+        <v>45890.64989583333</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4245,14 +4245,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 51157-2023</t>
+          <t>A 27513-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45219</v>
+        <v>45813.42880787037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4302,14 +4302,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 40053-2023</t>
+          <t>A 11697-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45168.72297453704</v>
+        <v>45373.60171296296</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4359,14 +4359,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 5630-2023</t>
+          <t>A 56558-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44960</v>
+        <v>45625.57997685186</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4416,14 +4416,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 5985-2024</t>
+          <t>A 37201-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45336.56657407407</v>
+        <v>45155</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4473,14 +4473,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 64291-2023</t>
+          <t>A 40281-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45280</v>
+        <v>45895.36684027778</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4530,14 +4530,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 47350-2024</t>
+          <t>A 40273-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45587.41349537037</v>
+        <v>45895.34994212963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4549,8 +4549,13 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4587,14 +4592,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 2605-2024</t>
+          <t>A 40299-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45313.7355787037</v>
+        <v>45895.39837962963</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4607,7 +4612,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4644,14 +4649,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 25439-2022</t>
+          <t>A 40285-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44732.48712962963</v>
+        <v>45895.37532407408</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4664,7 +4669,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4701,14 +4706,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 25726-2022</t>
+          <t>A 40306-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44733</v>
+        <v>45895.40923611111</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4721,7 +4726,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4758,14 +4763,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 4315-2024</t>
+          <t>A 13454-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45324</v>
+        <v>45387.51503472222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4778,7 +4783,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4815,14 +4820,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 16679-2025</t>
+          <t>A 47362-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45754.44922453703</v>
+        <v>45587.4371875</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4835,7 +4840,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4872,14 +4877,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 1551-2022</t>
+          <t>A 9491-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44573.61799768519</v>
+        <v>45715.4965162037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4892,7 +4897,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4929,14 +4934,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 51012-2023</t>
+          <t>A 42307-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45218.57846064815</v>
+        <v>45904.65253472222</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4948,13 +4953,8 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4991,14 +4991,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 17860-2021</t>
+          <t>A 14468-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44301.28643518518</v>
+        <v>45012.65208333333</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5048,14 +5048,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 56832-2023</t>
+          <t>A 51157-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45244</v>
+        <v>45219</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.9</v>
+        <v>2.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5105,14 +5105,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 52045-2022</t>
+          <t>A 40053-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44873.31652777778</v>
+        <v>45168.72297453704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5162,14 +5162,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 60432-2022</t>
+          <t>A 5630-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44911</v>
+        <v>44960</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5219,14 +5219,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 47334-2024</t>
+          <t>A 43832-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45587.39581018518</v>
+        <v>45912.63020833334</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.3</v>
+        <v>6.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5276,14 +5276,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 13108-2023</t>
+          <t>A 25439-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45002</v>
+        <v>44732.48712962963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5333,14 +5333,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 29696-2023</t>
+          <t>A 25726-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45107</v>
+        <v>44733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5.3</v>
+        <v>2.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5390,14 +5390,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 18001-2025</t>
+          <t>A 16679-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45761.41210648148</v>
+        <v>45754.44922453703</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5447,14 +5447,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 58481-2022</t>
+          <t>A 35404-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44902</v>
+        <v>45855.35253472222</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5504,14 +5504,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 13692-2021</t>
+          <t>A 17860-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44274</v>
+        <v>44301.28643518518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5561,14 +5561,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 34938-2022</t>
+          <t>A 47334-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44796</v>
+        <v>45587.39581018518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.3</v>
+        <v>0.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5618,14 +5618,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 5987-2024</t>
+          <t>A 16509-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45336</v>
+        <v>45751.61958333333</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5675,14 +5675,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 55071-2023</t>
+          <t>A 46349-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45237</v>
+        <v>45925.48078703704</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5732,14 +5732,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 41457-2023</t>
+          <t>A 13692-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45175</v>
+        <v>44274</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5796,7 +5796,7 @@
         <v>44826</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5846,14 +5846,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 51154-2023</t>
+          <t>A 48440-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45219</v>
+        <v>45935.51550925926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5903,14 +5903,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 63592-2021</t>
+          <t>A 48538-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44508</v>
+        <v>45936.41079861111</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>8.699999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5960,14 +5960,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 52164-2023</t>
+          <t>A 48432-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45224</v>
+        <v>45934.89319444444</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>5.4</v>
+        <v>1.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6017,14 +6017,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 52166-2023</t>
+          <t>A 4433-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45224.3316550926</v>
+        <v>45686.49392361111</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.9</v>
+        <v>4.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6074,14 +6074,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 2946-2024</t>
+          <t>A 50188-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45315</v>
+        <v>45943.63313657408</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6131,14 +6131,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 15480-2025</t>
+          <t>A 39672-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45747.55828703703</v>
+        <v>45890.64541666667</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>5.6</v>
+        <v>3.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6188,14 +6188,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 4433-2025</t>
+          <t>A 20727-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45686.49392361111</v>
+        <v>45058.48152777777</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6245,14 +6245,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 20727-2023</t>
+          <t>A 17616-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45058.48152777777</v>
+        <v>45757.82684027778</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6302,14 +6302,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 11249-2024</t>
+          <t>A 51501-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45371.63502314815</v>
+        <v>45950.63748842593</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6359,14 +6359,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 21302-2025</t>
+          <t>A 51009-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45780.88960648148</v>
+        <v>45947.37550925926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6416,14 +6416,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 17616-2025</t>
+          <t>A 41995-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45757.82684027778</v>
+        <v>45903.55027777778</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.2</v>
+        <v>6.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6473,14 +6473,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 21872-2025</t>
+          <t>A 21800-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45784.38836805556</v>
+        <v>45067.85023148148</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6530,14 +6530,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 12090-2024</t>
+          <t>A 34665-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45377.56537037037</v>
+        <v>45140.81900462963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6587,14 +6587,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 52043-2024</t>
+          <t>A 55273-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45608.32934027778</v>
+        <v>45968.69956018519</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.4</v>
+        <v>2.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6644,14 +6644,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 57269-2024</t>
+          <t>A 55274-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45629.57262731482</v>
+        <v>45968.70364583333</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6701,14 +6701,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 39676-2025</t>
+          <t>A 69563-2021</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45890.64989583333</v>
+        <v>44532</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6758,14 +6758,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 40281-2025</t>
+          <t>A 18001-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45895.36684027778</v>
+        <v>45761.41210648148</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6815,14 +6815,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 40273-2025</t>
+          <t>A 41457-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45895.34994212963</v>
+        <v>45175</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6834,13 +6834,8 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6877,14 +6872,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 40299-2025</t>
+          <t>A 63592-2021</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45895.39837962963</v>
+        <v>44508</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6897,7 +6892,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6934,14 +6929,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 40285-2025</t>
+          <t>A 2946-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45895.37532407408</v>
+        <v>45315</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6954,7 +6949,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6991,14 +6986,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 40306-2025</t>
+          <t>A 15480-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45895.40923611111</v>
+        <v>45747.55828703703</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7011,7 +7006,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.3</v>
+        <v>5.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7048,14 +7043,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 22271-2025</t>
+          <t>A 12090-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45785.89675925926</v>
+        <v>45377.56537037037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7068,7 +7063,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7105,14 +7100,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 29697-2023</t>
+          <t>A 52043-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45107</v>
+        <v>45608.32934027778</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7125,7 +7120,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>5.8</v>
+        <v>4.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7162,14 +7157,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 21800-2023</t>
+          <t>A 57269-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45067.85023148148</v>
+        <v>45629.57262731482</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7182,7 +7177,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7219,14 +7214,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 34665-2023</t>
+          <t>A 60323-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45140.81900462963</v>
+        <v>45994.72667824074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7239,7 +7234,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7276,14 +7271,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 23492-2022</t>
+          <t>A 60334-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44721.36030092592</v>
+        <v>45994.76167824074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7296,7 +7291,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7333,14 +7328,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 13454-2024</t>
+          <t>A 61737-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45387.51503472222</v>
+        <v>46002.59627314815</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7353,7 +7348,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7390,14 +7385,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 39761-2023</t>
+          <t>A 61741-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45167.71447916667</v>
+        <v>46002.60090277778</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7410,7 +7405,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7447,14 +7442,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 42307-2025</t>
+          <t>A 29697-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45904.65253472222</v>
+        <v>45107</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7467,7 +7462,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.4</v>
+        <v>5.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7504,14 +7499,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 14468-2023</t>
+          <t>A 23492-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45012.65208333333</v>
+        <v>44721.36030092592</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7524,7 +7519,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7561,14 +7556,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 69563-2021</t>
+          <t>A 39761-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44532</v>
+        <v>45167.71447916667</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7581,7 +7576,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7618,14 +7613,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 43832-2025</t>
+          <t>A 19977-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45912.63020833334</v>
+        <v>44697</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7638,7 +7633,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>6.4</v>
+        <v>4.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7675,14 +7670,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 24542-2025</t>
+          <t>A 46798-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45798.44365740741</v>
+        <v>45583</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7695,7 +7690,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.9</v>
+        <v>6.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7732,14 +7727,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 19977-2022</t>
+          <t>A 7356-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44697</v>
+        <v>45704.50445601852</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7752,7 +7747,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4.7</v>
+        <v>0.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7789,14 +7784,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 46798-2024</t>
+          <t>A 9492-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45583</v>
+        <v>45715.49974537037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7809,7 +7804,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>6.3</v>
+        <v>2.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7846,14 +7841,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 46349-2025</t>
+          <t>A 9494-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45925.48078703704</v>
+        <v>45715.503125</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7866,7 +7861,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7903,14 +7898,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 26992-2025</t>
+          <t>A 18003-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45811.52253472222</v>
+        <v>45761.41628472223</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7923,7 +7918,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7960,14 +7955,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 27513-2025</t>
+          <t>A 65080-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45813.42880787037</v>
+        <v>45287</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7980,7 +7975,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8017,14 +8012,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 11697-2024</t>
+          <t>A 3753-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45373.60171296296</v>
+        <v>45321.54748842592</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8037,7 +8032,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8074,14 +8069,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 48440-2025</t>
+          <t>A 1807-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45935.51550925926</v>
+        <v>45307.59741898148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8094,7 +8089,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8131,14 +8126,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 48538-2025</t>
+          <t>A 16435-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45936.41079861111</v>
+        <v>45751.48401620371</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8151,7 +8146,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8188,14 +8183,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 56558-2024</t>
+          <t>A 59711-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45625.57997685186</v>
+        <v>44908.40974537037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8208,7 +8203,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8245,14 +8240,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 48432-2025</t>
+          <t>A 13582-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45934.89319444444</v>
+        <v>45736.59074074074</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8265,7 +8260,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8302,14 +8297,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 50188-2025</t>
+          <t>A 39762-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45943.63313657408</v>
+        <v>45167.71539351852</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8322,7 +8317,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8359,14 +8354,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 39672-2025</t>
+          <t>A 61874-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45890.64541666667</v>
+        <v>45651.93527777777</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8379,7 +8374,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8416,14 +8411,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 18003-2025</t>
+          <t>A 9785-2026</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45761.41628472223</v>
+        <v>46072.59296296296</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8436,7 +8431,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8473,14 +8468,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 65080-2023</t>
+          <t>A 21398-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45287</v>
+        <v>45063</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8493,7 +8488,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.7</v>
+        <v>6.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8530,14 +8525,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 9491-2025</t>
+          <t>A 25499-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45715.4965162037</v>
+        <v>44732.57032407408</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8550,7 +8545,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8587,14 +8582,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 51501-2025</t>
+          <t>A 32866-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45950.63748842593</v>
+        <v>44784.50711805555</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8607,7 +8602,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>6.1</v>
+        <v>1.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8644,14 +8639,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 51009-2025</t>
+          <t>A 41725-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45947.37550925926</v>
+        <v>45560.86376157407</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8664,7 +8659,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8701,14 +8696,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 3753-2024</t>
+          <t>A 5985-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45321.54748842592</v>
+        <v>45336.56657407407</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8721,7 +8716,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8758,14 +8753,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 1807-2024</t>
+          <t>A 64291-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45307.59741898148</v>
+        <v>45280</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8778,7 +8773,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8815,14 +8810,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 41995-2025</t>
+          <t>A 47350-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45903.55027777778</v>
+        <v>45587.41349537037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8835,7 +8830,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8872,14 +8867,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 16435-2025</t>
+          <t>A 4315-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45751.48401620371</v>
+        <v>45324</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8892,7 +8887,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8929,14 +8924,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 55273-2025</t>
+          <t>A 1551-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45968.69956018519</v>
+        <v>44573.61799768519</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8949,7 +8944,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8986,14 +8981,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 55274-2025</t>
+          <t>A 51012-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45968.70364583333</v>
+        <v>45218.57846064815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9005,8 +9000,13 @@
           <t>HÄRRYDA</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9043,14 +9043,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 59711-2022</t>
+          <t>A 56832-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44908.40974537037</v>
+        <v>45244</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.9</v>
+        <v>4.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9100,14 +9100,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 13582-2025</t>
+          <t>A 60432-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45736.59074074074</v>
+        <v>44911</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9157,14 +9157,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 39762-2023</t>
+          <t>A 13108-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45167.71539351852</v>
+        <v>45002</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9214,14 +9214,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 35404-2025</t>
+          <t>A 29696-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45855.35253472222</v>
+        <v>45107</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.5</v>
+        <v>5.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9271,14 +9271,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 61874-2024</t>
+          <t>A 58481-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45651.93527777777</v>
+        <v>44902</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9328,14 +9328,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 16509-2025</t>
+          <t>A 34938-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45751.61958333333</v>
+        <v>44796</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9385,14 +9385,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 21398-2023</t>
+          <t>A 5987-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45063</v>
+        <v>45336</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>6.6</v>
+        <v>0.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9442,14 +9442,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 60323-2025</t>
+          <t>A 55071-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45994.72667824074</v>
+        <v>45237</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9462,7 +9462,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9499,14 +9499,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 60334-2025</t>
+          <t>A 51154-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45994.76167824074</v>
+        <v>45219</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9519,7 +9519,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9556,14 +9556,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 61737-2025</t>
+          <t>A 52164-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>46002.59627314815</v>
+        <v>45224</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9576,7 +9576,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.9</v>
+        <v>5.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9613,14 +9613,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 61741-2025</t>
+          <t>A 52166-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>46002.60090277778</v>
+        <v>45224.3316550926</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9670,14 +9670,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 25499-2022</t>
+          <t>A 11249-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44732.57032407408</v>
+        <v>45371.63502314815</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9690,7 +9690,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9727,14 +9727,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 7356-2025</t>
+          <t>A 21302-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45704.50445601852</v>
+        <v>45780.88960648148</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9784,14 +9784,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 9492-2025</t>
+          <t>A 21872-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45715.49974537037</v>
+        <v>45784.38836805556</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9841,14 +9841,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 9494-2025</t>
+          <t>A 22271-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45715.503125</v>
+        <v>45785.89675925926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9898,14 +9898,14 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 9785-2026</t>
+          <t>A 24542-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>46072.59296296296</v>
+        <v>45798.44365740741</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
